--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -511,7 +511,7 @@
         <v>31540</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>45792.04166666666</v>
@@ -542,7 +542,7 @@
         <v>31540</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>45792.04166666666</v>
@@ -573,7 +573,7 @@
         <v>31540</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>45792.04166666666</v>
@@ -604,7 +604,7 @@
         <v>31540</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>45792.04166666666</v>
@@ -635,13 +635,13 @@
         <v>31704</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45798</v>
+        <v>45791</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>45792.125</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,7 +666,7 @@
         <v>31864</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>45792.14583333334</v>
@@ -697,7 +697,7 @@
         <v>31864</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>45792.14583333334</v>
@@ -728,7 +728,7 @@
         <v>31864</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>45792.14583333334</v>
@@ -759,7 +759,7 @@
         <v>31864</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>45792.14583333334</v>
@@ -776,29 +776,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M7</t>
+          <t>31798_20902_1300_T02014_4_M6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M7</t>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31798_20500_1300_WRF065_4_M7</t>
+          <t>31798_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31798_20906_1300_None_4_M7</t>
+          <t>31798_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>31798</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>45792.5</v>
@@ -815,29 +815,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M7</t>
+          <t>31800_20902_1300_T02126_4_M6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M7</t>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31800_20500_1300_WRF065_4_M7</t>
+          <t>31800_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31800_20906_1300_None_4_M7</t>
+          <t>31800_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>31800</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>45792.52083333334</v>
@@ -854,29 +854,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31802_20902_1300_T02015_4_M7</t>
+          <t>31802_20902_1300_T02015_4_M6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M7</t>
+          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>31802_20500_1300_WRF065_4_M7</t>
+          <t>31802_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>31802_20906_1300_None_4_M7</t>
+          <t>31802_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>31802</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>45792.54166666666</v>
@@ -896,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,80 +987,85 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>original_due_date</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>comb_classification_1_PROCCODE</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>fabric_width_1_PROCCODE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>production_length_1_PROCCODE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>mixture_list_1_PROCCODE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>comb_classification_2_PROCCODE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>fabric_width_2_PROCCODE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>production_length_2_PROCCODE</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>mixture_list_2_PROCCODE</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>comb_classification_3_PROCCODE</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>fabric_width_3_PROCCODE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>production_length_3_PROCCODE</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>mixture_list_3_PROCCODE</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>comb_classification_4_PROCCODE</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>fabric_width_4_PROCCODE</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>production_length_4_PROCCODE</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>mixture_list_4_PROCCODE</t>
         </is>
@@ -1103,7 +1108,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>45798</v>
+        <v>45791</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -1123,35 +1128,37 @@
       <c r="P2" t="n">
         <v>300</v>
       </c>
-      <c r="Q2" t="n">
-        <v>4</v>
+      <c r="Q2" s="2" t="n">
+        <v>45798</v>
       </c>
       <c r="R2" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T2" t="n">
         <v>3.067484662576687</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>T01521|T0915</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
       <c r="V2" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" t="n">
         <v>3.067484662576687</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>T01288|T01715</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
@@ -1159,6 +1166,7 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1168,22 +1176,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M7</t>
+          <t>31798_20902_1300_T02014_4_M6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M7</t>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31798_20500_1300_WRF065_4_M7</t>
+          <t>31798_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>31798_20906_1300_None_4_M7</t>
+          <t>31798_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1205,7 +1213,7 @@
         <v>60</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -1225,58 +1233,61 @@
       <c r="P3" t="n">
         <v>1860</v>
       </c>
-      <c r="Q3" t="n">
-        <v>4</v>
+      <c r="Q3" s="2" t="n">
+        <v>45839</v>
       </c>
       <c r="R3" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T3" t="n">
         <v>18.76513317191283</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>T02014</t>
         </is>
       </c>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
       <c r="V3" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X3" t="n">
         <v>18.76513317191283</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>T02149|W1817</t>
         </is>
       </c>
-      <c r="Y3" t="n">
-        <v>4</v>
-      </c>
       <c r="Z3" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="AA3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AB3" t="n">
         <v>18.76513317191283</v>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>WRF065</t>
         </is>
       </c>
-      <c r="AC3" t="n">
-        <v>4</v>
-      </c>
       <c r="AD3" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AF3" t="n">
         <v>18.76513317191283</v>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -1290,22 +1301,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M7</t>
+          <t>31800_20902_1300_T02126_4_M6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M7</t>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31800_20500_1300_WRF065_4_M7</t>
+          <t>31800_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31800_20906_1300_None_4_M7</t>
+          <t>31800_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1327,7 +1338,7 @@
         <v>120</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1347,58 +1358,61 @@
       <c r="P4" t="n">
         <v>3720</v>
       </c>
-      <c r="Q4" t="n">
-        <v>4</v>
+      <c r="Q4" s="2" t="n">
+        <v>45839</v>
       </c>
       <c r="R4" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T4" t="n">
         <v>37.62135922330098</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>T02126</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
       <c r="V4" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X4" t="n">
         <v>37.62135922330098</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>T02149|W1817</t>
         </is>
       </c>
-      <c r="Y4" t="n">
-        <v>4</v>
-      </c>
       <c r="Z4" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AB4" t="n">
         <v>37.62135922330098</v>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>WRF065</t>
         </is>
       </c>
-      <c r="AC4" t="n">
-        <v>4</v>
-      </c>
       <c r="AD4" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AF4" t="n">
         <v>37.62135922330098</v>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -1412,22 +1426,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31802_20902_1300_T02015_4_M7</t>
+          <t>31802_20902_1300_T02015_4_M6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M7</t>
+          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31802_20500_1300_WRF065_4_M7</t>
+          <t>31802_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>31802_20906_1300_None_4_M7</t>
+          <t>31802_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1449,7 +1463,7 @@
         <v>120</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>45839</v>
+        <v>45832</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1469,58 +1483,61 @@
       <c r="P5" t="n">
         <v>3720</v>
       </c>
-      <c r="Q5" t="n">
-        <v>4</v>
+      <c r="Q5" s="2" t="n">
+        <v>45839</v>
       </c>
       <c r="R5" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T5" t="n">
         <v>37.58335017175187</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>T02015</t>
         </is>
       </c>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
       <c r="V5" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X5" t="n">
         <v>37.58335017175187</v>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>T02149</t>
         </is>
       </c>
-      <c r="Y5" t="n">
-        <v>4</v>
-      </c>
       <c r="Z5" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AB5" t="n">
         <v>37.58335017175187</v>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>WRF065</t>
         </is>
       </c>
-      <c r="AC5" t="n">
-        <v>4</v>
-      </c>
       <c r="AD5" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AF5" t="n">
         <v>37.58335017175187</v>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -1563,7 +1580,7 @@
         <v>360</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1583,35 +1600,37 @@
       <c r="P6" t="n">
         <v>11160</v>
       </c>
-      <c r="Q6" t="n">
-        <v>4</v>
+      <c r="Q6" s="2" t="n">
+        <v>45805</v>
       </c>
       <c r="R6" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T6" t="n">
         <v>225.7281553398059</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>W2044|T02515</t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
       <c r="V6" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
         <v>225.7281553398059</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>W1809</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
@@ -1619,6 +1638,7 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1657,7 +1677,7 @@
         <v>120</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1677,35 +1697,37 @@
       <c r="P7" t="n">
         <v>3720</v>
       </c>
-      <c r="Q7" t="n">
-        <v>4</v>
+      <c r="Q7" s="2" t="n">
+        <v>45805</v>
       </c>
       <c r="R7" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T7" t="n">
         <v>225.7281553398059</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>W2044|T02515</t>
         </is>
       </c>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
       <c r="V7" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X7" t="n">
         <v>225.7281553398059</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>W1809</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
@@ -1713,6 +1735,7 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1751,7 +1774,7 @@
         <v>120</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1771,35 +1794,37 @@
       <c r="P8" t="n">
         <v>3720</v>
       </c>
-      <c r="Q8" t="n">
-        <v>4</v>
+      <c r="Q8" s="2" t="n">
+        <v>45805</v>
       </c>
       <c r="R8" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T8" t="n">
         <v>225.7281553398059</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>W2044|T02515</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
       <c r="V8" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X8" t="n">
         <v>225.7281553398059</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>W1809</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
@@ -1807,6 +1832,7 @@
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1845,7 +1871,7 @@
         <v>120</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1865,35 +1891,37 @@
       <c r="P9" t="n">
         <v>3720</v>
       </c>
-      <c r="Q9" t="n">
-        <v>4</v>
+      <c r="Q9" s="2" t="n">
+        <v>45805</v>
       </c>
       <c r="R9" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T9" t="n">
         <v>225.7281553398059</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>W2044|T02515</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
       <c r="V9" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X9" t="n">
         <v>225.7281553398059</v>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>W1809</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
@@ -1901,6 +1929,7 @@
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1939,7 +1968,7 @@
         <v>480</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1959,35 +1988,37 @@
       <c r="P10" t="n">
         <v>14880</v>
       </c>
-      <c r="Q10" t="n">
-        <v>4</v>
+      <c r="Q10" s="2" t="n">
+        <v>45805</v>
       </c>
       <c r="R10" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T10" t="n">
         <v>338.7292594091461</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>T02296</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
       <c r="V10" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X10" t="n">
         <v>338.7292594091461</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>T02149|W1809</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
@@ -1995,6 +2026,7 @@
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2033,7 +2065,7 @@
         <v>120</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -2053,35 +2085,37 @@
       <c r="P11" t="n">
         <v>3720</v>
       </c>
-      <c r="Q11" t="n">
-        <v>4</v>
+      <c r="Q11" s="2" t="n">
+        <v>45805</v>
       </c>
       <c r="R11" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T11" t="n">
         <v>338.7292594091461</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>T02296</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
       <c r="V11" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X11" t="n">
         <v>338.7292594091461</v>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>T02149|W1809</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
@@ -2089,6 +2123,7 @@
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2127,7 +2162,7 @@
         <v>240</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -2147,35 +2182,37 @@
       <c r="P12" t="n">
         <v>7440</v>
       </c>
-      <c r="Q12" t="n">
-        <v>4</v>
+      <c r="Q12" s="2" t="n">
+        <v>45805</v>
       </c>
       <c r="R12" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T12" t="n">
         <v>338.7292594091461</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>T02296</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
       <c r="V12" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W12" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X12" t="n">
         <v>338.7292594091461</v>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>T02149|W1809</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
@@ -2183,6 +2220,7 @@
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2221,7 +2259,7 @@
         <v>240</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>45805</v>
+        <v>45798</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -2241,35 +2279,37 @@
       <c r="P13" t="n">
         <v>7440</v>
       </c>
-      <c r="Q13" t="n">
-        <v>4</v>
+      <c r="Q13" s="2" t="n">
+        <v>45805</v>
       </c>
       <c r="R13" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T13" t="n">
         <v>338.7292594091461</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>T02296</t>
         </is>
       </c>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
       <c r="V13" t="n">
-        <v>1300</v>
+        <v>4</v>
       </c>
       <c r="W13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X13" t="n">
         <v>338.7292594091461</v>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>T02149|W1809</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
@@ -2277,6 +2317,7 @@
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2415,7 +2456,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['2025-05-21']</t>
+          <t>['2025-05-14']</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -2478,7 +2519,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['2025-05-21']</t>
+          <t>['2025-05-14']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -2517,7 +2558,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M7</t>
+          <t>31798_20902_1300_T02014_4_M6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2541,7 +2582,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -2580,7 +2621,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M7</t>
+          <t>31800_20902_1300_T02126_4_M6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2604,7 +2645,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -2643,7 +2684,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31802_20902_1300_T02015_4_M7</t>
+          <t>31802_20902_1300_T02015_4_M6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2667,7 +2708,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -2706,7 +2747,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31798_20906_1300_None_4_M7</t>
+          <t>31798_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2730,7 +2771,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -2769,7 +2810,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31800_20906_1300_None_4_M7</t>
+          <t>31800_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2793,7 +2834,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -2832,7 +2873,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31802_20906_1300_None_4_M7</t>
+          <t>31802_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2856,7 +2897,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -2919,7 +2960,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['2025-05-28', '2025-05-28', '2025-05-28', '2025-05-28']</t>
+          <t>['2025-05-21', '2025-05-21', '2025-05-21', '2025-05-21']</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2982,7 +3023,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['2025-05-28', '2025-05-28', '2025-05-28', '2025-05-28']</t>
+          <t>['2025-05-21', '2025-05-21', '2025-05-21', '2025-05-21']</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -3045,7 +3086,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['2025-05-28', '2025-05-28', '2025-05-28', '2025-05-28']</t>
+          <t>['2025-05-21', '2025-05-21', '2025-05-21', '2025-05-21']</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -3108,7 +3149,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['2025-05-28', '2025-05-28', '2025-05-28', '2025-05-28']</t>
+          <t>['2025-05-21', '2025-05-21', '2025-05-21', '2025-05-21']</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -3147,7 +3188,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M7</t>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3171,7 +3212,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -3210,7 +3251,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M7</t>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3234,7 +3275,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -3273,7 +3314,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M7</t>
+          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3297,7 +3338,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -3336,7 +3377,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>31798_20500_1300_WRF065_4_M7</t>
+          <t>31798_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3360,7 +3401,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3399,7 +3440,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31800_20500_1300_WRF065_4_M7</t>
+          <t>31800_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3423,7 +3464,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3462,7 +3503,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>31802_20500_1300_WRF065_4_M7</t>
+          <t>31802_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3486,7 +3527,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['2025-07-01']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3761,7 +3802,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M7</t>
+          <t>31798_20902_1300_T02014_4_M6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -3839,12 +3880,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M7</t>
+          <t>31798_20902_1300_T02014_4_M6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M7</t>
+          <t>31800_20902_1300_T02126_4_M6</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -3922,12 +3963,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M7</t>
+          <t>31800_20902_1300_T02126_4_M6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>31802_20902_1300_T02015_4_M7</t>
+          <t>31802_20902_1300_T02015_4_M6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -4176,7 +4217,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M7</t>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -4254,12 +4295,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M7</t>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M7</t>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -4337,12 +4378,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M7</t>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M7</t>
+          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -4420,12 +4461,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M7</t>
+          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>31798_20500_1300_WRF065_4_M7</t>
+          <t>31798_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,60 +492,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SW1250506113</t>
+          <t>SW1250407101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31540_20300_1300_T02296_4_M5</t>
+          <t>31704_23311_1300_T01521|T0915_4_M5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+          <t>31704_12400_1300_T01288|T01715_4_M5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>31540</v>
+        <v>31704</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45798</v>
+        <v>45791</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SW1250506111</t>
+          <t>SW1250505201</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31540_20300_1300_T02296_4_M5</t>
+          <t>31798_20902_1300_T02014_4_M6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31798_20500_1300_WRF065_4_M6</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31798_20906_1300_None_4_M6</t>
+        </is>
+      </c>
       <c r="F3" t="n">
-        <v>31540</v>
+        <v>31798</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45798</v>
+        <v>45832</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.9375</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -554,29 +562,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SW1250506110</t>
+          <t>SW1250505202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31540_20300_1300_T02296_4_M5</t>
+          <t>31800_20902_1300_T02126_4_M6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31800_20500_1300_WRF065_4_M6</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31800_20906_1300_None_4_M6</t>
+        </is>
+      </c>
       <c r="F4" t="n">
-        <v>31540</v>
+        <v>31800</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45798</v>
+        <v>45832</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45793.125</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -585,29 +601,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SW1250506109</t>
+          <t>SW1250505203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31540_20300_1300_T02296_4_M5</t>
+          <t>31802_20902_1300_T02015_4_M6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>31802_20706_1300_T02149_4_M6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31802_20500_1300_WRF065_4_M6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31802_20906_1300_None_4_M6</t>
+        </is>
+      </c>
       <c r="F5" t="n">
-        <v>31540</v>
+        <v>31802</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45798</v>
+        <v>45832</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45793.29166666666</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -616,60 +640,60 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SW1250407101</t>
+          <t>SW1250506113</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31704_23311_1300_T01521|T0915_4_M5</t>
+          <t>31540_20300_1300_T02296_4_M5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31704_12400_1300_T01288|T01715_4_M5</t>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>31704</v>
+        <v>31540</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45791</v>
+        <v>45798</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45792.125</v>
+        <v>45793.79166666666</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SW1250506107</t>
+          <t>SW1250506111</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>31864_20300_1300_W2044|T02515_4_M5</t>
+          <t>31540_20300_1300_T02296_4_M5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>31864</v>
+        <v>31540</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>45798</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45793.79166666666</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -678,29 +702,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SW1250506106</t>
+          <t>SW1250506110</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31864_20300_1300_W2044|T02515_4_M5</t>
+          <t>31540_20300_1300_T02296_4_M5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>31864</v>
+        <v>31540</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>45798</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45793.79166666666</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -709,29 +733,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SW1250506105</t>
+          <t>SW1250506109</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31864_20300_1300_W2044|T02515_4_M5</t>
+          <t>31540_20300_1300_T02296_4_M5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>31864</v>
+        <v>31540</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>45798</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45793.79166666666</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -740,68 +764,60 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SW1250506108</t>
+          <t>SW_SAMPLE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31864_20300_1300_W2044|T02515_4_M5</t>
+          <t>32528_20700_1300_T02149|W1809_4_M5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>32528_23100_1300_T01862_4_M5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>31864</v>
+        <v>32528</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45798</v>
+        <v>45790</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45794.125</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SW1250505201</t>
+          <t>SW1250506107</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M6</t>
+          <t>31864_20300_1300_W2044|T02515_4_M5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M6</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>31798_20500_1300_WRF065_4_M6</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>31798_20906_1300_None_4_M6</t>
-        </is>
-      </c>
+          <t>31864_20700_1300_W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>31798</v>
+        <v>31864</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45832</v>
+        <v>45798</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45792.5</v>
+        <v>45794.3125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -810,37 +826,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SW1250505202</t>
+          <t>SW1250506106</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M6</t>
+          <t>31864_20300_1300_W2044|T02515_4_M5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M6</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>31800_20500_1300_WRF065_4_M6</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>31800_20906_1300_None_4_M6</t>
-        </is>
-      </c>
+          <t>31864_20700_1300_W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>31800</v>
+        <v>31864</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45832</v>
+        <v>45798</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45794.3125</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -849,39 +857,62 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SW1250505203</t>
+          <t>SW1250506105</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31802_20902_1300_T02015_4_M6</t>
+          <t>31864_20300_1300_W2044|T02515_4_M5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M6</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>31802_20500_1300_WRF065_4_M6</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>31802_20906_1300_None_4_M6</t>
-        </is>
-      </c>
+          <t>31864_20700_1300_W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>31802</v>
+        <v>31864</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45832</v>
+        <v>45798</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45794.3125</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SW1250506108</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>31864_20300_1300_W2044|T02515_4_M5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>31864_20700_1300_W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>31864</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45794.3125</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -896,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,7 +1169,7 @@
         <v>1300</v>
       </c>
       <c r="T2" t="n">
-        <v>3.067484662576687</v>
+        <v>306.7484662576687</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -1152,7 +1183,7 @@
         <v>1300</v>
       </c>
       <c r="X2" t="n">
-        <v>3.067484662576687</v>
+        <v>306.7484662576687</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
@@ -1243,7 +1274,7 @@
         <v>1300</v>
       </c>
       <c r="T3" t="n">
-        <v>18.76513317191283</v>
+        <v>1876.513317191283</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -1257,7 +1288,7 @@
         <v>1300</v>
       </c>
       <c r="X3" t="n">
-        <v>18.76513317191283</v>
+        <v>1876.513317191283</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -1271,7 +1302,7 @@
         <v>1300</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.76513317191283</v>
+        <v>1876.513317191283</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1285,7 +1316,7 @@
         <v>1300</v>
       </c>
       <c r="AF3" t="n">
-        <v>18.76513317191283</v>
+        <v>1876.513317191283</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
@@ -1368,7 +1399,7 @@
         <v>1300</v>
       </c>
       <c r="T4" t="n">
-        <v>37.62135922330098</v>
+        <v>3762.135922330097</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -1382,7 +1413,7 @@
         <v>1300</v>
       </c>
       <c r="X4" t="n">
-        <v>37.62135922330098</v>
+        <v>3762.135922330097</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
@@ -1396,7 +1427,7 @@
         <v>1300</v>
       </c>
       <c r="AB4" t="n">
-        <v>37.62135922330098</v>
+        <v>3762.135922330097</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1410,7 +1441,7 @@
         <v>1300</v>
       </c>
       <c r="AF4" t="n">
-        <v>37.62135922330098</v>
+        <v>3762.135922330097</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
@@ -1493,7 +1524,7 @@
         <v>1300</v>
       </c>
       <c r="T5" t="n">
-        <v>37.58335017175187</v>
+        <v>3758.335017175186</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -1507,7 +1538,7 @@
         <v>1300</v>
       </c>
       <c r="X5" t="n">
-        <v>37.58335017175187</v>
+        <v>3758.335017175186</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
@@ -1521,7 +1552,7 @@
         <v>1300</v>
       </c>
       <c r="AB5" t="n">
-        <v>37.58335017175187</v>
+        <v>3758.335017175186</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1535,7 +1566,7 @@
         <v>1300</v>
       </c>
       <c r="AF5" t="n">
-        <v>37.58335017175187</v>
+        <v>3758.335017175186</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
@@ -1610,7 +1641,7 @@
         <v>1300</v>
       </c>
       <c r="T6" t="n">
-        <v>225.7281553398059</v>
+        <v>22572.81553398059</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1624,7 +1655,7 @@
         <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>225.7281553398059</v>
+        <v>22572.81553398059</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
@@ -1707,7 +1738,7 @@
         <v>1300</v>
       </c>
       <c r="T7" t="n">
-        <v>225.7281553398059</v>
+        <v>22572.81553398059</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1721,7 +1752,7 @@
         <v>1300</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7281553398059</v>
+        <v>22572.81553398059</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
@@ -1804,7 +1835,7 @@
         <v>1300</v>
       </c>
       <c r="T8" t="n">
-        <v>225.7281553398059</v>
+        <v>22572.81553398059</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1818,7 +1849,7 @@
         <v>1300</v>
       </c>
       <c r="X8" t="n">
-        <v>225.7281553398059</v>
+        <v>22572.81553398059</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1901,7 +1932,7 @@
         <v>1300</v>
       </c>
       <c r="T9" t="n">
-        <v>225.7281553398059</v>
+        <v>22572.81553398059</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1915,7 +1946,7 @@
         <v>1300</v>
       </c>
       <c r="X9" t="n">
-        <v>225.7281553398059</v>
+        <v>22572.81553398059</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
@@ -1998,7 +2029,7 @@
         <v>1300</v>
       </c>
       <c r="T10" t="n">
-        <v>338.7292594091461</v>
+        <v>33872.92594091461</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -2012,7 +2043,7 @@
         <v>1300</v>
       </c>
       <c r="X10" t="n">
-        <v>338.7292594091461</v>
+        <v>33872.92594091461</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
@@ -2095,7 +2126,7 @@
         <v>1300</v>
       </c>
       <c r="T11" t="n">
-        <v>338.7292594091461</v>
+        <v>33872.92594091461</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -2109,7 +2140,7 @@
         <v>1300</v>
       </c>
       <c r="X11" t="n">
-        <v>338.7292594091461</v>
+        <v>33872.92594091461</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
@@ -2192,7 +2223,7 @@
         <v>1300</v>
       </c>
       <c r="T12" t="n">
-        <v>338.7292594091461</v>
+        <v>33872.92594091461</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -2206,7 +2237,7 @@
         <v>1300</v>
       </c>
       <c r="X12" t="n">
-        <v>338.7292594091461</v>
+        <v>33872.92594091461</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
@@ -2289,7 +2320,7 @@
         <v>1300</v>
       </c>
       <c r="T13" t="n">
-        <v>338.7292594091461</v>
+        <v>33872.92594091461</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -2303,7 +2334,7 @@
         <v>1300</v>
       </c>
       <c r="X13" t="n">
-        <v>338.7292594091461</v>
+        <v>33872.92594091461</v>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
@@ -2318,6 +2349,103 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SW_SAMPLE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>32528_20700_1300_T02149|W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>32528_23100_1300_T01862_4_M5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>32528</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>상보텍 101um (H/C + 점착)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>10*1524*15</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>100</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1524</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1511.487303506651</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>T02149|W1809</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>4</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1511.487303506651</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>T01862</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2330,7 +2458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2425,7 +2553,7 @@
         <v>45792</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45792.02083333334</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -2447,7 +2575,7 @@
         <v>1300</v>
       </c>
       <c r="I2" t="n">
-        <v>3.067484662576687</v>
+        <v>306.7484662576687</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -2475,7 +2603,7 @@
         </is>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -2485,10 +2613,10 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45792.10416666666</v>
+        <v>45792.125</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -2510,7 +2638,7 @@
         <v>1300</v>
       </c>
       <c r="I3" t="n">
-        <v>3.067484662576687</v>
+        <v>306.7484662576687</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -2538,7 +2666,7 @@
         </is>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2676,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2573,7 +2701,7 @@
         <v>1300</v>
       </c>
       <c r="I4" t="n">
-        <v>18.76513317191283</v>
+        <v>1876.513317191283</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -2601,7 +2729,7 @@
         </is>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="5">
@@ -2611,10 +2739,10 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -2636,7 +2764,7 @@
         <v>1300</v>
       </c>
       <c r="I5" t="n">
-        <v>37.62135922330098</v>
+        <v>3762.135922330097</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -2664,7 +2792,7 @@
         </is>
       </c>
       <c r="O5" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6">
@@ -2674,10 +2802,10 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.5625</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.66666666666</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -2699,7 +2827,7 @@
         <v>1300</v>
       </c>
       <c r="I6" t="n">
-        <v>37.58335017175187</v>
+        <v>3758.335017175186</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -2727,70 +2855,70 @@
         </is>
       </c>
       <c r="O6" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45794.04166666666</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45792.5</v>
+        <v>45794.125</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31798_20906_1300_None_4_M6</t>
+          <t>32528_23100_1300_T01862_4_M5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['SW1250505201']</t>
+          <t>['SW_SAMPLE']</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>31798</v>
+        <v>32528</v>
       </c>
       <c r="H7" t="n">
         <v>1300</v>
       </c>
       <c r="I7" t="n">
-        <v>18.76513317191283</v>
+        <v>1511.487303506651</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T01862</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['2025-06-24']</t>
+          <t>['2025-05-13']</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I55 0555S</t>
+          <t>상보텍 101um (H/C + 점착)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="O7" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -2800,32 +2928,32 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.9375</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31800_20906_1300_None_4_M6</t>
+          <t>31798_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['SW1250505202']</t>
+          <t>['SW1250505201']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>31800</v>
+        <v>31798</v>
       </c>
       <c r="H8" t="n">
         <v>1300</v>
       </c>
       <c r="I8" t="n">
-        <v>37.62135922330098</v>
+        <v>1876.513317191283</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -2844,7 +2972,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I55 1555S</t>
+          <t>RAINBOW(KOR)-ND-I55 0555S</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2853,7 +2981,7 @@
         </is>
       </c>
       <c r="O8" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -2863,32 +2991,32 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45793.125</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31802_20906_1300_None_4_M6</t>
+          <t>31800_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['SW1250505203']</t>
+          <t>['SW1250505202']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>31802</v>
+        <v>31800</v>
       </c>
       <c r="H9" t="n">
         <v>1300</v>
       </c>
       <c r="I9" t="n">
-        <v>37.58335017175187</v>
+        <v>3762.135922330097</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -2907,7 +3035,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I55 3555S</t>
+          <t>RAINBOW(KOR)-ND-I55 1555S</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2916,70 +3044,70 @@
         </is>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45792</v>
+        <v>45793.125</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45792.02083333334</v>
+        <v>45793.29166666666</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>31540_20300_1300_T02296_4_M5</t>
+          <t>31802_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['SW1250506109', 'SW1250506110', 'SW1250506111', 'SW1250506113']</t>
+          <t>['SW1250505203']</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>31540</v>
+        <v>31802</v>
       </c>
       <c r="H10" t="n">
         <v>1300</v>
       </c>
       <c r="I10" t="n">
-        <v>338.7292594091461</v>
+        <v>3758.335017175186</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>T02296</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['2025-05-21', '2025-05-21', '2025-05-21', '2025-05-21']</t>
+          <t>['2025-06-24']</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>SCF-NS-CCS20(SLP)</t>
+          <t>RAINBOW(KOR)-ND-I55 3555S</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -2989,36 +3117,36 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45792.10416666666</v>
+        <v>45792</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45792.125</v>
+        <v>45793.1875</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31864_20300_1300_W2044|T02515_4_M5</t>
+          <t>31540_20300_1300_T02296_4_M5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['SW1250506105', 'SW1250506106', 'SW1250506107', 'SW1250506108']</t>
+          <t>['SW1250506109', 'SW1250506110', 'SW1250506111', 'SW1250506113']</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>31864</v>
+        <v>31540</v>
       </c>
       <c r="H11" t="n">
         <v>1300</v>
       </c>
       <c r="I11" t="n">
-        <v>225.7281553398059</v>
+        <v>33872.92594091461</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>W2044|T02515</t>
+          <t>T02296</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -3033,7 +3161,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>SCF-NS-CCS16(SLP)</t>
+          <t>SCF-NS-CCS20(SLP)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3042,46 +3170,46 @@
         </is>
       </c>
       <c r="O11" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>1.1875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45792.02083333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45793.91666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+          <t>31864_20300_1300_W2044|T02515_4_M5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['SW1250506109', 'SW1250506110', 'SW1250506111', 'SW1250506113']</t>
+          <t>['SW1250506105', 'SW1250506106', 'SW1250506107', 'SW1250506108']</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>31540</v>
+        <v>31864</v>
       </c>
       <c r="H12" t="n">
         <v>1300</v>
       </c>
       <c r="I12" t="n">
-        <v>338.7292594091461</v>
+        <v>22572.81553398059</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>T02149|W1809</t>
+          <t>W2044|T02515</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3091,21 +3219,21 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>SCF-NS-CCS20(SLP)</t>
+          <t>SCF-NS-CCS16(SLP)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="O12" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="13">
@@ -3115,41 +3243,41 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>32528_20700_1300_T02149|W1809_4_M5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['SW1250506105', 'SW1250506106', 'SW1250506107', 'SW1250506108']</t>
+          <t>['SW_SAMPLE']</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>31864</v>
+        <v>32528</v>
       </c>
       <c r="H13" t="n">
         <v>1300</v>
       </c>
       <c r="I13" t="n">
-        <v>225.7281553398059</v>
+        <v>1511.487303506651</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>W1809</t>
+          <t>T02149|W1809</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['2025-05-21', '2025-05-21', '2025-05-21', '2025-05-21']</t>
+          <t>['2025-05-13']</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -3159,7 +3287,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>SCF-NS-CCS16(SLP)</t>
+          <t>상보텍 101um (H/C + 점착)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3168,7 +3296,7 @@
         </is>
       </c>
       <c r="O13" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -3178,10 +3306,10 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.3125</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
@@ -3203,7 +3331,7 @@
         <v>1300</v>
       </c>
       <c r="I14" t="n">
-        <v>18.76513317191283</v>
+        <v>1876.513317191283</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -3231,7 +3359,7 @@
         </is>
       </c>
       <c r="O14" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -3241,10 +3369,10 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.5625</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -3266,7 +3394,7 @@
         <v>1300</v>
       </c>
       <c r="I15" t="n">
-        <v>37.62135922330098</v>
+        <v>3762.135922330097</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -3294,7 +3422,7 @@
         </is>
       </c>
       <c r="O15" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -3304,10 +3432,10 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.66666666666</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.75</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -3329,7 +3457,7 @@
         <v>1300</v>
       </c>
       <c r="I16" t="n">
-        <v>37.58335017175187</v>
+        <v>3758.335017175186</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -3357,7 +3485,7 @@
         </is>
       </c>
       <c r="O16" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -3367,10 +3495,10 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -3392,7 +3520,7 @@
         <v>1300</v>
       </c>
       <c r="I17" t="n">
-        <v>18.76513317191283</v>
+        <v>1876.513317191283</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -3420,7 +3548,7 @@
         </is>
       </c>
       <c r="O17" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="18">
@@ -3430,10 +3558,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -3455,7 +3583,7 @@
         <v>1300</v>
       </c>
       <c r="I18" t="n">
-        <v>37.62135922330098</v>
+        <v>3762.135922330097</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -3483,7 +3611,7 @@
         </is>
       </c>
       <c r="O18" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="19">
@@ -3493,10 +3621,10 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45793.0625</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
@@ -3518,7 +3646,7 @@
         <v>1300</v>
       </c>
       <c r="I19" t="n">
-        <v>37.58335017175187</v>
+        <v>3758.335017175186</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -3546,7 +3674,133 @@
         </is>
       </c>
       <c r="O19" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45793.1875</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45793.79166666666</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['SW1250506109', 'SW1250506110', 'SW1250506111', 'SW1250506113']</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>31540</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1300</v>
+      </c>
+      <c r="I20" t="n">
+        <v>33872.92594091461</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>T02149|W1809</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['2025-05-21', '2025-05-21', '2025-05-21', '2025-05-21']</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>SCF-NS-CCS20(SLP)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45793.91666666666</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45794.3125</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31864_20700_1300_W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['SW1250506105', 'SW1250506106', 'SW1250506107', 'SW1250506108']</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>31864</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1300</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22572.81553398059</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>W1809</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>['2025-05-21', '2025-05-21', '2025-05-21', '2025-05-21']</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>SCF-NS-CCS16(SLP)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>0.3958333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3560,7 +3814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3690,10 +3944,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -3750,10 +4004,10 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="S2" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="T2" t="n">
         <v>120</v>
@@ -3773,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -3833,10 +4087,10 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="S3" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="T3" t="n">
         <v>60</v>
@@ -3856,10 +4110,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -3916,10 +4170,10 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="S4" t="n">
-        <v>390</v>
+        <v>510</v>
       </c>
       <c r="T4" t="n">
         <v>120</v>
@@ -3939,10 +4193,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -3999,10 +4253,10 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>420</v>
+        <v>690</v>
       </c>
       <c r="S5" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="T5" t="n">
         <v>120</v>
@@ -4019,49 +4273,49 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>setup_plus_idle</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>31540_20300_1300_T02296_4_M5</t>
+          <t>31802_20902_1300_T02015_4_M6</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>31864_20300_1300_W2044|T02515_4_M5</t>
+          <t>32528_23100_1300_T01862_4_M5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M6" t="b">
@@ -4074,27 +4328,27 @@
         <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>(3, '염료', '염료', False, False, True, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>30</v>
+        <v>960</v>
       </c>
       <c r="S6" t="n">
-        <v>150</v>
+        <v>2940</v>
       </c>
       <c r="T6" t="n">
-        <v>120</v>
+        <v>1980</v>
       </c>
       <c r="U6" t="n">
         <v>120</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="W6" t="n">
         <v>120</v>
@@ -4102,16 +4356,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4122,29 +4376,29 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+          <t>31798_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>31800_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="M7" t="b">
@@ -4161,23 +4415,23 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>no_setup_machine</t>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>60</v>
+        <v>1350</v>
       </c>
       <c r="S7" t="n">
-        <v>180</v>
+        <v>1380</v>
       </c>
       <c r="T7" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -4185,16 +4439,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4202,32 +4456,32 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>31540_20300_1300_T02296_4_M5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M6</t>
+          <t>31864_20300_1300_W2044|T02515_4_M5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="M8" t="b">
@@ -4240,30 +4494,30 @@
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>no_setup_machine</t>
+          <t>(3, '염료', '염료', False, False, True, False)</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>210</v>
+        <v>1710</v>
       </c>
       <c r="S8" t="n">
-        <v>270</v>
+        <v>1830</v>
       </c>
       <c r="T8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -4271,13 +4525,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4288,19 +4542,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>32528_20700_1300_T02149|W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>31798_20706_1300_T02149|W1817_4_M6</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>31800_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -4331,19 +4585,19 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="S9" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="T9" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -4357,10 +4611,10 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4371,19 +4625,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>31800_20706_1300_T02149|W1817_4_M6</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -4417,16 +4671,16 @@
         <v>450</v>
       </c>
       <c r="S10" t="n">
-        <v>570</v>
+        <v>690</v>
       </c>
       <c r="T10" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -4437,36 +4691,36 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>pure_idle</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>31802_20706_1300_T02149_4_M6</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>31798_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -4497,22 +4751,271 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>600</v>
+        <v>810</v>
       </c>
       <c r="S11" t="n">
-        <v>660</v>
+        <v>960</v>
       </c>
       <c r="T11" t="n">
+        <v>150</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>150</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>pure_setup</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>31802_20706_1300_T02149_4_M6</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>31798_20500_1300_WRF065_4_M6</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1140</v>
+      </c>
+      <c r="T12" t="n">
         <v>60</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U12" t="n">
         <v>60</v>
       </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>57</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>setup_plus_idle</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>31802_20500_1300_WRF065_4_M6</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>1530</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1710</v>
+      </c>
+      <c r="T13" t="n">
+        <v>180</v>
+      </c>
+      <c r="U13" t="n">
+        <v>120</v>
+      </c>
+      <c r="V13" t="n">
+        <v>60</v>
+      </c>
+      <c r="W13" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>86</v>
+      </c>
+      <c r="C14" t="n">
+        <v>92</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>pure_idle</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>31864_20700_1300_W1809_4_M5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>no_setup_machine</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>2580</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2760</v>
+      </c>
+      <c r="T14" t="n">
+        <v>180</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>180</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4526,7 +5029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4571,59 +5074,79 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -1262,29 +1262,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SW1250908609</t>
+          <t>SW1251003601</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>26300_20300_1300_T02624_4_M11</t>
+          <t>32470_23311_1300_T0915_4_M11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>26300_20700_1300_T02149_4_M11</t>
+          <t>32470_12400_1300_T01521_4_M11</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>26300</v>
+        <v>32470</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1332,23 +1332,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SW1251003601</t>
+          <t>SW1250908609</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>32470_23311_1300_T0915_4_M11</t>
+          <t>26300_20300_1300_T02624_4_M11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>32470_12400_1300_T01521_4_M11</t>
+          <t>26300_20700_1300_T02149_4_M11</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>32470</v>
+        <v>26300</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>45965</v>
@@ -6227,36 +6227,36 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.4375</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26300_20700_1300_T02149_4_M11</t>
+          <t>32470_12400_1300_T01521_4_M11</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>26300</v>
+        <v>32470</v>
       </c>
       <c r="H25" t="n">
         <v>1300</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>230.0848757541671</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>T01521</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6271,79 +6271,79 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="O25" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45792.125</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>32470_12400_1300_T01521_4_M11</t>
+          <t>31739_20906_1300_None_4_M10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>32470</v>
+        <v>31739</v>
       </c>
       <c r="H26" t="n">
         <v>1300</v>
       </c>
       <c r="I26" t="n">
-        <v>230.0848757541671</v>
+        <v>794.3829438294382</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>T01521</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>코팅1호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="O26" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="27">
@@ -6353,32 +6353,32 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.4375</v>
       </c>
       <c r="D27" t="n">
         <v>4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31739_20906_1300_None_4_M10</t>
+          <t>30234_20906_1300_None_4_M10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>31739</v>
+        <v>30234</v>
       </c>
       <c r="H27" t="n">
         <v>1300</v>
       </c>
       <c r="I27" t="n">
-        <v>794.3829438294382</v>
+        <v>630.2093921528767</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -6416,32 +6416,32 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.4375</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D28" t="n">
         <v>4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>30234_20906_1300_None_4_M10</t>
+          <t>30260_20906_1300_None_4_M10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>30234</v>
+        <v>30260</v>
       </c>
       <c r="H28" t="n">
         <v>1300</v>
       </c>
       <c r="I28" t="n">
-        <v>630.2093921528767</v>
+        <v>157.8090002036245</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="O28" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -6479,32 +6479,32 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="D29" t="n">
         <v>4</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>30260_20906_1300_None_4_M10</t>
+          <t>32019_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>30260</v>
+        <v>32019</v>
       </c>
       <c r="H29" t="n">
         <v>1300</v>
       </c>
       <c r="I29" t="n">
-        <v>157.8090002036245</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6542,32 +6542,32 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45793</v>
       </c>
       <c r="D30" t="n">
         <v>4</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>32019_20906_1300_None_4_M11</t>
+          <t>32017_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>32019</v>
+        <v>32017</v>
       </c>
       <c r="H30" t="n">
         <v>1300</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3337.056971666497</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="O30" s="3" t="n">
-        <v>0</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -6605,32 +6605,32 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45793</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="D31" t="n">
         <v>4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>32017_20906_1300_None_4_M11</t>
+          <t>32018_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>32017</v>
+        <v>32018</v>
       </c>
       <c r="H31" t="n">
         <v>1300</v>
       </c>
       <c r="I31" t="n">
-        <v>3337.056971666497</v>
+        <v>251.7510912597706</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="O31" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -6668,32 +6668,32 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45793</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="D32" t="n">
         <v>4</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>32018_20906_1300_None_4_M11</t>
+          <t>32267_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>32018</v>
+        <v>32267</v>
       </c>
       <c r="H32" t="n">
         <v>1300</v>
       </c>
       <c r="I32" t="n">
-        <v>251.7510912597706</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6731,26 +6731,26 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>32267_20906_1300_None_4_M11</t>
+          <t>32016_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>32267</v>
+        <v>32016</v>
       </c>
       <c r="H33" t="n">
         <v>1300</v>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6794,32 +6794,32 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D34" t="n">
         <v>4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>32016_20906_1300_None_4_M11</t>
+          <t>31600_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>32016</v>
+        <v>31600</v>
       </c>
       <c r="H34" t="n">
         <v>1300</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>565.4068294660048</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="35">
@@ -6857,32 +6857,32 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>31600_20906_1300_None_4_M11</t>
+          <t>31602_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>31600</v>
+        <v>31602</v>
       </c>
       <c r="H35" t="n">
         <v>1300</v>
       </c>
       <c r="I35" t="n">
-        <v>565.4068294660048</v>
+        <v>948.9795918367347</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6920,32 +6920,32 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D36" t="n">
         <v>4</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>31602_20906_1300_None_4_M11</t>
+          <t>32363_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>31602</v>
+        <v>32363</v>
       </c>
       <c r="H36" t="n">
         <v>1300</v>
       </c>
       <c r="I36" t="n">
-        <v>948.9795918367347</v>
+        <v>1801.039649373153</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6973,7 +6973,7 @@
         </is>
       </c>
       <c r="O36" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -6983,32 +6983,32 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.9375</v>
       </c>
       <c r="D37" t="n">
         <v>4</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>32363_20906_1300_None_4_M11</t>
+          <t>32265_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>32363</v>
+        <v>32265</v>
       </c>
       <c r="H37" t="n">
         <v>1300</v>
       </c>
       <c r="I37" t="n">
-        <v>1801.039649373153</v>
+        <v>3624.072379790587</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -7036,70 +7036,70 @@
         </is>
       </c>
       <c r="O37" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45793.77083333334</v>
+        <v>45792</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45793.9375</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>32265_20906_1300_None_4_M11</t>
+          <t>31739_20902_1300_T02600|W2032_4_M10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>32265</v>
+        <v>31739</v>
       </c>
       <c r="H38" t="n">
         <v>1300</v>
       </c>
       <c r="I38" t="n">
-        <v>3624.072379790587</v>
+        <v>794.3829438294382</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02600|W2032</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="O38" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="39">
@@ -7109,41 +7109,41 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45792</v>
+        <v>45792.125</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>31739_20902_1300_T02600|W2032_4_M10</t>
+          <t>30234_20902_1300_T02560_4_M10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>31739</v>
+        <v>30234</v>
       </c>
       <c r="H39" t="n">
         <v>1300</v>
       </c>
       <c r="I39" t="n">
-        <v>794.3829438294382</v>
+        <v>630.2093921528767</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>T02600|W2032</t>
+          <t>T02560</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -7172,36 +7172,36 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.25</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>30234_20902_1300_T02560_4_M10</t>
+          <t>30260_20902_1300_T02089_4_M10</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>30234</v>
+        <v>30260</v>
       </c>
       <c r="H40" t="n">
         <v>1300</v>
       </c>
       <c r="I40" t="n">
-        <v>630.2093921528767</v>
+        <v>157.8090002036245</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>T02560</t>
+          <t>T02089</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -7225,7 +7225,7 @@
         </is>
       </c>
       <c r="O40" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="41">
@@ -7235,41 +7235,41 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>30260_20902_1300_T02089_4_M10</t>
+          <t>32017_20902_1300_T02319_4_M11</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>30260</v>
+        <v>32017</v>
       </c>
       <c r="H41" t="n">
         <v>1300</v>
       </c>
       <c r="I41" t="n">
-        <v>157.8090002036245</v>
+        <v>3337.056971666497</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>T02089</t>
+          <t>T02319</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="O41" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="42">
@@ -7298,36 +7298,36 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.625</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>32017_20902_1300_T02319_4_M11</t>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>32017</v>
+        <v>32018</v>
       </c>
       <c r="H42" t="n">
         <v>1300</v>
       </c>
       <c r="I42" t="n">
-        <v>3337.056971666497</v>
+        <v>251.7510912597706</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>T02319</t>
+          <t>T02507|T02320</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7351,7 +7351,7 @@
         </is>
       </c>
       <c r="O42" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="43">
@@ -7361,36 +7361,36 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>32018</v>
+        <v>32019</v>
       </c>
       <c r="H43" t="n">
         <v>1300</v>
       </c>
       <c r="I43" t="n">
-        <v>251.7510912597706</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>T02507|T02320</t>
+          <t>T02508|T02321</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7414,7 +7414,7 @@
         </is>
       </c>
       <c r="O43" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7424,36 +7424,36 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>32019</v>
+        <v>32265</v>
       </c>
       <c r="H44" t="n">
         <v>1300</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3624.072379790587</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>T02508|T02321</t>
+          <t>W2082|T02498</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="O44" s="3" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="45">
@@ -7487,36 +7487,36 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>32265</v>
+        <v>32267</v>
       </c>
       <c r="H45" t="n">
         <v>1300</v>
       </c>
       <c r="I45" t="n">
-        <v>3624.072379790587</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>W2082|T02498</t>
+          <t>t02604|W2051</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7540,7 +7540,7 @@
         </is>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7550,36 +7550,36 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.125</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>32267</v>
+        <v>32363</v>
       </c>
       <c r="H46" t="n">
         <v>1300</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1801.039649373153</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>t02604|W2051</t>
+          <t>T02619|T02326</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7603,7 +7603,7 @@
         </is>
       </c>
       <c r="O46" s="3" t="n">
-        <v>0</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -7613,41 +7613,41 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45793.125</v>
+        <v>45793.3125</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.3125</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+          <t>25296_20300_1300_T02668_4_M11</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>32363</v>
+        <v>25296</v>
       </c>
       <c r="H47" t="n">
         <v>1300</v>
       </c>
       <c r="I47" t="n">
-        <v>1801.039649373153</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>T02619|T02326</t>
+          <t>T02668</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -7657,16 +7657,16 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="O47" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -7676,26 +7676,26 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>25296_20300_1300_T02668_4_M11</t>
+          <t>25441_20300_1300_T02606_4_M11</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>25296</v>
+        <v>25441</v>
       </c>
       <c r="H48" t="n">
         <v>1300</v>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>T02668</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7739,26 +7739,26 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>25441_20300_1300_T02606_4_M11</t>
+          <t>26300_20300_1300_T02624_4_M11</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>25441</v>
+        <v>26300</v>
       </c>
       <c r="H49" t="n">
         <v>1300</v>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>T02624</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7802,26 +7802,26 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.5625</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.5625</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>26300_20300_1300_T02624_4_M11</t>
+          <t>27870_20300_1300_T02670_4_M11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>26300</v>
+        <v>27870</v>
       </c>
       <c r="H50" t="n">
         <v>1300</v>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>T02624</t>
+          <t>T02670</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -7861,64 +7861,64 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2270</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45792.0625</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>27870_20300_1300_T02670_4_M11</t>
+          <t>31739_20702_1300_T02150|W1818_4_M10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>27870</v>
+        <v>31739</v>
       </c>
       <c r="H51" t="n">
         <v>1300</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>794.3829438294382</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>T02670</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅27호기_WIN</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="O51" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="52">
@@ -7928,17 +7928,17 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.10416666666</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45792.125</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>31739_20702_1300_T02150|W1818_4_M10</t>
+          <t>31739_20500_1300_WRF065_4_M10</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="O52" s="3" t="n">
@@ -7991,41 +7991,41 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45792.10416666666</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>31739_20500_1300_WRF065_4_M10</t>
+          <t>30234_20500_1300_W2010_4_M10</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>31739</v>
+        <v>30234</v>
       </c>
       <c r="H53" t="n">
         <v>1300</v>
       </c>
       <c r="I53" t="n">
-        <v>794.3829438294382</v>
+        <v>630.2093921528767</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>W2010</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -8054,36 +8054,36 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.29166666666</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>30234_20500_1300_W2010_4_M10</t>
+          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>30234</v>
+        <v>30260</v>
       </c>
       <c r="H54" t="n">
         <v>1300</v>
       </c>
       <c r="I54" t="n">
-        <v>630.2093921528767</v>
+        <v>157.8090002036245</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>W2010</t>
+          <t>WRF065|W2010</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -8117,36 +8117,36 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.375</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+          <t>30234_20702_1300_T02150_4_M10</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>30260</v>
+        <v>30234</v>
       </c>
       <c r="H55" t="n">
         <v>1300</v>
       </c>
       <c r="I55" t="n">
-        <v>157.8090002036245</v>
+        <v>630.2093921528767</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>WRF065|W2010</t>
+          <t>T02150</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -8161,12 +8161,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="O55" s="3" t="n">
@@ -8180,36 +8180,36 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D56" t="n">
         <v>3</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>30234_20702_1300_T02150_4_M10</t>
+          <t>30260_20702_1300_T02150|W1818_4_M10</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>30234</v>
+        <v>30260</v>
       </c>
       <c r="H56" t="n">
         <v>1300</v>
       </c>
       <c r="I56" t="n">
-        <v>630.2093921528767</v>
+        <v>157.8090002036245</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>T02150</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -8243,41 +8243,41 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>30260_20702_1300_T02150|W1818_4_M10</t>
+          <t>32017_20706_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>30260</v>
+        <v>32017</v>
       </c>
       <c r="H57" t="n">
         <v>1300</v>
       </c>
       <c r="I57" t="n">
-        <v>157.8090002036245</v>
+        <v>3337.056971666497</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -8287,16 +8287,16 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="O57" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="58">
@@ -8306,36 +8306,36 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.625</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="D58" t="n">
         <v>2</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>32017_20706_1300_None_4_M11</t>
+          <t>32018_20706_1300_T02149_4_M11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>32017</v>
+        <v>32018</v>
       </c>
       <c r="H58" t="n">
         <v>1300</v>
       </c>
       <c r="I58" t="n">
-        <v>3337.056971666497</v>
+        <v>251.7510912597706</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="O58" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="59">
@@ -8369,36 +8369,36 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>32018_20706_1300_T02149_4_M11</t>
+          <t>32019_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>32018</v>
+        <v>32019</v>
       </c>
       <c r="H59" t="n">
         <v>1300</v>
       </c>
       <c r="I59" t="n">
-        <v>251.7510912597706</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -8413,16 +8413,16 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="O59" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -8438,11 +8438,11 @@
         <v>45792.70833333334</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>32019_20500_1300_WRF065_4_M11</t>
+          <t>32019_20706_1300_T02149|W1817_4_M11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="O60" s="3" t="n">
@@ -8495,36 +8495,36 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.75</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>32019_20706_1300_T02149|W1817_4_M11</t>
+          <t>32017_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>32019</v>
+        <v>32017</v>
       </c>
       <c r="H61" t="n">
         <v>1300</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3337.056971666497</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -8539,16 +8539,16 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="O61" s="3" t="n">
-        <v>0</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="62">
@@ -8558,32 +8558,32 @@
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.875</v>
       </c>
       <c r="D62" t="n">
         <v>3</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>32017_20500_1300_WRF065_4_M11</t>
+          <t>32018_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>32017</v>
+        <v>32018</v>
       </c>
       <c r="H62" t="n">
         <v>1300</v>
       </c>
       <c r="I62" t="n">
-        <v>3337.056971666497</v>
+        <v>251.7510912597706</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8611,7 +8611,7 @@
         </is>
       </c>
       <c r="O62" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -8621,36 +8621,36 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>32018_20500_1300_WRF065_4_M11</t>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>32018</v>
+        <v>31600</v>
       </c>
       <c r="H63" t="n">
         <v>1300</v>
       </c>
       <c r="I63" t="n">
-        <v>251.7510912597706</v>
+        <v>565.4068294660048</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -8665,12 +8665,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="O63" s="3" t="n">
@@ -8684,36 +8684,36 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+          <t>32267_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>31600</v>
+        <v>32267</v>
       </c>
       <c r="H64" t="n">
         <v>1300</v>
       </c>
       <c r="I64" t="n">
-        <v>565.4068294660048</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -8728,16 +8728,16 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="O64" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -8753,11 +8753,11 @@
         <v>45793.04166666666</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>32267_20500_1300_WRF065_4_M11</t>
+          <t>32267_20702_1300_T02150|W1818_4_M11</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="O65" s="3" t="n">
@@ -8810,36 +8810,36 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.125</v>
       </c>
       <c r="D66" t="n">
         <v>2</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>32267_20702_1300_T02150|W1818_4_M11</t>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>32267</v>
+        <v>31602</v>
       </c>
       <c r="H66" t="n">
         <v>1300</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>948.9795918367347</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8854,16 +8854,16 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="O66" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="67">
@@ -8873,36 +8873,36 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45793.125</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>31602</v>
+        <v>32016</v>
       </c>
       <c r="H67" t="n">
         <v>1300</v>
       </c>
       <c r="I67" t="n">
-        <v>948.9795918367347</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>W2053|WRF065</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8917,16 +8917,16 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="O67" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -8942,11 +8942,11 @@
         <v>45793.16666666666</v>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
+          <t>32016_20706_1300_T02149|W1817_4_M11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>W2053|WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="O68" s="3" t="n">
@@ -9002,33 +9002,33 @@
         <v>45793.16666666666</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>32016_20706_1300_T02149|W1817_4_M11</t>
+          <t>31600_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>32016</v>
+        <v>31600</v>
       </c>
       <c r="H69" t="n">
         <v>1300</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>565.4068294660048</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -9043,16 +9043,16 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="O69" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="70">
@@ -9062,32 +9062,32 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>31600_20500_1300_WRF065_4_M11</t>
+          <t>31602_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>31600</v>
+        <v>31602</v>
       </c>
       <c r="H70" t="n">
         <v>1300</v>
       </c>
       <c r="I70" t="n">
-        <v>565.4068294660048</v>
+        <v>948.9795918367347</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -9115,7 +9115,7 @@
         </is>
       </c>
       <c r="O70" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="71">
@@ -9125,41 +9125,41 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.3125</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.3125</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>31602_20500_1300_WRF065_4_M11</t>
+          <t>25296_20700_1300_None_4_M11</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>31602</v>
+        <v>25296</v>
       </c>
       <c r="H71" t="n">
         <v>1300</v>
       </c>
       <c r="I71" t="n">
-        <v>948.9795918367347</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -9169,16 +9169,16 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="O71" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -9191,38 +9191,38 @@
         <v>45793.3125</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="D72" t="n">
         <v>2</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>25296_20700_1300_None_4_M11</t>
+          <t>32363_20706_1300_W1817_4_M11</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>25296</v>
+        <v>32363</v>
       </c>
       <c r="H72" t="n">
         <v>1300</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1801.039649373153</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>W1817</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -9232,16 +9232,16 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="O72" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="73">
@@ -9251,17 +9251,17 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>32363_20706_1300_W1817_4_M11</t>
+          <t>32363_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>W1817</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -9300,11 +9300,11 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="O73" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="74">
@@ -9314,41 +9314,41 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>32363_20500_1300_WRF065_4_M11</t>
+          <t>26300_20700_1300_T02149_4_M11</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>32363</v>
+        <v>26300</v>
       </c>
       <c r="H74" t="n">
         <v>1300</v>
       </c>
       <c r="I74" t="n">
-        <v>1801.039649373153</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -9358,16 +9358,16 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="O74" s="3" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -9570,7 +9570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10948,21 +10948,21 @@
         <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>26300_20700_1300_T02149_4_M11</t>
+          <t>32470_12400_1300_T01521_4_M11</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -11008,16 +11008,16 @@
         <v>2010</v>
       </c>
       <c r="S17" t="n">
-        <v>2130</v>
+        <v>2070</v>
       </c>
       <c r="T17" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U17" t="n">
         <v>60</v>
       </c>
       <c r="V17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>60</v>
@@ -11025,49 +11025,49 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>pure_idle</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>26300_20700_1300_T02149_4_M11</t>
+          <t>31739_20906_1300_None_4_M10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>32470_12400_1300_T01521_4_M11</t>
+          <t>30234_20906_1300_None_4_M10</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="M18" t="b">
@@ -11084,26 +11084,26 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>no_setup_machine</t>
+          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2130</v>
+        <v>240</v>
       </c>
       <c r="S18" t="n">
-        <v>2190</v>
+        <v>570</v>
       </c>
       <c r="T18" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="U18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="W18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -11111,13 +11111,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -11128,19 +11128,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>31739_20906_1300_None_4_M10</t>
+          <t>30260_20906_1300_None_4_M10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>30234_20906_1300_None_4_M10</t>
+          <t>32019_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -11171,19 +11171,19 @@
         </is>
       </c>
       <c r="R19" t="n">
-        <v>240</v>
+        <v>660</v>
       </c>
       <c r="S19" t="n">
-        <v>570</v>
+        <v>1020</v>
       </c>
       <c r="T19" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -11194,13 +11194,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -11211,19 +11211,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>30260_20906_1300_None_4_M10</t>
+          <t>32019_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>32019_20906_1300_None_4_M11</t>
+          <t>32017_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -11254,19 +11254,19 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>660</v>
+        <v>1020</v>
       </c>
       <c r="S20" t="n">
-        <v>1020</v>
+        <v>1230</v>
       </c>
       <c r="T20" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -11277,13 +11277,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>32019_20906_1300_None_4_M11</t>
+          <t>32018_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>32017_20906_1300_None_4_M11</t>
+          <t>32267_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -11337,19 +11337,19 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1020</v>
+        <v>1470</v>
       </c>
       <c r="S21" t="n">
-        <v>1230</v>
+        <v>1500</v>
       </c>
       <c r="T21" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -11360,13 +11360,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -11377,19 +11377,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>32018_20906_1300_None_4_M11</t>
+          <t>32267_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>32267_20906_1300_None_4_M11</t>
+          <t>32016_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -11420,19 +11420,19 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1470</v>
+        <v>1500</v>
       </c>
       <c r="S22" t="n">
-        <v>1500</v>
+        <v>1680</v>
       </c>
       <c r="T22" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -11443,13 +11443,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -11460,19 +11460,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>32267_20906_1300_None_4_M11</t>
+          <t>32016_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>32016_20906_1300_None_4_M11</t>
+          <t>31600_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -11503,19 +11503,19 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1500</v>
+        <v>1680</v>
       </c>
       <c r="S23" t="n">
-        <v>1680</v>
+        <v>1710</v>
       </c>
       <c r="T23" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -11526,13 +11526,13 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C24" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -11543,19 +11543,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>32016_20906_1300_None_4_M11</t>
+          <t>31602_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>31600_20906_1300_None_4_M11</t>
+          <t>32363_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -11586,19 +11586,19 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1680</v>
+        <v>1830</v>
       </c>
       <c r="S24" t="n">
-        <v>1710</v>
+        <v>2100</v>
       </c>
       <c r="T24" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -11609,13 +11609,13 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -11626,19 +11626,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>31602_20906_1300_None_4_M11</t>
+          <t>32363_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>32363_20906_1300_None_4_M11</t>
+          <t>32265_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -11669,19 +11669,19 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1830</v>
+        <v>2220</v>
       </c>
       <c r="S25" t="n">
-        <v>2100</v>
+        <v>2550</v>
       </c>
       <c r="T25" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -11689,49 +11689,49 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="n">
-        <v>74</v>
-      </c>
       <c r="C26" t="n">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>pure_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>32363_20906_1300_None_4_M11</t>
+          <t>31739_20902_1300_T02600|W2032_4_M10</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>32265_20906_1300_None_4_M11</t>
+          <t>30234_20902_1300_T02560_4_M10</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>인쇄</t>
+          <t>안료</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>인쇄</t>
+          <t>안료</t>
         </is>
       </c>
       <c r="M26" t="b">
@@ -11744,30 +11744,30 @@
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>(2, '인쇄', '인쇄', False, False, True, True)</t>
+          <t>(3, '안료', '안료', False, False, True, False)</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2220</v>
+        <v>60</v>
       </c>
       <c r="S26" t="n">
-        <v>2550</v>
+        <v>180</v>
       </c>
       <c r="T26" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V26" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -11775,10 +11775,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
         <v>4</v>
@@ -11799,12 +11799,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>31739_20902_1300_T02600|W2032_4_M10</t>
+          <t>30234_20902_1300_T02560_4_M10</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>30234_20902_1300_T02560_4_M10</t>
+          <t>30260_20902_1300_T02089_4_M10</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -11835,10 +11835,10 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="S27" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="T27" t="n">
         <v>120</v>
@@ -11858,10 +11858,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" t="n">
         <v>4</v>
@@ -11882,12 +11882,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>30234_20902_1300_T02560_4_M10</t>
+          <t>30260_20902_1300_T02089_4_M10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>30260_20902_1300_T02089_4_M10</t>
+          <t>32017_20902_1300_T02319_4_M11</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -11918,10 +11918,10 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="S28" t="n">
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="T28" t="n">
         <v>120</v>
@@ -11941,10 +11941,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>4</v>
@@ -11965,12 +11965,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>30260_20902_1300_T02089_4_M10</t>
+          <t>32017_20902_1300_T02319_4_M11</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>32017_20902_1300_T02319_4_M11</t>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -12001,10 +12001,10 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="S29" t="n">
-        <v>510</v>
+        <v>870</v>
       </c>
       <c r="T29" t="n">
         <v>120</v>
@@ -12024,10 +12024,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>4</v>
@@ -12048,12 +12048,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>32017_20902_1300_T02319_4_M11</t>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -12084,10 +12084,10 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="S30" t="n">
-        <v>870</v>
+        <v>1020</v>
       </c>
       <c r="T30" t="n">
         <v>120</v>
@@ -12107,10 +12107,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
         <v>4</v>
@@ -12131,12 +12131,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -12167,10 +12167,10 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="S31" t="n">
-        <v>1020</v>
+        <v>1140</v>
       </c>
       <c r="T31" t="n">
         <v>120</v>
@@ -12190,10 +12190,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C32" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
         <v>4</v>
@@ -12214,12 +12214,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -12250,10 +12250,10 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1020</v>
+        <v>1380</v>
       </c>
       <c r="S32" t="n">
-        <v>1140</v>
+        <v>1500</v>
       </c>
       <c r="T32" t="n">
         <v>120</v>
@@ -12273,10 +12273,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C33" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
@@ -12297,12 +12297,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -12333,10 +12333,10 @@
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1380</v>
+        <v>1500</v>
       </c>
       <c r="S33" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="T33" t="n">
         <v>120</v>
@@ -12356,10 +12356,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C34" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D34" t="n">
         <v>4</v>
@@ -12380,12 +12380,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+          <t>25296_20300_1300_T02668_4_M11</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="M34" t="b">
@@ -12405,21 +12405,21 @@
         <v>0</v>
       </c>
       <c r="O34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>(3, '안료', '안료', False, False, True, False)</t>
+          <t>(3, '안료', '염료', False, False, False, False)</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1500</v>
+        <v>1770</v>
       </c>
       <c r="S34" t="n">
-        <v>1620</v>
+        <v>1890</v>
       </c>
       <c r="T34" t="n">
         <v>120</v>
@@ -12439,10 +12439,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -12463,17 +12463,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+          <t>25296_20300_1300_T02668_4_M11</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>25296_20300_1300_T02668_4_M11</t>
+          <t>25441_20300_1300_T02606_4_M11</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -12488,21 +12488,21 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="b">
         <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>(3, '안료', '염료', False, False, False, False)</t>
+          <t>(3, '염료', '염료', False, False, True, False)</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1770</v>
+        <v>1890</v>
       </c>
       <c r="S35" t="n">
-        <v>1890</v>
+        <v>2010</v>
       </c>
       <c r="T35" t="n">
         <v>120</v>
@@ -12522,10 +12522,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C36" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D36" t="n">
         <v>4</v>
@@ -12546,12 +12546,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>25296_20300_1300_T02668_4_M11</t>
+          <t>25441_20300_1300_T02606_4_M11</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>25441_20300_1300_T02606_4_M11</t>
+          <t>26300_20300_1300_T02624_4_M11</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -12582,10 +12582,10 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1890</v>
+        <v>2010</v>
       </c>
       <c r="S36" t="n">
-        <v>2010</v>
+        <v>2130</v>
       </c>
       <c r="T36" t="n">
         <v>120</v>
@@ -12605,10 +12605,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C37" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D37" t="n">
         <v>4</v>
@@ -12629,12 +12629,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>25441_20300_1300_T02606_4_M11</t>
+          <t>26300_20300_1300_T02624_4_M11</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>26300_20300_1300_T02624_4_M11</t>
+          <t>27870_20300_1300_T02670_4_M11</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -12665,10 +12665,10 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2010</v>
+        <v>2130</v>
       </c>
       <c r="S37" t="n">
-        <v>2130</v>
+        <v>2250</v>
       </c>
       <c r="T37" t="n">
         <v>120</v>
@@ -12685,16 +12685,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="n">
-        <v>71</v>
-      </c>
       <c r="C38" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -12702,32 +12702,32 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>26300_20300_1300_T02624_4_M11</t>
+          <t>31739_20702_1300_T02150|W1818_4_M10</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>27870_20300_1300_T02670_4_M11</t>
+          <t>31739_20500_1300_WRF065_4_M10</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M38" t="b">
@@ -12740,30 +12740,30 @@
         <v>1</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>(3, '염료', '염료', False, False, True, False)</t>
+          <t>no_setup_machine</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2130</v>
+        <v>90</v>
       </c>
       <c r="S38" t="n">
-        <v>2250</v>
+        <v>150</v>
       </c>
       <c r="T38" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U38" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -12771,13 +12771,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -12785,22 +12785,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>31739_20702_1300_T02150|W1818_4_M10</t>
+          <t>31739_20500_1300_WRF065_4_M10</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>31739_20500_1300_WRF065_4_M10</t>
+          <t>30234_20500_1300_W2010_4_M10</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -12831,22 +12831,22 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="S39" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="T39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -12854,36 +12854,36 @@
         <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>pure_idle</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>31739_20500_1300_WRF065_4_M10</t>
+          <t>30234_20500_1300_W2010_4_M10</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>30234_20500_1300_W2010_4_M10</t>
+          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -12914,22 +12914,22 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="S40" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="T40" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U40" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="W40" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -12937,36 +12937,36 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>pure_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>30234_20500_1300_W2010_4_M10</t>
+          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+          <t>30234_20702_1300_T02150_4_M10</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -12997,22 +12997,22 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="S41" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="T41" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="V41" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -13020,36 +13020,36 @@
         <v>4</v>
       </c>
       <c r="B42" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>setup_plus_idle</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+          <t>30260_20702_1300_T02150|W1818_4_M10</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>30234_20702_1300_T02150_4_M10</t>
+          <t>32017_20706_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -13080,22 +13080,22 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>420</v>
+        <v>600</v>
       </c>
       <c r="S42" t="n">
-        <v>540</v>
+        <v>750</v>
       </c>
       <c r="T42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="U42" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W42" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
@@ -13103,36 +13103,36 @@
         <v>4</v>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C43" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F43" t="n">
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>30260_20702_1300_T02150|W1818_4_M10</t>
+          <t>32017_20706_1300_None_4_M11</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>32017_20706_1300_None_4_M11</t>
+          <t>32018_20706_1300_T02149_4_M11</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -13163,19 +13163,19 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="S43" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T43" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="U43" t="n">
         <v>60</v>
       </c>
       <c r="V43" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>60</v>
@@ -13186,36 +13186,36 @@
         <v>4</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>setup_plus_idle</t>
         </is>
       </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>32017_20706_1300_None_4_M11</t>
+          <t>32018_20706_1300_T02149_4_M11</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>32018_20706_1300_T02149_4_M11</t>
+          <t>32019_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -13246,19 +13246,19 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="S44" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="T44" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="U44" t="n">
         <v>60</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W44" t="n">
         <v>60</v>
@@ -13269,36 +13269,36 @@
         <v>4</v>
       </c>
       <c r="B45" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C45" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F45" t="n">
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>32018_20706_1300_T02149_4_M11</t>
+          <t>32019_20706_1300_T02149|W1817_4_M11</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>32019_20500_1300_WRF065_4_M11</t>
+          <t>32017_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -13329,19 +13329,19 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>930</v>
+        <v>1020</v>
       </c>
       <c r="S45" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="T45" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="U45" t="n">
         <v>60</v>
       </c>
       <c r="V45" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>60</v>
@@ -13352,13 +13352,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -13366,22 +13366,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>32019_20706_1300_T02149|W1817_4_M11</t>
+          <t>32018_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>32017_20500_1300_WRF065_4_M11</t>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -13412,22 +13412,22 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1020</v>
+        <v>1260</v>
       </c>
       <c r="S46" t="n">
-        <v>1080</v>
+        <v>1380</v>
       </c>
       <c r="T46" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U46" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -13435,36 +13435,36 @@
         <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>pure_setup</t>
+          <t>setup_plus_idle</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>32018_20500_1300_WRF065_4_M11</t>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+          <t>32267_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -13495,22 +13495,22 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1260</v>
+        <v>1410</v>
       </c>
       <c r="S47" t="n">
-        <v>1380</v>
+        <v>1500</v>
       </c>
       <c r="T47" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="U47" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W47" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48">
@@ -13518,36 +13518,36 @@
         <v>4</v>
       </c>
       <c r="B48" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C48" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>setup_plus_idle</t>
+          <t>pure_setup</t>
         </is>
       </c>
       <c r="F48" t="n">
         <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+          <t>32267_20702_1300_T02150|W1818_4_M11</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>32267_20500_1300_WRF065_4_M11</t>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -13578,19 +13578,19 @@
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1410</v>
+        <v>1500</v>
       </c>
       <c r="S48" t="n">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="T48" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="U48" t="n">
         <v>60</v>
       </c>
       <c r="V48" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
         <v>60</v>
@@ -13601,10 +13601,10 @@
         <v>4</v>
       </c>
       <c r="B49" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C49" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -13625,12 +13625,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>32267_20702_1300_T02150|W1818_4_M11</t>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -13661,10 +13661,10 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="S49" t="n">
-        <v>1560</v>
+        <v>1680</v>
       </c>
       <c r="T49" t="n">
         <v>60</v>
@@ -13684,13 +13684,13 @@
         <v>4</v>
       </c>
       <c r="B50" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C50" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -13698,22 +13698,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+          <t>31602_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
+          <t>25296_20700_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -13744,22 +13744,22 @@
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1620</v>
+        <v>1770</v>
       </c>
       <c r="S50" t="n">
-        <v>1680</v>
+        <v>1890</v>
       </c>
       <c r="T50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -13767,13 +13767,13 @@
         <v>4</v>
       </c>
       <c r="B51" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C51" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -13781,22 +13781,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>31602_20500_1300_WRF065_4_M11</t>
+          <t>32363_20706_1300_W1817_4_M11</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>25296_20700_1300_None_4_M11</t>
+          <t>32363_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -13827,22 +13827,22 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1770</v>
+        <v>1950</v>
       </c>
       <c r="S51" t="n">
-        <v>1890</v>
+        <v>2010</v>
       </c>
       <c r="T51" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U51" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
@@ -13850,13 +13850,13 @@
         <v>4</v>
       </c>
       <c r="B52" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C52" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -13864,22 +13864,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>32363_20706_1300_W1817_4_M11</t>
+          <t>32363_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>32363_20500_1300_WRF065_4_M11</t>
+          <t>26300_20700_1300_T02149_4_M11</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -13910,22 +13910,22 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1950</v>
+        <v>2100</v>
       </c>
       <c r="S52" t="n">
-        <v>2010</v>
+        <v>2220</v>
       </c>
       <c r="T52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -13933,13 +13933,13 @@
         <v>4</v>
       </c>
       <c r="B53" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C53" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -13947,22 +13947,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>32363_20500_1300_WRF065_4_M11</t>
+          <t>32265_20702_1300_T02150|W1818_4_M11</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+          <t>32265_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -13993,22 +13993,22 @@
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2100</v>
+        <v>2340</v>
       </c>
       <c r="S53" t="n">
-        <v>2220</v>
+        <v>2400</v>
       </c>
       <c r="T53" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="U53" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
@@ -14016,13 +14016,13 @@
         <v>4</v>
       </c>
       <c r="B54" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C54" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -14030,22 +14030,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+          <t>32265_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>32265_20500_1300_WRF065_4_M11</t>
+          <t>27870_20700_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -14076,104 +14076,21 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2340</v>
+        <v>2550</v>
       </c>
       <c r="S54" t="n">
-        <v>2400</v>
+        <v>2670</v>
       </c>
       <c r="T54" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="U54" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" t="n">
-        <v>85</v>
-      </c>
-      <c r="C55" t="n">
-        <v>89</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>pure_setup</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>4</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>32265_20500_1300_WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>27870_20700_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" t="b">
-        <v>0</v>
-      </c>
-      <c r="O55" t="b">
-        <v>1</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>no_setup_machine</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
-        <v>2550</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2670</v>
-      </c>
-      <c r="T55" t="n">
-        <v>120</v>
-      </c>
-      <c r="U55" t="n">
-        <v>120</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" t="n">
         <v>120</v>
       </c>
     </row>
@@ -14233,19 +14150,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -1057,20 +1057,36 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>['SW1251002401']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>32409</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="I4" t="n">
+        <v>152.0372998175552</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>T01824</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>24000</t>
@@ -1089,7 +1105,7 @@
         <v>45795.125</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1098,20 +1114,36 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['']</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>['SW1251002401']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>32409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="I5" t="n">
+        <v>152.0372998175552</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>T01862</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>23100</t>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="주문_생산_요약본" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="주문_생산_정보" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="호기_정보" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="지연시간분석" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="지연시간호기요약" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="스케줄링_성과_지표" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="호기_정보" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="장비별_상세_성과" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="주문_지각_정보" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="간격_분석" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,57 +445,78 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>pono</t>
+          <t>지표명</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>end_time</t>
+          <t>값</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gitemno</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>duedate</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>end_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>late_days</t>
+          <t>단위</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SW1251002401</t>
+          <t>PO제품수</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>32409</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45794.125</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+          <t>개</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>총 생산시간</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>납기준수율</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>장비가동률(전체평균)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -504,321 +525,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>pono</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1_proccode</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2_proccode</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>gitemno</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gitemname</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sitemno</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sitemname</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>spec</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ipgmqty</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>duedate</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Thickness</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>fabric_length</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>comb_classification_1_proccode</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>fabric_width_1_proccode</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>production_length_1_proccode</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>chemical_list_1_proccode</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>comb_classification_2_proccode</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>fabric_width_2_proccode</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>production_length_2_proccode</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>chemical_list_2_proccode</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SW1251002401</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>32409_24000_1300_T01824_4_M10</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>32409_23100_1300_T01862_4_M10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32409</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>53976</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>PROTEK(Stealth/CLEAR-92)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>305*1524*15</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1524</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>150</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>152.0372998175552</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>T01824</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="U2" t="n">
-        <v>152.0372998175552</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>T01862</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SW1251002401</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>32409_24000_1300_T01824_4_M10</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>32409_23100_1300_T01862_4_M10</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32409</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>53976</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>PROTEK(Stealth/CLEAR-92)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>305*1524*15</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1524</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>150</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1300</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>152.0372998175552</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>T01824</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1300</v>
-      </c>
-      <c r="U3" t="n">
-        <v>152.0372998175552</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>T01862</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1158,20 +864,551 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>기계코드</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>기계명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>가동시간(분)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>가동율(%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>대기시간(분)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>대기loss율(%)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>공정교체시간(분)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>공정교체loss율(%)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>총시간(분)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A2020</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AgNW2호기</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>D2280</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>코팅28호기_DSP</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>O2310</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>코팅31호기_DSP</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>O2320</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>코팅32호기_DSP</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>O2340</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>코팅34호기_DSP</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>O2360</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>코팅36호기_DSP</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>O2510</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>코팅51호기(미사용)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>O2590</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>코팅59호기_DSP</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3060</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>pono</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>gitemno</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>gitemname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>duedate</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>완성시각</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>지각여부</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>지각시간(일)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SW1251002401</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>32409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45794.125</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -546,57 +546,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>machinename</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>work_start_time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>work_end_time</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>procseq</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pono</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gitemno</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fabric_width</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>production_length</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>chemical_list</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>duedate</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>machinename</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -621,49 +621,49 @@
           <t>C2010</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45794.10416666666</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>45794.125</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>32409_23100_1300_T01862_4_M10</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['SW1251002401']</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>32409</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1300</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>152.0372998175552</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>T01862</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>['2025-10-31']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -686,49 +686,49 @@
           <t>O2310</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>코팅31호기_DSP</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>45792.02083333334</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>32409_24000_1300_T01824_4_M10</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['SW1251002401']</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>32409</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1300</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>152.0372998175552</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>T01824</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>['2025-10-31']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>코팅31호기_DSP</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -746,48 +746,52 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" s="2" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" s="2" t="n">
         <v>45792.02083333334</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>45794.10416666666</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>32409_24000_1300_T01824_4_M10_AGING</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['SW1251002401']</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>32409</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>1300</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>152.0372998175552</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>T01824</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>['2025-10-31']</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>PPF-NS-Onyxhield EXa MATT</t>
@@ -803,48 +807,52 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" s="2" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" s="2" t="n">
         <v>45794.125</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="D5" s="2" t="n">
         <v>45795.125</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>32409_23100_1300_T01862_4_M10_AGING</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['SW1251002401']</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>32409</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>1300</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>152.0372998175552</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>T01862</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>['2025-10-31']</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>PPF-NS-Onyxhield EXa MATT</t>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>87.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.67</v>
+        <v>15.71</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,53 +627,53 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45794.10416666666</v>
+        <v>45792</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45794.125</v>
+        <v>45792.02083333334</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>32409_23100_1300_T01862_4_M10</t>
+          <t>32571_23312_1300_T01639_4_M3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['SW1251002401']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>32409</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1300</v>
       </c>
       <c r="J2" t="n">
-        <v>152.0372998175552</v>
+        <v>148.6374896779521</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>T01862</t>
+          <t>T01639</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>23312</t>
         </is>
       </c>
       <c r="O2" s="3" t="n">
@@ -683,62 +683,62 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>O2310</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>코팅31호기_DSP</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45792</v>
+        <v>45792.10416666666</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45792.02083333334</v>
+        <v>45792.125</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>32409_24000_1300_T01824_4_M10</t>
+          <t>32571_23316_1300_T01640_4_M3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['SW1251002401']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>32409</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1300</v>
       </c>
       <c r="J3" t="n">
-        <v>152.0372998175552</v>
+        <v>148.6374896779521</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>T01824</t>
+          <t>T01640</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>24000</t>
+          <t>23316</t>
         </is>
       </c>
       <c r="O3" s="3" t="n">
@@ -748,104 +748,112 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AGING</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
       <c r="C4" s="2" t="n">
-        <v>45792.02083333334</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45794.10416666666</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>32409_24000_1300_T01824_4_M10_AGING</t>
+          <t>32571_20500_1300_T01514_4_M3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['SW1251002401']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>32409</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1300</v>
       </c>
       <c r="J4" t="n">
-        <v>152.0372998175552</v>
+        <v>148.6374896779521</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>T01824</t>
+          <t>T01514</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>24000</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="O4" s="3" t="n">
-        <v>2.083333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AGING</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
       <c r="C5" s="2" t="n">
-        <v>45794.125</v>
+        <v>45792.3125</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45795.125</v>
+        <v>45792.3125</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>32409_23100_1300_T01862_4_M10_AGING</t>
+          <t>32413_23311_1300_T0915_4_M10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['SW1251002401']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>32409</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1300</v>
       </c>
       <c r="J5" t="n">
-        <v>152.0372998175552</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>T01862</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -855,16 +863,5123 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>PPF-NS-TGA N (OP개선)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>31704_23311_1300_T01521|T0915_4_M10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['SW1250911101']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>31704</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J6" t="n">
+        <v>106.4368981246832</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>T01521|T0915</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['2025-10-28']</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PPF-NS-TGA(WHITE)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45792.33333333334</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>32041_20500_1300_T0915_4_M10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['SW1250911401']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>32041</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>T0915</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>['2025-10-17']</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45792.39583333334</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>32453_23311_1300_T0915|T02098_4_M10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['SW1251002401, SW1250911402']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>32453</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J8" t="n">
+        <v>303.8590094196293</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>T0915|T02098</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>['2025-10-17']</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45792.52083333334</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45792.52083333334</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31722_23311_1300_T0915|T01362_4_M10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['SW1251001901']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>31722</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>T0915|T01362</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>['2025-10-27']</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PPF-NS-SGA N</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>31772_23100_1300_T01226|W2060_4_M10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['SW1251002101']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>31772</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>T01226|W2060</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>['2025-10-31']</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>23100</t>
         </is>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>32556_20710_1300_T01020_4_M10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['SW1250908901, SW1251001801']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>32556</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J11" t="n">
+        <v>365.1485951922102</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>T01020</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>['2025-10-27']</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>WP-NS-IVIOS Axion</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>20710</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45792.64583333334</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>31772_20710_1300_T01020_4_M10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['SW1251002101']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>31772</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>T01020</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>['2025-10-31']</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>20710</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45792.6875</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45792.70833333334</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>32556_23100_1300_T01226_4_M10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['SW1250908901, SW1251001801']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>32556</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J13" t="n">
+        <v>365.1485951922102</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>T01226</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>['2025-10-27']</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>WP-NS-IVIOS Axion</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>23100</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45792.79166666666</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45792.8125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>31600_20902_1300_T02295_4_M11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['SW1250906901']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>31600</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J14" t="n">
+        <v>565.4068294660048</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>T02295</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45792.89583333334</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45792.9375</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>31602_20902_1300_T02390|T02293_4_M11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['SW1250904701']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>31602</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J15" t="n">
+        <v>948.9795918367347</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>T02390|T02293</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>32016_20902_1300_W2039|T02496_4_M11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['SW1250906902']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>32016</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>W2039|T02496</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45793.10416666666</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45793.125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>32470_23311_1300_T0915_4_M11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['SW1251003601']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>32470</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J17" t="n">
+        <v>230.0848757541671</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>T0915</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>25441_20700_1300_T0873_4_M11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['SW1250908612']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>25441</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>T0873</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>SCF-NS-CG28</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45794.72916666666</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45794.75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>32571_12400_1300_T01713_4_M3</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['SW1250212001']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>32571</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J19" t="n">
+        <v>148.6374896779521</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>T01713</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>['2025-03-24']</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45794.8125</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45794.8125</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>32041_12400_1300_T01576_4_M10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['SW1250911401']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>32041</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>T01576</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>['2025-10-17']</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45794.8125</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45794.8125</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>32413_12400_1300_T01288|T01715_4_M10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['SW1251002001']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>32413</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>T01288|T01715</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>['2025-10-31']</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>PPF-NS-TGA N (OP개선)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45794.83333333334</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45794.85416666666</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>31704_12400_1300_T01288|T01715_4_M10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['SW1250911101']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>31704</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J22" t="n">
+        <v>106.4368981246832</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>T01288|T01715</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>['2025-10-28']</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>PPF-NS-TGA(WHITE)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45794.9375</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45794.97916666666</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>32453_12400_1300_T02244_4_M10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['SW1251002401, SW1250911402']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>32453</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J23" t="n">
+        <v>303.8590094196293</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>T02244</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>['2025-10-17']</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45795.02083333334</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45795.02083333334</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>31722_12400_1300_T01716|T01362_4_M10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['SW1251001901']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>31722</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>T01716|T01362</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>['2025-10-27']</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>PPF-NS-SGA N</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45795.625</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45795.64583333334</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>32470_12400_1300_T01521_4_M11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['SW1251003601']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>32470</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J25" t="n">
+        <v>230.0848757541671</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>T01521</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45792.125</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>31739_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['SW1250806608']</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>31739</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J26" t="n">
+        <v>794.3829438294382</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>['2025-10-01']</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45792.39583333334</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>30234_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['SW1250905625']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>30234</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J27" t="n">
+        <v>630.2093921528767</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S7 3470</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O27" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45792.45833333334</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>30260_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['SW1250905618']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>30260</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J28" t="n">
+        <v>157.8090002036245</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S9 1990</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45792.72916666666</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45792.875</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>32017_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['SW1250904708']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>32017</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3337.056971666497</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O29" s="3" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>32016_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['SW1250906902']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>32016</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45793.04166666666</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45793.08333333334</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>31600_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['SW1250906901']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>31600</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J31" t="n">
+        <v>565.4068294660048</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45793.08333333334</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45793.125</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>31602_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['SW1250904701']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>31602</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J32" t="n">
+        <v>948.9795918367347</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>32267_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['SW1250904705']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>32019_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['SW1250906904']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>32019</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45793.52083333334</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45793.6875</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>32265_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['SW1250904703']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>32265</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3624.072379790587</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45793.6875</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45793.70833333334</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>32018_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['SW1250906903']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>32018</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J36" t="n">
+        <v>251.7510912597706</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45793.70833333334</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45793.79166666666</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>32363_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['SW1250904707']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>32363</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1801.039649373153</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45792.04166666666</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>31739_20902_1300_T02600|W2032_4_M10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['SW1250806608']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>31739</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J38" t="n">
+        <v>794.3829438294382</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>T02600|W2032</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['2025-10-01']</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45792.125</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>30234_20902_1300_T02560_4_M10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['SW1250905625']</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>30234</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J39" t="n">
+        <v>630.2093921528767</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>T02560</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S7 3470</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45792.25</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>30260_20902_1300_T02089_4_M10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['SW1250905618']</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>30260</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J40" t="n">
+        <v>157.8090002036245</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>T02089</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S9 1990</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45792.35416666666</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45792.52083333334</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>32017_20902_1300_T02319_4_M11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['SW1250904708']</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>32017</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3337.056971666497</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>T02319</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45792.77083333334</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['SW1250904703']</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>32265</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3624.072379790587</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>W2082|T02498</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45792.85416666666</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45792.875</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['SW1250906903']</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>32018</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J43" t="n">
+        <v>251.7510912597706</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>T02507|T02320</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O43" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45792.95833333334</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45792.95833333334</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['SW1250904705']</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>t02604|W2051</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O44" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45793.04166666666</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45793.14583333334</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['SW1250904707']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>32363</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1801.039649373153</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>T02619|T02326</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O45" s="3" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45793.22916666666</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45793.22916666666</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['SW1250906904']</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>32019</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>T02508|T02321</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45793.3125</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45793.3125</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>25296_20300_1300_T02668_4_M11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['SW1250908604']</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>25296</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>T02668</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>SCF-NS-CG05</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="O47" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45793.39583333334</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45793.39583333334</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>26300_20300_1300_T02624_4_M11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['SW1250908609']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>26300</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>T02624</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>SCF-NS-CS15</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="O48" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>25441_20300_1300_T02606_4_M11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['SW1250908612']</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>25441</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>T02606</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>SCF-NS-CG28</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="O49" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45793.5625</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45793.5625</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>27870_20300_1300_T02670_4_M11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['SW1250908617']</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>27870</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>T02670</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>SCF-NS-LGN58</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="O50" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45792.04166666666</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45792.0625</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>31739_20702_1300_T02150|W1818_4_M10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['SW1250806608']</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>31739</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J51" t="n">
+        <v>794.3829438294382</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>T02150|W1818</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>['2025-10-01']</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="O51" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45792.10416666666</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45792.125</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>31739_20500_1300_WRF065_4_M10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['SW1250806608']</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>31739</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J52" t="n">
+        <v>794.3829438294382</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>['2025-10-01']</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O52" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45792.20833333334</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45792.22916666666</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>30234_20500_1300_W2010_4_M10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['SW1250905625']</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>30234</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J53" t="n">
+        <v>630.2093921528767</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>W2010</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S7 3470</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O53" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45792.29166666666</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['SW1250905618']</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>30260</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J54" t="n">
+        <v>157.8090002036245</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>WRF065|W2010</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S9 1990</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45792.375</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45792.39583333334</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>30234_20702_1300_T02150_4_M10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['SW1250905625']</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>30234</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J55" t="n">
+        <v>630.2093921528767</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>T02150</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S7 3470</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="O55" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45792.39583333334</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45792.41666666666</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>30260_20702_1300_T02150|W1818_4_M10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['SW1250905618']</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>30260</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J56" t="n">
+        <v>157.8090002036245</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>T02150|W1818</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S9 1990</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="O56" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45792.52083333334</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>32017_20706_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['SW1250904708']</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>32017</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3337.056971666497</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="O57" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45792.625</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45792.72916666666</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>32017_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['SW1250904708']</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>32017</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3337.056971666497</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O58" s="3" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45792.8125</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45792.83333333334</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['SW1250906901']</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>31600</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J59" t="n">
+        <v>565.4068294660048</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>W2027|W1912</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="O59" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45792.875</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45792.89583333334</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>32018_20706_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['SW1250906903']</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>32018</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J60" t="n">
+        <v>251.7510912597706</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>T02149</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="O60" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45792.9375</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45792.97916666666</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['SW1250904701']</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>31602</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J61" t="n">
+        <v>948.9795918367347</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>W2027|W1912</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="O61" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['SW1250906902']</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>32016</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>W2053|WRF065</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O62" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>32016_20706_1300_T02149|W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['SW1250906902']</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>32016</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>T02149|W1817</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="O63" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45793.04166666666</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>31600_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['SW1250906901']</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>31600</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J64" t="n">
+        <v>565.4068294660048</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O64" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45793.04166666666</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45793.08333333334</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>31602_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['SW1250904701']</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>31602</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J65" t="n">
+        <v>948.9795918367347</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O65" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>32267_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['SW1250904705']</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O66" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['SW1250904703']</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>32265</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3624.072379790587</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>T02150|W1818</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="O67" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45793.25</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>32267_20702_1300_T02150|W1818_4_M11</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['SW1250904705']</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>T02150|W1818</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="O68" s="3" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>32019_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['SW1250906904']</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>32019</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O69" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>32019_20706_1300_T02149|W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['SW1250906904']</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>32019</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>T02149|W1817</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="O70" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45793.33333333334</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45793.33333333334</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>25296_20700_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['SW1250908604']</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>25296</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>SCF-NS-CG05</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="O71" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45793.33333333334</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45793.375</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>32363_20706_1300_W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['SW1250904707']</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>32363</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1801.039649373153</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>W1817</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="O72" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45793.41666666666</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45793.41666666666</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>26300_20700_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['SW1250908609']</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>26300</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>T02149</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>SCF-NS-CS15</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="O73" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45793.41666666666</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45793.52083333334</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>32265_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['SW1250904703']</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>32265</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3624.072379790587</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O74" s="3" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45793.52083333334</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>32018_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['SW1250906903']</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>32018</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J75" t="n">
+        <v>251.7510912597706</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O75" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45793.54166666666</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45793.60416666666</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>32363_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['SW1250904707']</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>32363</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1801.039649373153</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O76" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45793.6875</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45793.6875</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>27870_20700_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['SW1250908617']</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>27870</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>SCF-NS-LGN58</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="O77" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" s="2" t="n">
+        <v>45792.22916666666</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45794.72916666666</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>32571_20500_1300_T01514_4_M3_AGING</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['SW1250212001']</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>32571</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J78" t="n">
+        <v>148.6374896779521</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>T01514</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>['2025-03-24']</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O78" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45794.8125</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>32041_20500_1300_T0915_4_M10_AGING</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['SW1250911401']</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>32041</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>T0915</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>['2025-10-17']</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="O79" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45794.8125</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>32453_23311_1300_T0915|T02098_4_M10_AGING</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['SW1251002401, SW1250911402']</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>32453</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J80" t="n">
+        <v>303.8590094196293</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>T0915|T02098</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>['2025-10-17']</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="O80" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" s="2" t="n">
+        <v>45792.33333333334</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45794.83333333334</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>31722_23311_1300_T0915|T01362_4_M10_AGING</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>['SW1251001901']</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>31722</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>T0915|T01362</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>['2025-10-27']</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>PPF-NS-SGA N</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="O81" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45794.9375</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>31704_23311_1300_T01521|T0915_4_M10_AGING</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['SW1250911101']</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>31704</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J82" t="n">
+        <v>106.4368981246832</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>T01521|T0915</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>['2025-10-28']</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>PPF-NS-TGA(WHITE)</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="O82" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" s="2" t="n">
+        <v>45792.52083333334</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45795.02083333334</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>32413_23311_1300_T0915_4_M10_AGING</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['SW1251002001']</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>32413</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>T0915</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>['2025-10-31']</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>PPF-NS-TGA N (OP개선)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="O83" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" s="2" t="n">
+        <v>45793.125</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45795.625</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>32470_23311_1300_T0915_4_M11_AGING</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['SW1251003601']</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>32470</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J84" t="n">
+        <v>230.0848757541671</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>T0915</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="O84" s="3" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="3">
@@ -978,25 +6093,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>540</v>
       </c>
       <c r="D3" t="n">
-        <v>0.98</v>
+        <v>10.29</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3270</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>62.29</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>27.43</v>
       </c>
       <c r="I3" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="4">
@@ -1011,16 +6126,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>16.57</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>29.14</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1029,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +6159,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.43</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1056,13 +6171,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>27.43</v>
       </c>
       <c r="I5" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="6">
@@ -1077,25 +6192,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>20.57</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5.14</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>19.43</v>
       </c>
       <c r="I6" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="7">
@@ -1128,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="8">
@@ -1143,10 +6258,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1161,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="9">
@@ -1194,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="10">
@@ -1227,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="11">
@@ -1260,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="13">
@@ -1326,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3060</v>
+        <v>5250</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +6455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1388,31 +6503,755 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SW1251002401</t>
+          <t>SW1250212001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>32409</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45794.75</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>지각</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>54.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SW1250806608</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>31739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SW1250911401</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>32041</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45794.8125</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SW1250905618</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S9 1990</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45792.45833333334</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SW1250905625</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30234</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S7 3470</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SW1251001901</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>31722</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PPF-NS-SGA N</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45795.02083333334</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SW1250911101</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>31704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PPF-NS-TGA(WHITE)</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45794.85416666666</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SW1251002001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>32413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PPF-NS-TGA N (OP개선)</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>45961</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>45794.125</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E9" s="2" t="n">
+        <v>45794.8125</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>준수</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SW1251002101</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>31772</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SW1250906904</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>32019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SW1250906903</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>32018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45793.70833333334</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SW1250906901</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>31600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45793.08333333334</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SW1250904708</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>32017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45792.875</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SW1250904707</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>32363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45793.79166666666</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SW1250904705</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SW1250904703</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>32265</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45793.6875</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SW1250904701</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>31602</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45793.125</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SW1250906902</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>32016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45964</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SW1250908604</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25296</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SCF-NS-CG05</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45793.33333333334</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SW1250908609</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>26300</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SCF-NS-CS15</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45793.41666666666</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SW1250908612</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>25441</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SCF-NS-CG28</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SW1250908617</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>27870</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SCF-NS-LGN58</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45793.6875</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SW1251003601</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>32470</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45795.64583333334</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SW1250908901, SW1251001801</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" s="2" t="n">
+        <v>45792.70833333334</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SW1251002401, SW1250911402</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" s="2" t="n">
+        <v>45794.97916666666</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>준수</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1427,14 +7266,2677 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>기계코드</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>기계명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>간격시작시각</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>간격종료시각</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>간격시간(분)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>간격유형</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>셋업시간(분)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>대기시간(분)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>이전작업</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>다음작업</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>변경사유</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>셋업비율(%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45792.02083333334</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45792.10416666666</v>
+      </c>
+      <c r="E2" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>120</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>23312</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>23316</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45792.125</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45792.20833333334</v>
+      </c>
+      <c r="E3" t="n">
+        <v>120</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>120</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>23316</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>공정변경(EPU→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45792.22916666666</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>120</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>120</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45792.33333333334</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45792.39583333334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>90</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>90</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45792.52083333334</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>120</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45792.52083333334</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="E7" t="n">
+        <v>120</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>120</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>23100</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45792.64583333334</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45792.6875</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20710</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>23100</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45792.70833333334</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45792.79166666666</v>
+      </c>
+      <c r="E9" t="n">
+        <v>120</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>120</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>23100</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>공정변경(투명→안료), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45792.8125</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45792.89583333334</v>
+      </c>
+      <c r="E10" t="n">
+        <v>120</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>120</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45792.9375</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="E11" t="n">
+        <v>120</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>120</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45793.10416666666</v>
+      </c>
+      <c r="E12" t="n">
+        <v>120</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>120</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>공정변경(안료→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45793.125</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="E13" t="n">
+        <v>510</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>120</v>
+      </c>
+      <c r="H13" t="n">
+        <v>390</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>공정변경(투명→SR), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45794.72916666666</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1740</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45794.75</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45794.8125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>90</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>60</v>
+      </c>
+      <c r="H15" t="n">
+        <v>30</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45794.8125</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45794.83333333334</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45794.85416666666</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45794.9375</v>
+      </c>
+      <c r="E17" t="n">
+        <v>120</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>60</v>
+      </c>
+      <c r="H17" t="n">
+        <v>60</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45794.97916666666</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45795.02083333334</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>60</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>코팅1호기_WIN</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45795.02083333334</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45795.625</v>
+      </c>
+      <c r="E19" t="n">
+        <v>870</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>60</v>
+      </c>
+      <c r="H19" t="n">
+        <v>810</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45792.39583333334</v>
+      </c>
+      <c r="E20" t="n">
+        <v>330</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>330</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45792.45833333334</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45792.72916666666</v>
+      </c>
+      <c r="E21" t="n">
+        <v>390</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>390</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45792.875</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="E22" t="n">
+        <v>210</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>210</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45793.04166666666</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45793.125</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>60</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="E25" t="n">
+        <v>180</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>180</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45793.52083333334</v>
+      </c>
+      <c r="E26" t="n">
+        <v>330</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>330</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45792.04166666666</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45792.125</v>
+      </c>
+      <c r="E27" t="n">
+        <v>120</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>120</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45792.25</v>
+      </c>
+      <c r="E28" t="n">
+        <v>120</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>120</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45792.35416666666</v>
+      </c>
+      <c r="E29" t="n">
+        <v>120</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>120</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45792.52083333334</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="E30" t="n">
+        <v>120</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>120</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45792.77083333334</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45792.85416666666</v>
+      </c>
+      <c r="E31" t="n">
+        <v>120</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>120</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45792.875</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45792.95833333334</v>
+      </c>
+      <c r="E32" t="n">
+        <v>120</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>120</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45792.95833333334</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45793.04166666666</v>
+      </c>
+      <c r="E33" t="n">
+        <v>120</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>120</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45793.14583333334</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45793.22916666666</v>
+      </c>
+      <c r="E34" t="n">
+        <v>120</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>120</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45793.22916666666</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45793.3125</v>
+      </c>
+      <c r="E35" t="n">
+        <v>120</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>120</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>공정변경(안료→염료), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45793.3125</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45793.39583333334</v>
+      </c>
+      <c r="E36" t="n">
+        <v>120</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>120</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45793.39583333334</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="E37" t="n">
+        <v>120</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>120</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45793.5625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>120</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>120</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45792.0625</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45792.10416666666</v>
+      </c>
+      <c r="E39" t="n">
+        <v>60</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>60</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45792.125</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45792.20833333334</v>
+      </c>
+      <c r="E40" t="n">
+        <v>120</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>120</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45792.22916666666</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="E41" t="n">
+        <v>60</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>60</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45792.29166666666</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45792.375</v>
+      </c>
+      <c r="E42" t="n">
+        <v>120</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>120</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>공정변경(투명→SR), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45792.41666666666</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45792.52083333334</v>
+      </c>
+      <c r="E43" t="n">
+        <v>150</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>60</v>
+      </c>
+      <c r="H43" t="n">
+        <v>90</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45792.625</v>
+      </c>
+      <c r="E44" t="n">
+        <v>60</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>60</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명)</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45792.72916666666</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45792.8125</v>
+      </c>
+      <c r="E45" t="n">
+        <v>120</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>120</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>공정변경(투명→SR), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45792.83333333334</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45792.875</v>
+      </c>
+      <c r="E46" t="n">
+        <v>60</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>60</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45792.89583333334</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45792.9375</v>
+      </c>
+      <c r="E47" t="n">
+        <v>60</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>60</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45792.97916666666</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="E48" t="n">
+        <v>60</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>60</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45793.08333333334</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45793.16666666666</v>
+      </c>
+      <c r="E49" t="n">
+        <v>120</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>120</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45793.25</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="E50" t="n">
+        <v>60</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>60</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45793.33333333334</v>
+      </c>
+      <c r="E51" t="n">
+        <v>60</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>60</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45793.375</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45793.41666666666</v>
+      </c>
+      <c r="E52" t="n">
+        <v>60</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>60</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45793.60416666666</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45793.6875</v>
+      </c>
+      <c r="E53" t="n">
+        <v>120</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>120</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>공정변경(투명→SR)</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.5</v>
+        <v>143.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.71</v>
+        <v>9.32</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>process_ID</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>32571_23312_1300_T01639_4_M3</t>
+          <t>32571_1300_4_M3_23312_T01639</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -654,7 +654,7 @@
         <v>1300</v>
       </c>
       <c r="J2" t="n">
-        <v>148.6374896779521</v>
+        <v>180</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>23312</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O2" s="3" t="n">
@@ -702,7 +702,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>32571_23316_1300_T01640_4_M3</t>
+          <t>32571_1300_4_M3_23316_T01640</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -719,7 +719,7 @@
         <v>1300</v>
       </c>
       <c r="J3" t="n">
-        <v>148.6374896779521</v>
+        <v>170</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>23316</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O3" s="3" t="n">
@@ -767,7 +767,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>32571_20500_1300_T01514_4_M3</t>
+          <t>32571_1300_4_M3_20500_T01514</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -784,7 +784,7 @@
         <v>1300</v>
       </c>
       <c r="J4" t="n">
-        <v>148.6374896779521</v>
+        <v>160</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O4" s="3" t="n">
@@ -832,7 +832,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>32413_23311_1300_T0915_4_M10</t>
+          <t>32413_1300_4_M10_23311_T0915</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O5" s="3" t="n">
@@ -897,7 +897,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>31704_23311_1300_T01521|T0915_4_M10</t>
+          <t>31704_1300_4_M10_23311_T01521|T0915</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -914,7 +914,7 @@
         <v>1300</v>
       </c>
       <c r="J6" t="n">
-        <v>106.4368981246832</v>
+        <v>110</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O6" s="3" t="n">
@@ -962,7 +962,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>32041_20500_1300_T0915_4_M10</t>
+          <t>32041_1300_4_M10_20500_T0915</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O7" s="3" t="n">
@@ -1020,14 +1020,14 @@
         <v>45792.39583333334</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>32453_23311_1300_T0915|T02098_4_M10</t>
+          <t>32453_1300_4_M10_23311_T0915|T02098</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1044,7 +1044,7 @@
         <v>1300</v>
       </c>
       <c r="J8" t="n">
-        <v>303.8590094196293</v>
+        <v>300</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1063,11 +1063,11 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O8" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -1082,17 +1082,17 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.5</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.5</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>31722_23311_1300_T0915|T01362_4_M10</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O9" s="3" t="n">
@@ -1147,17 +1147,17 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>31772_23100_1300_T01226|W2060_4_M10</t>
+          <t>31772_1300_4_M10_23100_T01226|W2060</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O10" s="3" t="n">
@@ -1212,17 +1212,17 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>32556_20710_1300_T01020_4_M10</t>
+          <t>32556_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1239,7 +1239,7 @@
         <v>1300</v>
       </c>
       <c r="J11" t="n">
-        <v>365.1485951922102</v>
+        <v>370</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>20710</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O11" s="3" t="n">
@@ -1277,17 +1277,17 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.625</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>31772_20710_1300_T01020_4_M10</t>
+          <t>31772_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>20710</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O12" s="3" t="n">
@@ -1342,17 +1342,17 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
+        <v>45792.66666666666</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>45792.6875</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>45792.70833333334</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>32556_23100_1300_T01226_4_M10</t>
+          <t>32556_1300_4_M10_23100_T01226</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1369,7 +1369,7 @@
         <v>1300</v>
       </c>
       <c r="J13" t="n">
-        <v>365.1485951922102</v>
+        <v>360</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O13" s="3" t="n">
@@ -1407,17 +1407,17 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
+        <v>45792.77083333334</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>45792.79166666666</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>45792.8125</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>31600_20902_1300_T02295_4_M11</t>
+          <t>31600_1300_4_M11_20902_T02295</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1434,7 +1434,7 @@
         <v>1300</v>
       </c>
       <c r="J14" t="n">
-        <v>565.4068294660048</v>
+        <v>580</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O14" s="3" t="n">
@@ -1472,17 +1472,17 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.875</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>31602_20902_1300_T02390|T02293_4_M11</t>
+          <t>31602_1300_4_M11_20902_T02390|T02293</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1499,7 +1499,7 @@
         <v>1300</v>
       </c>
       <c r="J15" t="n">
-        <v>948.9795918367347</v>
+        <v>990</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O15" s="3" t="n">
@@ -1537,38 +1537,38 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.125</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>32016_20902_1300_W2039|T02496_4_M11</t>
+          <t>32265_1300_4_M11_20902_W2082|T02498</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1300</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3880</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>W2039|T02496</t>
+          <t>W2082|T02498</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1578,16 +1578,16 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O16" s="3" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17">
@@ -1602,38 +1602,38 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45793.125</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32470_23311_1300_T0915_4_M11</t>
+          <t>25441_1300_4_M11_20700_T0873</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1300</v>
       </c>
       <c r="J17" t="n">
-        <v>230.0848757541671</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T0873</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1643,16 +1643,16 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O17" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1667,38 +1667,38 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.25</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>25441_20700_1300_T0873_4_M11</t>
+          <t>32470_1300_4_M11_23311_T0915</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1300</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T0873</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1708,16 +1708,16 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O18" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>32571_12400_1300_T01713_4_M3</t>
+          <t>32571_1300_4_M3_12400_T01713</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1759,7 +1759,7 @@
         <v>1300</v>
       </c>
       <c r="J19" t="n">
-        <v>148.6374896779521</v>
+        <v>150</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O19" s="3" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>32041_12400_1300_T01576_4_M10</t>
+          <t>32041_1300_4_M10_12400_T01576</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O20" s="3" t="n">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>32413_12400_1300_T01288|T01715_4_M10</t>
+          <t>32413_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O21" s="3" t="n">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>31704_12400_1300_T01288|T01715_4_M10</t>
+          <t>31704_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1954,7 +1954,7 @@
         <v>1300</v>
       </c>
       <c r="J22" t="n">
-        <v>106.4368981246832</v>
+        <v>110</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O22" s="3" t="n">
@@ -1992,17 +1992,17 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
+        <v>45794.91666666666</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>45794.9375</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>45794.97916666666</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>32453_12400_1300_T02244_4_M10</t>
+          <t>32453_1300_4_M10_12400_T02244</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2019,7 +2019,7 @@
         <v>1300</v>
       </c>
       <c r="J23" t="n">
-        <v>303.8590094196293</v>
+        <v>300</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2038,11 +2038,11 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O23" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -2057,17 +2057,17 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45795.02083333334</v>
+        <v>45795</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45795.02083333334</v>
+        <v>45795</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>31722_12400_1300_T01716|T01362_4_M10</t>
+          <t>31722_1300_4_M10_12400_T01716|T01362</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O24" s="3" t="n">
@@ -2122,17 +2122,17 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45795.625</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45795.64583333334</v>
+        <v>45795.79166666666</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>32470_12400_1300_T01521_4_M11</t>
+          <t>32470_1300_4_M11_12400_T01521</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2149,7 +2149,7 @@
         <v>1300</v>
       </c>
       <c r="J25" t="n">
-        <v>230.0848757541671</v>
+        <v>230</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O25" s="3" t="n">
@@ -2187,17 +2187,17 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.14583333334</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.1875</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>31739_20906_1300_None_4_M10</t>
+          <t>31739_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2214,7 +2214,7 @@
         <v>1300</v>
       </c>
       <c r="J26" t="n">
-        <v>794.3829438294382</v>
+        <v>800</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O26" s="3" t="n">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>30234_20906_1300_None_4_M10</t>
+          <t>30234_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2279,7 +2279,7 @@
         <v>1300</v>
       </c>
       <c r="J27" t="n">
-        <v>630.2093921528767</v>
+        <v>630</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O27" s="3" t="n">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>30260_20906_1300_None_4_M10</t>
+          <t>30260_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2344,7 +2344,7 @@
         <v>1300</v>
       </c>
       <c r="J28" t="n">
-        <v>157.8090002036245</v>
+        <v>160</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O28" s="3" t="n">
@@ -2382,34 +2382,34 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32017_20906_1300_None_4_M11</t>
+          <t>32016_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1300</v>
       </c>
       <c r="J29" t="n">
-        <v>3337.056971666497</v>
+        <v>0</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2423,16 +2423,16 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2447,34 +2447,34 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.5625</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>32016_20906_1300_None_4_M11</t>
+          <t>32018_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1300</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2488,16 +2488,16 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O30" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -2512,34 +2512,34 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.625</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.625</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>31600_20906_1300_None_4_M11</t>
+          <t>32267_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1300</v>
       </c>
       <c r="J31" t="n">
-        <v>565.4068294660048</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2553,16 +2553,16 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O31" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2577,34 +2577,34 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.125</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>31602_20906_1300_None_4_M11</t>
+          <t>32019_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1300</v>
       </c>
       <c r="J32" t="n">
-        <v>948.9795918367347</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2618,16 +2618,16 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2642,34 +2642,34 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>32267_20906_1300_None_4_M11</t>
+          <t>31600_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1300</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2683,16 +2683,16 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O33" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -2707,34 +2707,34 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>32019_20906_1300_None_4_M11</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1300</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2748,16 +2748,16 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="35">
@@ -2772,34 +2772,34 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.3125</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>32265_20906_1300_None_4_M11</t>
+          <t>32363_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1300</v>
       </c>
       <c r="J35" t="n">
-        <v>3624.072379790587</v>
+        <v>1810</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2813,16 +2813,16 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O35" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="36">
@@ -2837,34 +2837,34 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45793.5625</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>32018_20906_1300_None_4_M11</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1300</v>
       </c>
       <c r="J36" t="n">
-        <v>251.7510912597706</v>
+        <v>3320</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2878,16 +2878,16 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O36" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -2902,34 +2902,34 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45793.72916666666</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45793.79166666666</v>
+        <v>45793.89583333334</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>32363_20906_1300_None_4_M11</t>
+          <t>32265_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1300</v>
       </c>
       <c r="J37" t="n">
-        <v>1801.039649373153</v>
+        <v>3640</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2943,16 +2943,16 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O37" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>31739_20902_1300_T02600|W2032_4_M10</t>
+          <t>31739_1300_4_M10_20902_T02600|W2032</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2994,7 +2994,7 @@
         <v>1300</v>
       </c>
       <c r="J38" t="n">
-        <v>794.3829438294382</v>
+        <v>860</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O38" s="3" t="n">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>30234_20902_1300_T02560_4_M10</t>
+          <t>30234_1300_4_M10_20902_T02560</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3059,7 +3059,7 @@
         <v>1300</v>
       </c>
       <c r="J39" t="n">
-        <v>630.2093921528767</v>
+        <v>660</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O39" s="3" t="n">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>30260_20902_1300_T02089_4_M10</t>
+          <t>30260_1300_4_M10_20902_T02089</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3124,7 +3124,7 @@
         <v>1300</v>
       </c>
       <c r="J40" t="n">
-        <v>157.8090002036245</v>
+        <v>160</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O40" s="3" t="n">
@@ -3165,35 +3165,35 @@
         <v>45792.35416666666</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.375</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>32017_20902_1300_T02319_4_M11</t>
+          <t>32018_1300_4_M11_20902_T02507|T02320</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1300</v>
       </c>
       <c r="J41" t="n">
-        <v>3337.056971666497</v>
+        <v>270</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>T02319</t>
+          <t>T02507|T02320</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3203,16 +3203,16 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O41" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -3227,38 +3227,38 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+          <t>32016_1300_4_M11_20902_W2039|T02496</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1300</v>
       </c>
       <c r="J42" t="n">
-        <v>3624.072379790587</v>
+        <v>0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>W2082|T02498</t>
+          <t>W2039|T02496</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3268,16 +3268,16 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O42" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3292,38 +3292,38 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+          <t>32267_1300_4_M11_20902_t02604|W2051</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1300</v>
       </c>
       <c r="J43" t="n">
-        <v>251.7510912597706</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>T02507|T02320</t>
+          <t>t02604|W2051</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3333,16 +3333,16 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O43" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3357,38 +3357,38 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.625</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+          <t>32363_1300_4_M11_20902_T02619|T02326</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1300</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>t02604|W2051</t>
+          <t>T02619|T02326</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3398,16 +3398,16 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O44" s="3" t="n">
-        <v>0</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="45">
@@ -3422,38 +3422,38 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.8125</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45792.8125</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+          <t>32019_1300_4_M11_20902_T02508|T02321</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1300</v>
       </c>
       <c r="J45" t="n">
-        <v>1801.039649373153</v>
+        <v>0</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>T02619|T02326</t>
+          <t>T02508|T02321</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3463,16 +3463,16 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3487,38 +3487,38 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+          <t>32017_1300_4_M11_20902_T02319</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1300</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3430</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>T02508|T02321</t>
+          <t>T02319</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3528,16 +3528,16 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O46" s="3" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -3552,27 +3552,27 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>25296_20300_1300_T02668_4_M11</t>
+          <t>25441_1300_4_M11_20300_T02606</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>T02668</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3593,12 +3593,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O47" s="3" t="n">
@@ -3617,17 +3617,17 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>26300_20300_1300_T02624_4_M11</t>
+          <t>26300_1300_4_M11_20300_T02624</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O48" s="3" t="n">
@@ -3682,27 +3682,27 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.3125</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.3125</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>25441_20300_1300_T02606_4_M11</t>
+          <t>27870_1300_4_M11_20300_T02670</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>T02670</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3723,12 +3723,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O49" s="3" t="n">
@@ -3747,27 +3747,27 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>27870_20300_1300_T02670_4_M11</t>
+          <t>25296_1300_4_M11_20300_T02668</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>T02670</t>
+          <t>T02668</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3788,12 +3788,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O50" s="3" t="n">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>31739_20702_1300_T02150|W1818_4_M10</t>
+          <t>31739_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>1300</v>
       </c>
       <c r="J51" t="n">
-        <v>794.3829438294382</v>
+        <v>840</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O51" s="3" t="n">
@@ -3880,14 +3880,14 @@
         <v>45792.10416666666</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.14583333334</v>
       </c>
       <c r="E52" t="n">
         <v>3</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>31739_20500_1300_WRF065_4_M10</t>
+          <t>31739_1300_4_M10_20500_WRF065</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3904,7 +3904,7 @@
         <v>1300</v>
       </c>
       <c r="J52" t="n">
-        <v>794.3829438294382</v>
+        <v>820</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3923,11 +3923,11 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O52" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="53">
@@ -3942,17 +3942,17 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.25</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>30234_20500_1300_W2010_4_M10</t>
+          <t>30234_1300_4_M10_20500_W2010</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3969,7 +3969,7 @@
         <v>1300</v>
       </c>
       <c r="J53" t="n">
-        <v>630.2093921528767</v>
+        <v>650</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O53" s="3" t="n">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+          <t>30260_1300_4_M10_20500_WRF065|W2010</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4034,7 +4034,7 @@
         <v>1300</v>
       </c>
       <c r="J54" t="n">
-        <v>157.8090002036245</v>
+        <v>160</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O54" s="3" t="n">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>30234_20702_1300_T02150_4_M10</t>
+          <t>30234_1300_4_M10_20702_T02150</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4099,7 +4099,7 @@
         <v>1300</v>
       </c>
       <c r="J55" t="n">
-        <v>630.2093921528767</v>
+        <v>640</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O55" s="3" t="n">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>30260_20702_1300_T02150|W1818_4_M10</t>
+          <t>30260_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4164,7 +4164,7 @@
         <v>1300</v>
       </c>
       <c r="J56" t="n">
-        <v>157.8090002036245</v>
+        <v>160</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O56" s="3" t="n">
@@ -4202,38 +4202,38 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>32017_20706_1300_None_4_M11</t>
+          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1300</v>
       </c>
       <c r="J57" t="n">
-        <v>3337.056971666497</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>W2053|WRF065</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4243,16 +4243,16 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O57" s="3" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4267,38 +4267,38 @@
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>32017_20500_1300_WRF065_4_M11</t>
+          <t>32016_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1300</v>
       </c>
       <c r="J58" t="n">
-        <v>3337.056971666497</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4308,16 +4308,16 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O58" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4332,38 +4332,38 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+          <t>32018_1300_4_M11_20706_T02149</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1300</v>
       </c>
       <c r="J59" t="n">
-        <v>565.4068294660048</v>
+        <v>260</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O59" s="3" t="n">
@@ -4397,17 +4397,17 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>32018_20706_1300_T02149_4_M11</t>
+          <t>32018_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4424,11 +4424,11 @@
         <v>1300</v>
       </c>
       <c r="J60" t="n">
-        <v>251.7510912597706</v>
+        <v>260</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O60" s="3" t="n">
@@ -4462,38 +4462,38 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45792.625</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.625</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+          <t>32267_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1300</v>
       </c>
       <c r="J61" t="n">
-        <v>948.9795918367347</v>
+        <v>0</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4503,16 +4503,16 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O61" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4527,27 +4527,27 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.625</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.625</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
+          <t>32267_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>W2053|WRF065</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4568,12 +4568,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O62" s="3" t="n">
@@ -4592,38 +4592,38 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>32016_20706_1300_T02149|W1817_4_M11</t>
+          <t>32363_1300_4_M11_20706_W1817</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1300</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>W1817</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4633,16 +4633,16 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O63" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="64">
@@ -4657,17 +4657,17 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.8125</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>31600_20500_1300_WRF065_4_M11</t>
+          <t>31600_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4684,11 +4684,11 @@
         <v>1300</v>
       </c>
       <c r="J64" t="n">
-        <v>565.4068294660048</v>
+        <v>580</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O64" s="3" t="n">
@@ -4722,34 +4722,34 @@
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E65" t="n">
         <v>3</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>31602_20500_1300_WRF065_4_M11</t>
+          <t>32019_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1300</v>
       </c>
       <c r="J65" t="n">
-        <v>948.9795918367347</v>
+        <v>0</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -4763,16 +4763,16 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O65" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -4787,27 +4787,27 @@
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>32267_20500_1300_WRF065_4_M11</t>
+          <t>32019_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4828,12 +4828,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O66" s="3" t="n">
@@ -4852,38 +4852,38 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+          <t>31602_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1300</v>
       </c>
       <c r="J67" t="n">
-        <v>3624.072379790587</v>
+        <v>970</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4893,16 +4893,16 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O67" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="68">
@@ -4917,38 +4917,38 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>32267_20702_1300_T02150|W1818_4_M11</t>
+          <t>31600_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1300</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4958,16 +4958,16 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O68" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="69">
@@ -4982,34 +4982,34 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>32019_20500_1300_WRF065_4_M11</t>
+          <t>31602_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1300</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5023,16 +5023,16 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O69" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="70">
@@ -5047,38 +5047,38 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>32019_20706_1300_T02149|W1817_4_M11</t>
+          <t>32017_1300_4_M11_20706_None</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1300</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5088,16 +5088,16 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O70" s="3" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="71">
@@ -5112,27 +5112,27 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.25</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.25</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>25296_20700_1300_None_4_M11</t>
+          <t>26300_1300_4_M11_20700_T02149</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5153,12 +5153,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O71" s="3" t="n">
@@ -5177,17 +5177,17 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.25</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45793.375</v>
+        <v>45793.3125</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>32363_20706_1300_W1817_4_M11</t>
+          <t>32363_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5204,11 +5204,11 @@
         <v>1300</v>
       </c>
       <c r="J72" t="n">
-        <v>1801.039649373153</v>
+        <v>1850</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>W1817</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5223,11 +5223,11 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O72" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="73">
@@ -5242,57 +5242,57 @@
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45793.3125</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>45793.41666666666</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>26300_20700_1300_T02149_4_M11</t>
+          <t>32017_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1300</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>3360</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O73" s="3" t="n">
-        <v>0</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="74">
@@ -5307,17 +5307,17 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45793.5</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>32265_20500_1300_WRF065_4_M11</t>
+          <t>32265_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5334,11 +5334,11 @@
         <v>1300</v>
       </c>
       <c r="J74" t="n">
-        <v>3624.072379790587</v>
+        <v>3800</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5353,11 +5353,11 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O74" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="75">
@@ -5372,34 +5372,34 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.625</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.72916666666</v>
       </c>
       <c r="E75" t="n">
         <v>3</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>32018_20500_1300_WRF065_4_M11</t>
+          <t>32265_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1300</v>
       </c>
       <c r="J75" t="n">
-        <v>251.7510912597706</v>
+        <v>3710</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -5413,16 +5413,16 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O75" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="76">
@@ -5437,57 +5437,57 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.8125</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.8125</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>32363_20500_1300_WRF065_4_M11</t>
+          <t>27870_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1300</v>
       </c>
       <c r="J76" t="n">
-        <v>1801.039649373153</v>
+        <v>0</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O76" s="3" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -5502,27 +5502,27 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.8125</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.8125</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>27870_20700_1300_None_4_M11</t>
+          <t>25296_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -5543,12 +5543,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O77" s="3" t="n">
@@ -5573,7 +5573,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>32571_20500_1300_T01514_4_M3_AGING</t>
+          <t>32571_1300_4_M3_20500_T01514_AGING</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5590,7 +5590,7 @@
         <v>1300</v>
       </c>
       <c r="J78" t="n">
-        <v>148.6374896779521</v>
+        <v>160</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O78" s="3" t="n">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>32041_20500_1300_T0915_4_M10_AGING</t>
+          <t>32041_1300_4_M10_20500_T0915_AGING</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O79" s="3" t="n">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>32453_23311_1300_T0915|T02098_4_M10_AGING</t>
+          <t>32453_1300_4_M10_23311_T0915|T02098_AGING</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5712,7 +5712,7 @@
         <v>1300</v>
       </c>
       <c r="J80" t="n">
-        <v>303.8590094196293</v>
+        <v>300</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O80" s="3" t="n">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>31722_23311_1300_T0915|T01362_4_M10_AGING</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362_AGING</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O81" s="3" t="n">
@@ -5807,17 +5807,17 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45794.9375</v>
+        <v>45794.91666666666</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>31704_23311_1300_T01521|T0915_4_M10_AGING</t>
+          <t>31704_1300_4_M10_23311_T01521|T0915_AGING</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5834,7 +5834,7 @@
         <v>1300</v>
       </c>
       <c r="J82" t="n">
-        <v>106.4368981246832</v>
+        <v>110</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O82" s="3" t="n">
@@ -5868,17 +5868,17 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.5</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45795.02083333334</v>
+        <v>45795</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>32413_23311_1300_T0915_4_M10_AGING</t>
+          <t>32413_1300_4_M10_23311_T0915_AGING</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O83" s="3" t="n">
@@ -5929,38 +5929,38 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
-        <v>45793.125</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45795.625</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>32470_23311_1300_T0915_4_M11_AGING</t>
+          <t>25296_1300_4_M11_20700_None_AGING</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1300</v>
       </c>
       <c r="J84" t="n">
-        <v>230.0848757541671</v>
+        <v>0</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5970,16 +5970,77 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O84" s="3" t="n">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" s="2" t="n">
+        <v>45793.8125</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45797.97916666666</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>32470_1300_4_M11_23311_T0915_AGING</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>['SW1251003601']</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>32470</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J85" t="n">
+        <v>230</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>T0915</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O85" s="3" t="n">
+        <v>4.166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6078,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="3">
@@ -6093,25 +6154,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="D3" t="n">
-        <v>10.29</v>
+        <v>12.09</v>
       </c>
       <c r="E3" t="n">
-        <v>3270</v>
+        <v>3360</v>
       </c>
       <c r="F3" t="n">
-        <v>62.29</v>
+        <v>61.54</v>
       </c>
       <c r="G3" t="n">
         <v>1440</v>
       </c>
       <c r="H3" t="n">
-        <v>27.43</v>
+        <v>26.37</v>
       </c>
       <c r="I3" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="4">
@@ -6129,13 +6190,13 @@
         <v>870</v>
       </c>
       <c r="D4" t="n">
-        <v>16.57</v>
+        <v>15.93</v>
       </c>
       <c r="E4" t="n">
-        <v>1530</v>
+        <v>1650</v>
       </c>
       <c r="F4" t="n">
-        <v>29.14</v>
+        <v>30.22</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6144,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="5">
@@ -6159,10 +6220,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>810</v>
+        <v>570</v>
       </c>
       <c r="D5" t="n">
-        <v>15.43</v>
+        <v>10.44</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6174,10 +6235,10 @@
         <v>1440</v>
       </c>
       <c r="H5" t="n">
-        <v>27.43</v>
+        <v>26.37</v>
       </c>
       <c r="I5" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="6">
@@ -6192,25 +6253,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1080</v>
+        <v>1110</v>
       </c>
       <c r="D6" t="n">
-        <v>20.57</v>
+        <v>20.33</v>
       </c>
       <c r="E6" t="n">
         <v>270</v>
       </c>
       <c r="F6" t="n">
-        <v>5.14</v>
+        <v>4.95</v>
       </c>
       <c r="G6" t="n">
-        <v>1020</v>
+        <v>1170</v>
       </c>
       <c r="H6" t="n">
-        <v>19.43</v>
+        <v>21.43</v>
       </c>
       <c r="I6" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="7">
@@ -6243,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="8">
@@ -6276,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="9">
@@ -6309,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="10">
@@ -6342,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="11">
@@ -6375,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="12">
@@ -6408,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="13">
@@ -6441,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5250</v>
+        <v>5460</v>
       </c>
     </row>
   </sheetData>
@@ -6551,7 +6612,7 @@
         <v>45931</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.1875</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6675,7 +6736,7 @@
         <v>45957</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45795.02083333334</v>
+        <v>45795</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -6768,7 +6829,7 @@
         <v>45961</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -6799,7 +6860,7 @@
         <v>45964</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -6830,7 +6891,7 @@
         <v>45964</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45792.5625</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -6861,7 +6922,7 @@
         <v>45964</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.0625</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -6892,7 +6953,7 @@
         <v>45964</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45792.875</v>
+        <v>45793.5625</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -6923,7 +6984,7 @@
         <v>45964</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45793.79166666666</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -6954,7 +7015,7 @@
         <v>45964</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45792.625</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -6985,7 +7046,7 @@
         <v>45964</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.89583333334</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -7016,7 +7077,7 @@
         <v>45964</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45793.125</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -7047,7 +7108,7 @@
         <v>45964</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -7078,7 +7139,7 @@
         <v>45965</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.8125</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -7109,7 +7170,7 @@
         <v>45965</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45793.25</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -7140,7 +7201,7 @@
         <v>45965</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -7171,7 +7232,7 @@
         <v>45965</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.8125</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -7202,7 +7263,7 @@
         <v>45965</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45795.64583333334</v>
+        <v>45795.79166666666</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -7223,7 +7284,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.6875</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -7244,7 +7305,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v>45794.97916666666</v>
+        <v>45794.9375</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -7266,7 +7327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7548,10 +7609,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.5</v>
       </c>
       <c r="E6" t="n">
         <v>120</v>
@@ -7598,10 +7659,10 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.5</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="E7" t="n">
         <v>120</v>
@@ -7648,10 +7709,10 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.625</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.66666666666</v>
       </c>
       <c r="E8" t="n">
         <v>60</v>
@@ -7698,10 +7759,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.6875</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E9" t="n">
         <v>120</v>
@@ -7748,10 +7809,10 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.875</v>
       </c>
       <c r="E10" t="n">
         <v>120</v>
@@ -7798,10 +7859,10 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793</v>
       </c>
       <c r="E11" t="n">
         <v>120</v>
@@ -7848,10 +7909,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.125</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E12" t="n">
         <v>120</v>
@@ -7874,12 +7935,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>공정변경(안료→투명), 배합액변경</t>
+          <t>공정변경(안료→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -7898,42 +7959,42 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45793.125</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.25</v>
       </c>
       <c r="E13" t="n">
-        <v>510</v>
+        <v>60</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H13" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>23311</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>23.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -7948,13 +8009,13 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>45794.72916666666</v>
       </c>
       <c r="E14" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -7962,14 +8023,14 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H14" t="n">
-        <v>1740</v>
+        <v>1980</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -7979,11 +8040,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="15">
@@ -8101,10 +8162,10 @@
         <v>45794.85416666666</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45794.9375</v>
+        <v>45794.91666666666</v>
       </c>
       <c r="E17" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -8115,7 +8176,7 @@
         <v>60</v>
       </c>
       <c r="H17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -8133,7 +8194,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="18">
@@ -8148,24 +8209,24 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45794.97916666666</v>
+        <v>45794.9375</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45795.02083333334</v>
+        <v>45795</v>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>60</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -8183,7 +8244,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="19">
@@ -8198,13 +8259,13 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45795.02083333334</v>
+        <v>45795</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45795.625</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="E19" t="n">
-        <v>870</v>
+        <v>1110</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -8215,7 +8276,7 @@
         <v>60</v>
       </c>
       <c r="H19" t="n">
-        <v>810</v>
+        <v>1050</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -8233,7 +8294,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="20">
@@ -8248,13 +8309,13 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.1875</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>45792.39583333334</v>
       </c>
       <c r="E20" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -8265,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -8301,10 +8362,10 @@
         <v>45792.45833333334</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E21" t="n">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -8315,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -8348,13 +8409,13 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.5625</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.625</v>
       </c>
       <c r="E22" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -8365,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -8398,13 +8459,13 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.625</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -8415,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -8448,13 +8509,13 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45793.125</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -8465,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -8498,13 +8559,13 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45793.3125</v>
       </c>
       <c r="E25" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -8515,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -8548,13 +8609,13 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="E26" t="n">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -8565,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -8589,51 +8650,51 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45793.5625</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.125</v>
+        <v>45793.72916666666</v>
       </c>
       <c r="E27" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8648,10 +8709,10 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.125</v>
       </c>
       <c r="E28" t="n">
         <v>120</v>
@@ -8698,10 +8759,10 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.25</v>
       </c>
       <c r="E29" t="n">
         <v>120</v>
@@ -8748,10 +8809,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="E30" t="n">
         <v>120</v>
@@ -8798,10 +8859,10 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.375</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E31" t="n">
         <v>120</v>
@@ -8848,10 +8909,10 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E32" t="n">
         <v>120</v>
@@ -8898,10 +8959,10 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.625</v>
       </c>
       <c r="E33" t="n">
         <v>120</v>
@@ -8948,10 +9009,10 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45792.8125</v>
       </c>
       <c r="E34" t="n">
         <v>120</v>
@@ -8998,10 +9059,10 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45792.8125</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="E35" t="n">
         <v>120</v>
@@ -9024,12 +9085,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>공정변경(안료→염료), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -9048,10 +9109,10 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.0625</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
@@ -9069,17 +9130,17 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
           <t>20300</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>20300</t>
-        </is>
-      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(안료→염료), 배합액변경</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -9098,10 +9159,10 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
@@ -9148,10 +9209,10 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.3125</v>
       </c>
       <c r="E38" t="n">
         <v>120</v>
@@ -9189,22 +9250,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45793.3125</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.10416666666</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -9212,24 +9273,24 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -9248,13 +9309,13 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.0625</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.10416666666</v>
       </c>
       <c r="E40" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -9262,24 +9323,24 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -9298,24 +9359,24 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
+        <v>45792.14583333334</v>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>45792.22916666666</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>45792.27083333334</v>
-      </c>
       <c r="E41" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H41" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -9329,11 +9390,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -9348,24 +9409,24 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.25</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E42" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -9374,16 +9435,16 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9398,42 +9459,42 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.29166666666</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.375</v>
       </c>
       <c r="E43" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H43" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
           <t>20702</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>20706</t>
-        </is>
-      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -9448,10 +9509,10 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E44" t="n">
         <v>60</v>
@@ -9469,7 +9530,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -9479,7 +9540,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -9498,13 +9559,13 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="E45" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -9512,24 +9573,24 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>20705</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -9548,42 +9609,42 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.625</v>
       </c>
       <c r="E46" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9598,42 +9659,42 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.625</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="E47" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>60</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>20705</t>
-        </is>
-      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>배합액변경</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
@@ -9648,13 +9709,13 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="E48" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -9662,24 +9723,24 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
           <t>20705</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -9698,42 +9759,42 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.8125</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E49" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H49" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -9748,42 +9809,42 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.25</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E50" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>60</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="51">
@@ -9798,10 +9859,10 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793</v>
       </c>
       <c r="E51" t="n">
         <v>60</v>
@@ -9819,17 +9880,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -9848,13 +9909,13 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45793.375</v>
+        <v>45793.0625</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="E52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -9862,24 +9923,24 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR)</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -9898,41 +9959,191 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.25</v>
       </c>
       <c r="E53" t="n">
+        <v>60</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>60</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45793.41666666666</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45793.5</v>
+      </c>
+      <c r="E54" t="n">
         <v>120</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>순수셋업</t>
         </is>
       </c>
-      <c r="G53" t="n">
+      <c r="G54" t="n">
         <v>120</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr">
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>공정변경(투명→SR), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45793.625</v>
+      </c>
+      <c r="E55" t="n">
+        <v>60</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>60</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45793.72916666666</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45793.8125</v>
+      </c>
+      <c r="E56" t="n">
+        <v>120</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>120</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>공정변경(투명→SR)</t>
         </is>
       </c>
-      <c r="L53" t="n">
+      <c r="L56" t="n">
         <v>100</v>
       </c>
     </row>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.5</v>
+        <v>109</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.32</v>
+        <v>12.61</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1088,21 +1088,21 @@
         <v>45792.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_23311_T0915|T01362</t>
+          <t>25441_1300_4_M11_20700_T0873</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1113,17 +1113,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>T0915|T01362</t>
+          <t>T0873</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1147,27 +1147,27 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.5</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.5</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>31772_1300_4_M10_23100_T01226|W2060</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['SW1251002101']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31772</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1178,17 +1178,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>T01226|W2060</t>
+          <t>T0915|T01362</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>WINDSHIELD 보호필름(점착개선)</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1218,42 +1218,42 @@
         <v>45792.58333333334</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>32556_1300_4_M10_20710_T01020</t>
+          <t>31772_1300_4_M10_23100_T01226|W2060</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['SW1250908901, SW1251001801']</t>
+          <t>['SW1251002101']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1300</v>
       </c>
       <c r="J11" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>T01020</t>
+          <t>T01226|W2060</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1280,31 +1280,31 @@
         <v>45792.58333333334</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>31772_1300_4_M10_20710_T01020</t>
+          <t>32556_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['SW1251002101']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>31772</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1300</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1313,12 +1313,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>WINDSHIELD 보호필름(점착개선)</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="O12" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1342,48 +1342,48 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45792.66666666666</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.625</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>32556_1300_4_M10_23100_T01226</t>
+          <t>31772_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['SW1250908901, SW1251001801']</t>
+          <t>['SW1251002101']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1300</v>
       </c>
       <c r="J13" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>T01226</t>
+          <t>T01020</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="O13" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -1407,48 +1407,48 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.66666666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20902_T02295</t>
+          <t>32556_1300_4_M10_23100_T01226</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1300</v>
       </c>
       <c r="J14" t="n">
-        <v>580</v>
+        <v>360</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>T02295</t>
+          <t>T01226</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1472,48 +1472,48 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20902_T02390|T02293</t>
+          <t>32470_1300_4_M11_23311_T0915</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1300</v>
       </c>
       <c r="J15" t="n">
-        <v>990</v>
+        <v>230</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>T02390|T02293</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="O15" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1537,38 +1537,38 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45793</v>
+        <v>45792.875</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45793.125</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20902_W2082|T02498</t>
+          <t>31600_1300_4_M11_20902_T02295</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1300</v>
       </c>
       <c r="J16" t="n">
-        <v>3880</v>
+        <v>580</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>W2082|T02498</t>
+          <t>T02295</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="O16" s="3" t="n">
-        <v>0.125</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -1602,27 +1602,27 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20700_T0873</t>
+          <t>32016_1300_4_M11_20902_W2039|T02496</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1633,17 +1633,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>T0873</t>
+          <t>W2039|T02496</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1667,48 +1667,48 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45793.25</v>
+        <v>45794.72916666666</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45794.75</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_23311_T0915</t>
+          <t>32571_1300_4_M3_12400_T01713</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1300</v>
       </c>
       <c r="J18" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T01713</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1732,48 +1732,48 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45794.72916666666</v>
+        <v>45794.8125</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45794.75</v>
+        <v>45794.8125</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_12400_T01713</t>
+          <t>32041_1300_4_M10_12400_T01576</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['SW1250212001']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>32571</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1300</v>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T01713</t>
+          <t>T01576</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2025-03-24']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="O19" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1807,17 +1807,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>32041_1300_4_M10_12400_T01576</t>
+          <t>32413_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['SW1250911401']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1828,17 +1828,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>T01576</t>
+          <t>T01288|T01715</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1862,34 +1862,34 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45794.8125</v>
+        <v>45794.83333333334</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45794.8125</v>
+        <v>45794.85416666666</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_12400_T01288|T01715</t>
+          <t>31704_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['SW1251002001']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1300</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1898,12 +1898,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="O21" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -1927,48 +1927,48 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45794.83333333334</v>
+        <v>45794.91666666666</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45794.85416666666</v>
+        <v>45794.9375</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>31704_1300_4_M10_12400_T01288|T01715</t>
+          <t>32453_1300_4_M10_12400_T02244</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['SW1250911101']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>31704</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1300</v>
       </c>
       <c r="J22" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>T01288|T01715</t>
+          <t>T02244</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['2025-10-28']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA(WHITE)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1992,48 +1992,48 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45794.91666666666</v>
+        <v>45795</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45794.9375</v>
+        <v>45795</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_12400_T02244</t>
+          <t>31722_1300_4_M10_12400_T01716|T01362</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['SW1251002401, SW1250911402']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1300</v>
       </c>
       <c r="J23" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>T02244</t>
+          <t>T01716|T01362</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="O23" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2057,48 +2057,48 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45795</v>
+        <v>45795.29166666666</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45795</v>
+        <v>45795.3125</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_12400_T01716|T01362</t>
+          <t>32470_1300_4_M11_12400_T01521</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1300</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>T01716|T01362</t>
+          <t>T01521</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2107,63 +2107,63 @@
         </is>
       </c>
       <c r="O24" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>코팅1호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45795.77083333334</v>
+        <v>45792.14583333334</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45795.79166666666</v>
+        <v>45792.1875</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_12400_T01521</t>
+          <t>31739_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1300</v>
       </c>
       <c r="J25" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>T01521</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="O25" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="26">
@@ -2187,34 +2187,34 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20906_None</t>
+          <t>30260_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1300</v>
       </c>
       <c r="J26" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="O26" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="27">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2317,34 +2317,34 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45793</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20906_None</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1300</v>
       </c>
       <c r="J28" t="n">
-        <v>160</v>
+        <v>940</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2353,12 +2353,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="O28" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="29">
@@ -2382,34 +2382,34 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45793</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20906_None</t>
+          <t>32018_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1300</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -2447,34 +2447,34 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45793.0625</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20906_None</t>
+          <t>32016_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1300</v>
       </c>
       <c r="J30" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="O30" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2512,27 +2512,27 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45792.625</v>
+        <v>45793.1875</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45792.625</v>
+        <v>45793.1875</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20906_None</t>
+          <t>32019_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2577,27 +2577,27 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20906_None</t>
+          <t>32267_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2642,34 +2642,34 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.6875</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20906_None</t>
+          <t>32363_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1300</v>
       </c>
       <c r="J33" t="n">
-        <v>570</v>
+        <v>1810</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="O33" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="34">
@@ -2707,34 +2707,34 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.75</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20906_None</t>
+          <t>31600_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1300</v>
       </c>
       <c r="J34" t="n">
-        <v>940</v>
+        <v>570</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2772,34 +2772,34 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.91666666666</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45794.0625</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20906_None</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1300</v>
       </c>
       <c r="J35" t="n">
-        <v>1810</v>
+        <v>3320</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="O35" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="36">
@@ -2837,34 +2837,34 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45794.10416666666</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45794.27083333334</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20906_None</t>
+          <t>32265_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1300</v>
       </c>
       <c r="J36" t="n">
-        <v>3320</v>
+        <v>3640</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2887,63 +2887,63 @@
         </is>
       </c>
       <c r="O36" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45792</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45793.89583333334</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20906_None</t>
+          <t>31739_1300_4_M10_20902_T02600|W2032</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1300</v>
       </c>
       <c r="J37" t="n">
-        <v>3640</v>
+        <v>860</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02600|W2032</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="O37" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="38">
@@ -2967,48 +2967,48 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45792</v>
+        <v>45792.125</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20902_T02600|W2032</t>
+          <t>30234_1300_4_M10_20902_T02560</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1300</v>
       </c>
       <c r="J38" t="n">
-        <v>860</v>
+        <v>660</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>T02600|W2032</t>
+          <t>T02560</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3032,38 +3032,38 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.25</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20902_T02560</t>
+          <t>30260_1300_4_M10_20902_T02089</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1300</v>
       </c>
       <c r="J39" t="n">
-        <v>660</v>
+        <v>160</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>T02560</t>
+          <t>T02089</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="O39" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="40">
@@ -3097,48 +3097,48 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20902_T02089</t>
+          <t>25296_1300_4_M11_20300_T02668</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1300</v>
       </c>
       <c r="J40" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>T02089</t>
+          <t>T02668</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="O40" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3162,48 +3162,48 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.4375</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.4375</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20902_T02507|T02320</t>
+          <t>25441_1300_4_M11_20300_T02606</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1300</v>
       </c>
       <c r="J41" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>T02507|T02320</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="O41" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3227,27 +3227,27 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20902_W2039|T02496</t>
+          <t>26300_1300_4_M11_20300_T02624</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3258,17 +3258,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>W2039|T02496</t>
+          <t>T02624</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3292,27 +3292,27 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20902_t02604|W2051</t>
+          <t>27870_1300_4_M11_20300_T02670</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3323,17 +3323,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>t02604|W2051</t>
+          <t>T02670</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3357,38 +3357,38 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.6875</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.75</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20902_T02619|T02326</t>
+          <t>31602_1300_4_M11_20902_T02390|T02293</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1300</v>
       </c>
       <c r="J44" t="n">
-        <v>1940</v>
+        <v>990</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>T02619|T02326</t>
+          <t>T02390|T02293</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="O44" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="45">
@@ -3422,38 +3422,38 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20902_T02508|T02321</t>
+          <t>32018_1300_4_M11_20902_T02507|T02320</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1300</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>T02508|T02321</t>
+          <t>T02507|T02320</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -3487,38 +3487,38 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.9375</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20902_T02319</t>
+          <t>32265_1300_4_M11_20902_W2082|T02498</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1300</v>
       </c>
       <c r="J46" t="n">
-        <v>3430</v>
+        <v>3880</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>T02319</t>
+          <t>W2082|T02498</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3552,27 +3552,27 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.1875</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.1875</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20300_T02606</t>
+          <t>32019_1300_4_M11_20902_T02508|T02321</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3583,17 +3583,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>T02508|T02321</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3617,27 +3617,27 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20300_T02624</t>
+          <t>32267_1300_4_M11_20902_t02604|W2051</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -3648,17 +3648,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>T02624</t>
+          <t>t02604|W2051</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3682,48 +3682,48 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20300_T02670</t>
+          <t>32363_1300_4_M11_20902_T02619|T02326</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1300</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>T02670</t>
+          <t>T02619|T02326</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="O49" s="3" t="n">
-        <v>0</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="50">
@@ -3747,48 +3747,48 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20300_T02668</t>
+          <t>32017_1300_4_M11_20902_T02319</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1300</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>3430</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>T02668</t>
+          <t>T02319</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="O50" s="3" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="51">
@@ -4075,45 +4075,45 @@
         <v>45792.375</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.375</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20702_T02150</t>
+          <t>25296_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1300</v>
       </c>
       <c r="J55" t="n">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>T02150</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="O55" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -4137,10 +4137,10 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
+        <v>45792.375</v>
+      </c>
+      <c r="D56" s="2" t="n">
         <v>45792.39583333334</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>45792.41666666666</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
@@ -4202,48 +4202,48 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E57" t="n">
         <v>3</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
+          <t>30234_1300_4_M10_20702_T02150</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1300</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>W2053|WRF065</t>
+          <t>T02150</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="O57" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="58">
@@ -4267,27 +4267,27 @@
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20706_T02149|W1817</t>
+          <t>26300_1300_4_M11_20700_T02149</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4298,17 +4298,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4332,48 +4332,48 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20706_T02149</t>
+          <t>27870_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1300</v>
       </c>
       <c r="J59" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="O59" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -4397,38 +4397,38 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.75</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20500_WRF065</t>
+          <t>31602_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1300</v>
       </c>
       <c r="J60" t="n">
-        <v>260</v>
+        <v>970</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="O60" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="61">
@@ -4462,38 +4462,38 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.875</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20500_WRF065</t>
+          <t>32018_1300_4_M11_20706_T02149</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1300</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="O61" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="62">
@@ -4527,38 +4527,38 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20702_T02150|W1818</t>
+          <t>31602_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1300</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="O62" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="63">
@@ -4592,38 +4592,38 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20706_W1817</t>
+          <t>32018_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1300</v>
       </c>
       <c r="J63" t="n">
-        <v>1900</v>
+        <v>260</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>W1817</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="O63" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="64">
@@ -4657,38 +4657,38 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45793.0625</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20705_W2027|W1912</t>
+          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1300</v>
       </c>
       <c r="J64" t="n">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>W2053|WRF065</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="O64" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4722,27 +4722,27 @@
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20500_WRF065</t>
+          <t>32016_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4787,38 +4787,38 @@
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20706_T02149|W1817</t>
+          <t>32265_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1300</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="O66" s="3" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="67">
@@ -4852,38 +4852,38 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45793.1875</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20705_W2027|W1912</t>
+          <t>32019_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1300</v>
       </c>
       <c r="J67" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="O67" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4917,38 +4917,38 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45793</v>
+        <v>45793.1875</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.1875</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20500_WRF065</t>
+          <t>32019_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1300</v>
       </c>
       <c r="J68" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="O68" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4982,34 +4982,34 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20500_WRF065</t>
+          <t>32267_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1300</v>
       </c>
       <c r="J69" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="O69" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -5047,38 +5047,38 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20706_None</t>
+          <t>32267_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1300</v>
       </c>
       <c r="J70" t="n">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="O70" s="3" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -5112,48 +5112,48 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.3125</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20700_T02149</t>
+          <t>31600_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1300</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="O71" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -5177,17 +5177,17 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.5</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20500_WRF065</t>
+          <t>32363_1300_4_M11_20706_W1817</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5204,11 +5204,11 @@
         <v>1300</v>
       </c>
       <c r="J72" t="n">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>W1817</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="O72" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="73">
@@ -5242,34 +5242,34 @@
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20500_WRF065</t>
+          <t>32363_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1300</v>
       </c>
       <c r="J73" t="n">
-        <v>3360</v>
+        <v>1850</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="O73" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="74">
@@ -5307,38 +5307,38 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.6875</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20702_T02150|W1818</t>
+          <t>31600_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1300</v>
       </c>
       <c r="J74" t="n">
-        <v>3800</v>
+        <v>570</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="O74" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="75">
@@ -5372,38 +5372,38 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45793.625</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20500_WRF065</t>
+          <t>32017_1300_4_M11_20706_None</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1300</v>
       </c>
       <c r="J75" t="n">
-        <v>3710</v>
+        <v>3400</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="O75" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="76">
@@ -5440,45 +5440,45 @@
         <v>45793.8125</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45793.91666666666</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20700_None</t>
+          <t>32017_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1300</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>3360</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="O76" s="3" t="n">
-        <v>0</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="77">
@@ -5502,48 +5502,48 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45794</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45794.10416666666</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20700_None</t>
+          <t>32265_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1300</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="O77" s="3" t="n">
-        <v>0</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="78">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.375</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>45794.91666666666</v>
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="O82" s="3" t="n">
-        <v>2.5</v>
+        <v>2.541666666666667</v>
       </c>
     </row>
     <row r="83">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>45795</v>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="O83" s="3" t="n">
-        <v>2.5</v>
+        <v>2.583333333333333</v>
       </c>
     </row>
     <row r="84">
@@ -5929,10 +5929,10 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45792.5</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45795.77083333334</v>
+        <v>45795.29166666666</v>
       </c>
       <c r="E84" t="n">
         <v>3</v>
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="O84" s="3" t="n">
-        <v>2.5</v>
+        <v>2.791666666666667</v>
       </c>
     </row>
     <row r="85">
@@ -5990,10 +5990,10 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45797.97916666666</v>
+        <v>45796.54166666666</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="O85" s="3" t="n">
-        <v>4.166666666666667</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="3">
@@ -6154,25 +6154,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>660</v>
+        <v>420</v>
       </c>
       <c r="D3" t="n">
-        <v>12.09</v>
+        <v>8.81</v>
       </c>
       <c r="E3" t="n">
-        <v>3360</v>
+        <v>2970</v>
       </c>
       <c r="F3" t="n">
-        <v>61.54</v>
+        <v>62.26</v>
       </c>
       <c r="G3" t="n">
-        <v>1440</v>
+        <v>1380</v>
       </c>
       <c r="H3" t="n">
-        <v>26.37</v>
+        <v>28.93</v>
       </c>
       <c r="I3" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="4">
@@ -6190,13 +6190,13 @@
         <v>870</v>
       </c>
       <c r="D4" t="n">
-        <v>15.93</v>
+        <v>18.24</v>
       </c>
       <c r="E4" t="n">
-        <v>1650</v>
+        <v>2190</v>
       </c>
       <c r="F4" t="n">
-        <v>30.22</v>
+        <v>45.91</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="5">
@@ -6220,10 +6220,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>570</v>
+        <v>900</v>
       </c>
       <c r="D5" t="n">
-        <v>10.44</v>
+        <v>18.87</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6232,13 +6232,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1440</v>
+        <v>1560</v>
       </c>
       <c r="H5" t="n">
-        <v>26.37</v>
+        <v>32.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="6">
@@ -6256,22 +6256,22 @@
         <v>1110</v>
       </c>
       <c r="D6" t="n">
-        <v>20.33</v>
+        <v>23.27</v>
       </c>
       <c r="E6" t="n">
-        <v>270</v>
+        <v>900</v>
       </c>
       <c r="F6" t="n">
-        <v>4.95</v>
+        <v>18.87</v>
       </c>
       <c r="G6" t="n">
-        <v>1170</v>
+        <v>960</v>
       </c>
       <c r="H6" t="n">
-        <v>21.43</v>
+        <v>20.13</v>
       </c>
       <c r="I6" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="7">
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="8">
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="9">
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="10">
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="11">
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="12">
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="13">
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5460</v>
+        <v>4770</v>
       </c>
     </row>
   </sheetData>
@@ -6674,7 +6674,7 @@
         <v>45951</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>45951</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>45964</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>45964</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>45964</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.75</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>45964</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45794.0625</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45964</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.6875</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45964</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45792.625</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45964</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45793.89583333334</v>
+        <v>45794.27083333334</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45964</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45964</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45793.0625</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>45965</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45792.375</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45965</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45793.25</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>45965</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45792.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>45965</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>45965</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45795.79166666666</v>
+        <v>45795.3125</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7619,14 +7619,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H6" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -7635,16 +7635,16 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -7785,12 +7785,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>공정변경(투명→안료), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -7830,17 +7830,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>20902</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>20902</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→안료), 배합액변경</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -7859,10 +7859,10 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45793</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="E11" t="n">
         <v>120</v>
@@ -7909,24 +7909,24 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45793.125</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45794.72916666666</v>
       </c>
       <c r="E12" t="n">
-        <v>120</v>
+        <v>2520</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>120</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="13">
@@ -7959,42 +7959,42 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45794.75</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45793.25</v>
+        <v>45794.8125</v>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>60</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="14">
@@ -8009,28 +8009,28 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45794.8125</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45794.72916666666</v>
+        <v>45794.83333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>2100</v>
+        <v>30</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1980</v>
+        <v>30</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -8040,11 +8040,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8059,10 +8059,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45794.75</v>
+        <v>45794.85416666666</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45794.8125</v>
+        <v>45794.91666666666</v>
       </c>
       <c r="E15" t="n">
         <v>90</v>
@@ -8109,21 +8109,21 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45794.8125</v>
+        <v>45794.9375</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45794.83333333334</v>
+        <v>45795</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H16" t="n">
         <v>30</v>
@@ -8140,11 +8140,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="17">
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45794.85416666666</v>
+        <v>45795</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45794.91666666666</v>
+        <v>45795.29166666666</v>
       </c>
       <c r="E17" t="n">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>60</v>
       </c>
       <c r="H17" t="n">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -8194,107 +8194,107 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>66.7</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>코팅1호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45794.9375</v>
+        <v>45792.1875</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45795</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>코팅1호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45795</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45795.77083333334</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="E19" t="n">
-        <v>1110</v>
+        <v>720</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1050</v>
+        <v>720</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -8309,13 +8309,13 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45793.0625</v>
       </c>
       <c r="E20" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -8359,13 +8359,13 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45793.0625</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -8409,13 +8409,13 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45793.1875</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45792.625</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E22" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -8459,13 +8459,13 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45792.625</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E23" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -8509,13 +8509,13 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.6875</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="E24" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -8559,13 +8559,13 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.75</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.91666666666</v>
       </c>
       <c r="E25" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -8609,13 +8609,13 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45794.0625</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45794.10416666666</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -8650,51 +8650,51 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45792.125</v>
       </c>
       <c r="E27" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H27" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -8709,10 +8709,10 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.25</v>
       </c>
       <c r="E28" t="n">
         <v>120</v>
@@ -8759,10 +8759,10 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="E29" t="n">
         <v>120</v>
@@ -8785,12 +8785,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(안료→염료), 배합액변경</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -8809,10 +8809,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.4375</v>
       </c>
       <c r="E30" t="n">
         <v>120</v>
@@ -8830,12 +8830,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -8859,10 +8859,10 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.4375</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="E31" t="n">
         <v>120</v>
@@ -8880,12 +8880,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -8909,10 +8909,10 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="E32" t="n">
         <v>120</v>
@@ -8930,12 +8930,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -8959,10 +8959,10 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.6875</v>
       </c>
       <c r="E33" t="n">
         <v>120</v>
@@ -8980,17 +8980,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
           <t>20902</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>20902</t>
-        </is>
-      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(염료→안료), 배합액변경</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -9009,10 +9009,10 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.75</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E34" t="n">
         <v>120</v>
@@ -9059,10 +9059,10 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.9375</v>
       </c>
       <c r="E35" t="n">
         <v>120</v>
@@ -9109,10 +9109,10 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.1875</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
@@ -9135,12 +9135,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>공정변경(안료→염료), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -9159,10 +9159,10 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.1875</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
@@ -9180,12 +9180,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -9209,10 +9209,10 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="E38" t="n">
         <v>120</v>
@@ -9230,12 +9230,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -9259,10 +9259,10 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="E39" t="n">
         <v>120</v>
@@ -9280,12 +9280,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -9485,12 +9485,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>공정변경(투명→SR)</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -9512,21 +9512,21 @@
         <v>45792.41666666666</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="E44" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>60</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -9535,16 +9535,16 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -9559,42 +9559,42 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>60</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -9609,33 +9609,33 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.75</v>
       </c>
       <c r="E46" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H46" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="47">
@@ -9659,13 +9659,13 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E47" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -9676,11 +9676,11 @@
         <v>60</v>
       </c>
       <c r="H47" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -9694,7 +9694,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>40</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="48">
@@ -9709,13 +9709,13 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.875</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -9735,12 +9735,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -9759,28 +9759,28 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -9790,11 +9790,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -9809,24 +9809,24 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="E50" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>60</v>
       </c>
       <c r="H50" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -9844,7 +9844,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -9859,28 +9859,28 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45793.1875</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E51" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>60</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
@@ -9909,13 +9909,13 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.3125</v>
       </c>
       <c r="E52" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -9923,24 +9923,24 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -9959,42 +9959,42 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="E53" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G53" t="n">
         <v>60</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="54">
@@ -10009,13 +10009,13 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45793.5</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="E54" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -10023,24 +10023,24 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>20702</t>
-        </is>
-      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -10059,28 +10059,28 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45793.625</v>
+        <v>45793.6875</v>
       </c>
       <c r="E55" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -10090,11 +10090,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10109,13 +10109,13 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>45793.8125</v>
       </c>
       <c r="E56" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -10123,28 +10123,78 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>공정변경(SR→투명)</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45793.91666666666</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="E57" t="n">
+        <v>120</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>120</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.61</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1088,21 +1088,21 @@
         <v>45792.5</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20700_T0873</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1113,17 +1113,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>T0873</t>
+          <t>T0915|T01362</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1147,27 +1147,27 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_23311_T0915|T01362</t>
+          <t>31772_1300_4_M10_23100_T01226|W2060</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1251002101']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1178,17 +1178,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>T0915|T01362</t>
+          <t>T01226|W2060</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1218,42 +1218,42 @@
         <v>45792.58333333334</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>31772_1300_4_M10_23100_T01226|W2060</t>
+          <t>32556_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['SW1251002101']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>31772</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1300</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>T01226|W2060</t>
+          <t>T01020</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>WINDSHIELD 보호필름(점착개선)</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1280,31 +1280,31 @@
         <v>45792.58333333334</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.625</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>32556_1300_4_M10_20710_T01020</t>
+          <t>31772_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['SW1250908901, SW1251001801']</t>
+          <t>['SW1251002101']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1300</v>
       </c>
       <c r="J12" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1313,12 +1313,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="O12" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -1342,48 +1342,48 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.66666666666</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.6875</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>31772_1300_4_M10_20710_T01020</t>
+          <t>32556_1300_4_M10_23100_T01226</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['SW1251002101']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>31772</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1300</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>T01020</t>
+          <t>T01226</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>WINDSHIELD 보호필름(점착개선)</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="O13" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -1407,48 +1407,48 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45792.66666666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>32556_1300_4_M10_23100_T01226</t>
+          <t>25441_1300_4_M11_20700_T0873</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['SW1250908901, SW1251001801']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1300</v>
       </c>
       <c r="J14" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>T01226</t>
+          <t>T0873</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="O14" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1475,35 +1475,35 @@
         <v>45792.77083333334</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_23311_T0915</t>
+          <t>25441_1300_4_M11_20300_T02606</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1300</v>
       </c>
       <c r="J15" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="O15" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1537,48 +1537,48 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
+        <v>45792.85416666666</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <v>45792.875</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>45792.89583333334</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20902_T02295</t>
+          <t>32470_1300_4_M11_23311_T0915</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1300</v>
       </c>
       <c r="J16" t="n">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>T02295</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1602,48 +1602,48 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45794.72916666666</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45794.75</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20902_W2039|T02496</t>
+          <t>32571_1300_4_M3_12400_T01713</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1300</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>W2039|T02496</t>
+          <t>T01713</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="O17" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -1667,48 +1667,48 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45794.72916666666</v>
+        <v>45794.8125</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45794.75</v>
+        <v>45794.8125</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_12400_T01713</t>
+          <t>32041_1300_4_M10_12400_T01576</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['SW1250212001']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>32571</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1300</v>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T01713</t>
+          <t>T01576</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['2025-03-24']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="O18" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1742,17 +1742,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>32041_1300_4_M10_12400_T01576</t>
+          <t>32413_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['SW1250911401']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1763,17 +1763,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T01576</t>
+          <t>T01288|T01715</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1797,34 +1797,34 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45794.8125</v>
+        <v>45794.85416666666</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45794.8125</v>
+        <v>45794.875</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_12400_T01288|T01715</t>
+          <t>31704_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['SW1251002001']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1300</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1833,12 +1833,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="O20" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -1862,48 +1862,48 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45794.83333333334</v>
+        <v>45794.91666666666</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45794.85416666666</v>
+        <v>45794.9375</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>31704_1300_4_M10_12400_T01288|T01715</t>
+          <t>32453_1300_4_M10_12400_T02244</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['SW1250911101']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>31704</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1300</v>
       </c>
       <c r="J21" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>T01288|T01715</t>
+          <t>T02244</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2025-10-28']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA(WHITE)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1927,48 +1927,48 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45794.91666666666</v>
+        <v>45795</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45794.9375</v>
+        <v>45795</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_12400_T02244</t>
+          <t>31722_1300_4_M10_12400_T01716|T01362</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['SW1251002401, SW1250911402']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1300</v>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>T02244</t>
+          <t>T01716|T01362</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="O22" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1992,48 +1992,48 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45795</v>
+        <v>45795.375</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45795</v>
+        <v>45795.39583333334</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_12400_T01716|T01362</t>
+          <t>32470_1300_4_M11_12400_T01521</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1300</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>T01716|T01362</t>
+          <t>T01521</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2042,63 +2042,63 @@
         </is>
       </c>
       <c r="O23" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>코팅1호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45795.29166666666</v>
+        <v>45792.14583333334</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45795.3125</v>
+        <v>45792.1875</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_12400_T01521</t>
+          <t>31739_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1300</v>
       </c>
       <c r="J24" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>T01521</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="O24" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="25">
@@ -2122,34 +2122,34 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.4375</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20906_None</t>
+          <t>30234_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1300</v>
       </c>
       <c r="J25" t="n">
-        <v>800</v>
+        <v>630</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.4375</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2252,34 +2252,34 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20906_None</t>
+          <t>31600_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1300</v>
       </c>
       <c r="J27" t="n">
-        <v>630</v>
+        <v>570</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2317,34 +2317,34 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45793</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20906_None</t>
+          <t>32019_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1300</v>
       </c>
       <c r="J28" t="n">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="O28" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2382,34 +2382,34 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45793</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.125</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20906_None</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1300</v>
       </c>
       <c r="J29" t="n">
-        <v>250</v>
+        <v>3320</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -2447,34 +2447,34 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.125</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20906_None</t>
+          <t>32018_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1300</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="O30" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -2512,27 +2512,27 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20906_None</t>
+          <t>32267_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2577,27 +2577,27 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20906_None</t>
+          <t>32016_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.5</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2707,34 +2707,34 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45793.6875</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.75</v>
+        <v>45793.85416666666</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20906_None</t>
+          <t>32265_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1300</v>
       </c>
       <c r="J34" t="n">
-        <v>570</v>
+        <v>3640</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -2772,34 +2772,34 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.91666666666</v>
+        <v>45794</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45794.0625</v>
+        <v>45794.04166666666</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20906_None</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1300</v>
       </c>
       <c r="J35" t="n">
-        <v>3320</v>
+        <v>940</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2822,63 +2822,63 @@
         </is>
       </c>
       <c r="O35" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45794.10416666666</v>
+        <v>45792</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45794.27083333334</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20906_None</t>
+          <t>31739_1300_4_M10_20902_T02600|W2032</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1300</v>
       </c>
       <c r="J36" t="n">
-        <v>3640</v>
+        <v>860</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02600|W2032</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="O36" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="37">
@@ -2902,48 +2902,48 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45792</v>
+        <v>45792.125</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20902_T02600|W2032</t>
+          <t>30234_1300_4_M10_20902_T02560</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1300</v>
       </c>
       <c r="J37" t="n">
-        <v>860</v>
+        <v>660</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>T02600|W2032</t>
+          <t>T02560</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2967,38 +2967,38 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.25</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20902_T02560</t>
+          <t>30260_1300_4_M10_20902_T02089</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1300</v>
       </c>
       <c r="J38" t="n">
-        <v>660</v>
+        <v>160</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>T02560</t>
+          <t>T02089</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="O38" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="39">
@@ -3032,48 +3032,48 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20902_T02089</t>
+          <t>31600_1300_4_M11_20902_T02295</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1300</v>
       </c>
       <c r="J39" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>T02089</t>
+          <t>T02295</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="O39" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="40">
@@ -3097,48 +3097,48 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20300_T02668</t>
+          <t>32017_1300_4_M11_20902_T02319</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1300</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3430</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>T02668</t>
+          <t>T02319</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="O40" s="3" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -3162,48 +3162,48 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.75</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20300_T02606</t>
+          <t>32018_1300_4_M11_20902_T02507|T02320</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1300</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>T02507|T02320</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="O41" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -3227,27 +3227,27 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20300_T02624</t>
+          <t>32019_1300_4_M11_20902_T02508|T02321</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3258,17 +3258,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>T02624</t>
+          <t>T02508|T02321</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3292,48 +3292,48 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20300_T02670</t>
+          <t>32265_1300_4_M11_20902_W2082|T02498</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1300</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3880</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>T02670</t>
+          <t>W2082|T02498</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="O43" s="3" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="44">
@@ -3357,38 +3357,38 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.75</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20902_T02390|T02293</t>
+          <t>32267_1300_4_M11_20902_t02604|W2051</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1300</v>
       </c>
       <c r="J44" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>T02390|T02293</t>
+          <t>t02604|W2051</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="O44" s="3" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3422,38 +3422,38 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45793.25</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20902_T02507|T02320</t>
+          <t>32363_1300_4_M11_20902_T02619|T02326</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1300</v>
       </c>
       <c r="J45" t="n">
-        <v>270</v>
+        <v>1940</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>T02507|T02320</t>
+          <t>T02619|T02326</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="46">
@@ -3487,38 +3487,38 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45793.4375</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.4375</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20902_W2082|T02498</t>
+          <t>32016_1300_4_M11_20902_W2039|T02496</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1300</v>
       </c>
       <c r="J46" t="n">
-        <v>3880</v>
+        <v>0</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>W2082|T02498</t>
+          <t>W2039|T02496</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="O46" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3552,38 +3552,38 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.52083333334</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20902_T02508|T02321</t>
+          <t>31602_1300_4_M11_20902_T02390|T02293</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1300</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>T02508|T02321</t>
+          <t>T02390|T02293</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="O47" s="3" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="48">
@@ -3617,27 +3617,27 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20902_t02604|W2051</t>
+          <t>26300_1300_4_M11_20300_T02624</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -3648,17 +3648,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>t02604|W2051</t>
+          <t>T02624</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3682,48 +3682,48 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.75</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.75</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20902_T02619|T02326</t>
+          <t>27870_1300_4_M11_20300_T02670</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1300</v>
       </c>
       <c r="J49" t="n">
-        <v>1940</v>
+        <v>0</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>T02619|T02326</t>
+          <t>T02670</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="O49" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3747,48 +3747,48 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20902_T02319</t>
+          <t>25296_1300_4_M11_20300_T02668</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1300</v>
       </c>
       <c r="J50" t="n">
-        <v>3430</v>
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>T02319</t>
+          <t>T02668</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="O50" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4075,45 +4075,45 @@
         <v>45792.375</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20700_None</t>
+          <t>30234_1300_4_M10_20702_T02150</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1300</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02150</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="O55" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="56">
@@ -4137,10 +4137,10 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
@@ -4202,48 +4202,48 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20702_T02150</t>
+          <t>31600_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1300</v>
       </c>
       <c r="J57" t="n">
-        <v>640</v>
+        <v>580</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>T02150</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4270,45 +4270,45 @@
         <v>45792.52083333334</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20700_T02149</t>
+          <t>31600_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1300</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="O58" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="59">
@@ -4332,34 +4332,34 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20700_None</t>
+          <t>32017_1300_4_M11_20706_None</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1300</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="O59" s="3" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="60">
@@ -4400,35 +4400,35 @@
         <v>45792.75</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20705_W2027|W1912</t>
+          <t>32018_1300_4_M11_20706_T02149</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1300</v>
       </c>
       <c r="J60" t="n">
-        <v>970</v>
+        <v>260</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="O60" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -4462,38 +4462,38 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20706_T02149</t>
+          <t>32019_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1300</v>
       </c>
       <c r="J61" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="O61" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4527,38 +4527,38 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20500_WRF065</t>
+          <t>32019_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1300</v>
       </c>
       <c r="J62" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="O62" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.875</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>45792.97916666666</v>
@@ -4602,24 +4602,24 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20500_WRF065</t>
+          <t>32017_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1300</v>
       </c>
       <c r="J63" t="n">
-        <v>260</v>
+        <v>3360</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="O63" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="64">
@@ -4657,38 +4657,38 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
+          <t>32018_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1300</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>W2053|WRF065</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="O64" s="3" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="65">
@@ -4722,38 +4722,38 @@
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20706_T02149|W1817</t>
+          <t>32265_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1300</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="O65" s="3" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="66">
@@ -4787,34 +4787,34 @@
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20702_T02150|W1818</t>
+          <t>32267_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1300</v>
       </c>
       <c r="J66" t="n">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="O66" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4852,27 +4852,27 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20500_WRF065</t>
+          <t>32267_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -4917,38 +4917,38 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E68" t="n">
         <v>2</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20706_T02149|W1817</t>
+          <t>32363_1300_4_M11_20706_W1817</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1300</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>W1817</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="O68" s="3" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="69">
@@ -4982,27 +4982,27 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20500_WRF065</t>
+          <t>32016_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5047,27 +5047,27 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20702_T02150|W1818</t>
+          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>W2053|WRF065</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5112,38 +5112,38 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.4375</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.5</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20705_W2027|W1912</t>
+          <t>32363_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1300</v>
       </c>
       <c r="J71" t="n">
-        <v>580</v>
+        <v>1850</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="O71" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="72">
@@ -5177,38 +5177,38 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.6875</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20706_W1817</t>
+          <t>32265_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1300</v>
       </c>
       <c r="J72" t="n">
-        <v>1900</v>
+        <v>3710</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>W1817</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="O72" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="73">
@@ -5242,48 +5242,48 @@
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20500_WRF065</t>
+          <t>26300_1300_4_M11_20700_T02149</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1300</v>
       </c>
       <c r="J73" t="n">
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="O73" s="3" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -5307,48 +5307,48 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20500_WRF065</t>
+          <t>27870_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1300</v>
       </c>
       <c r="J74" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="O74" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -5372,34 +5372,34 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45793.77083333334</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20706_None</t>
+          <t>25296_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1300</v>
       </c>
       <c r="J75" t="n">
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -5408,12 +5408,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="O75" s="3" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -5437,38 +5437,38 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45793.875</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>45793.91666666666</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20500_WRF065</t>
+          <t>31602_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1300</v>
       </c>
       <c r="J76" t="n">
-        <v>3360</v>
+        <v>970</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="O76" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="77">
@@ -5502,34 +5502,34 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
+        <v>45793.95833333334</v>
+      </c>
+      <c r="D77" s="2" t="n">
         <v>45794</v>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>45794.10416666666</v>
       </c>
       <c r="E77" t="n">
         <v>3</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20500_WRF065</t>
+          <t>31602_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1300</v>
       </c>
       <c r="J77" t="n">
-        <v>3710</v>
+        <v>960</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="O77" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="78">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>45794.91666666666</v>
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="O82" s="3" t="n">
-        <v>2.541666666666667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="83">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.5</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>45795</v>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="O83" s="3" t="n">
-        <v>2.583333333333333</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="84">
@@ -5929,38 +5929,38 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.875</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45795.29166666666</v>
+        <v>45795.375</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20700_None_AGING</t>
+          <t>32470_1300_4_M11_23311_T0915_AGING</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1300</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -5979,7 +5979,7 @@
         </is>
       </c>
       <c r="O84" s="3" t="n">
-        <v>2.791666666666667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="85">
@@ -5990,38 +5990,38 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45796.54166666666</v>
+        <v>45798</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_23311_T0915_AGING</t>
+          <t>25296_1300_4_M11_20700_None_AGING</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1300</v>
       </c>
       <c r="J85" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="O85" s="3" t="n">
-        <v>3.75</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="3">
@@ -6154,25 +6154,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="D3" t="n">
-        <v>8.81</v>
+        <v>7.98</v>
       </c>
       <c r="E3" t="n">
-        <v>2970</v>
+        <v>3360</v>
       </c>
       <c r="F3" t="n">
-        <v>62.26</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>1380</v>
+        <v>1140</v>
       </c>
       <c r="H3" t="n">
-        <v>28.93</v>
+        <v>23.31</v>
       </c>
       <c r="I3" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="4">
@@ -6190,13 +6190,13 @@
         <v>870</v>
       </c>
       <c r="D4" t="n">
-        <v>18.24</v>
+        <v>17.79</v>
       </c>
       <c r="E4" t="n">
-        <v>2190</v>
+        <v>1860</v>
       </c>
       <c r="F4" t="n">
-        <v>45.91</v>
+        <v>38.04</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="5">
@@ -6220,10 +6220,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="D5" t="n">
-        <v>18.87</v>
+        <v>19.63</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6232,13 +6232,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1560</v>
+        <v>1680</v>
       </c>
       <c r="H5" t="n">
-        <v>32.7</v>
+        <v>34.36</v>
       </c>
       <c r="I5" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="6">
@@ -6256,22 +6256,22 @@
         <v>1110</v>
       </c>
       <c r="D6" t="n">
-        <v>23.27</v>
+        <v>22.7</v>
       </c>
       <c r="E6" t="n">
-        <v>900</v>
+        <v>390</v>
       </c>
       <c r="F6" t="n">
-        <v>18.87</v>
+        <v>7.98</v>
       </c>
       <c r="G6" t="n">
-        <v>960</v>
+        <v>1320</v>
       </c>
       <c r="H6" t="n">
-        <v>20.13</v>
+        <v>26.99</v>
       </c>
       <c r="I6" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="7">
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="8">
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="9">
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="10">
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="11">
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="12">
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="13">
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4770</v>
+        <v>4890</v>
       </c>
     </row>
   </sheetData>
@@ -6674,7 +6674,7 @@
         <v>45951</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>45951</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.4375</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45958</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45794.85416666666</v>
+        <v>45794.875</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>45964</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>45964</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>45964</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45793.75</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>45964</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45794.0625</v>
+        <v>45793.125</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45964</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45964</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45964</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45794.27083333334</v>
+        <v>45793.85416666666</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>45964</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45793</v>
+        <v>45794.04166666666</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45964</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.4375</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>45965</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45792.375</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45965</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>45965</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>45965</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>45965</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45795.3125</v>
+        <v>45795.39583333334</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7619,15 +7619,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>120</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>23311</t>
@@ -7635,16 +7635,16 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7785,12 +7785,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -7809,10 +7809,10 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E10" t="n">
         <v>120</v>
@@ -7830,17 +7830,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>23311</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>20902</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>공정변경(투명→안료), 배합액변경</t>
+          <t>공정변경(염료→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -7859,42 +7859,42 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.875</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45794.72916666666</v>
       </c>
       <c r="E11" t="n">
-        <v>120</v>
+        <v>2670</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>120</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12">
@@ -7909,13 +7909,13 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45794.75</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45794.72916666666</v>
+        <v>45794.8125</v>
       </c>
       <c r="E12" t="n">
-        <v>2520</v>
+        <v>90</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -7923,14 +7923,14 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>2400</v>
+        <v>30</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -7940,11 +7940,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>공정변경(안료→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4.8</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="13">
@@ -7959,25 +7959,25 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45794.75</v>
+        <v>45794.8125</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45794.8125</v>
+        <v>45794.85416666666</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>60</v>
       </c>
-      <c r="H13" t="n">
-        <v>30</v>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>12400</t>
@@ -7990,11 +7990,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>66.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -8009,24 +8009,24 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45794.8125</v>
+        <v>45794.875</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45794.83333333334</v>
+        <v>45794.91666666666</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H14" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -8040,11 +8040,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -8059,10 +8059,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45794.85416666666</v>
+        <v>45794.9375</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45794.91666666666</v>
+        <v>45795</v>
       </c>
       <c r="E15" t="n">
         <v>90</v>
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45794.9375</v>
+        <v>45795</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45795</v>
+        <v>45795.375</v>
       </c>
       <c r="E16" t="n">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>60</v>
       </c>
       <c r="H16" t="n">
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -8144,57 +8144,57 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>66.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>코팅1호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45795</v>
+        <v>45792.1875</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45795.29166666666</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="E17" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -8209,13 +8209,13 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45792.39583333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E18" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -8259,13 +8259,13 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -8309,13 +8309,13 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -8359,13 +8359,13 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E21" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -8409,13 +8409,13 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -8459,13 +8459,13 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.5</v>
       </c>
       <c r="E23" t="n">
-        <v>480</v>
+        <v>90</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>480</v>
+        <v>90</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -8509,13 +8509,13 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>45793.6875</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>45793.70833333334</v>
-      </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -8559,13 +8559,13 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45793.75</v>
+        <v>45793.85416666666</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45793.91666666666</v>
+        <v>45794</v>
       </c>
       <c r="E25" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -8600,51 +8600,51 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45794.0625</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45794.10416666666</v>
+        <v>45792.125</v>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H26" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.25</v>
       </c>
       <c r="E27" t="n">
         <v>120</v>
@@ -8709,10 +8709,10 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="E28" t="n">
         <v>120</v>
@@ -8759,10 +8759,10 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.39583333334</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E29" t="n">
         <v>120</v>
@@ -8785,12 +8785,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>공정변경(안료→염료), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -8809,10 +8809,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="E30" t="n">
         <v>120</v>
@@ -8830,12 +8830,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -8859,10 +8859,10 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.75</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E31" t="n">
         <v>120</v>
@@ -8880,12 +8880,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -8909,10 +8909,10 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E32" t="n">
         <v>120</v>
@@ -8930,12 +8930,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -8959,10 +8959,10 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="E33" t="n">
         <v>120</v>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>공정변경(염료→안료), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -9009,10 +9009,10 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45792.75</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45793.25</v>
       </c>
       <c r="E34" t="n">
         <v>120</v>
@@ -9059,10 +9059,10 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45793.4375</v>
       </c>
       <c r="E35" t="n">
         <v>120</v>
@@ -9109,10 +9109,10 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.4375</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.52083333334</v>
       </c>
       <c r="E36" t="n">
         <v>120</v>
@@ -9159,10 +9159,10 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="E37" t="n">
         <v>120</v>
@@ -9185,12 +9185,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(안료→염료), 배합액변경</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -9209,10 +9209,10 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.75</v>
       </c>
       <c r="E38" t="n">
         <v>120</v>
@@ -9230,12 +9230,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -9259,10 +9259,10 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.75</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="E39" t="n">
         <v>120</v>
@@ -9280,12 +9280,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -9485,12 +9485,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -9512,21 +9512,21 @@
         <v>45792.41666666666</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E44" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>60</v>
       </c>
       <c r="H44" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -9559,42 +9559,42 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
+        <v>45792.47916666666</v>
+      </c>
+      <c r="D45" s="2" t="n">
         <v>45792.52083333334</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>45792.60416666666</v>
-      </c>
       <c r="E45" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>60</v>
       </c>
       <c r="H45" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
@@ -9609,13 +9609,13 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E46" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -9623,28 +9623,28 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H46" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(투명→SR)</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>28.6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -9659,28 +9659,28 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.75</v>
       </c>
       <c r="E47" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>60</v>
       </c>
       <c r="H47" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -9690,11 +9690,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -9709,24 +9709,24 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E48" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>60</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="49">
@@ -9759,42 +9759,42 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45792.875</v>
       </c>
       <c r="E49" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H49" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -9809,13 +9809,13 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="E50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -9823,14 +9823,14 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -9840,7 +9840,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -9859,28 +9859,28 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E51" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>60</v>
       </c>
       <c r="H51" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -9909,42 +9909,42 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="E52" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>100</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="53">
@@ -9959,28 +9959,28 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="E53" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G53" t="n">
         <v>60</v>
       </c>
       <c r="H53" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -9994,7 +9994,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>33.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -10012,25 +10012,25 @@
         <v>45793.5</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="E54" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -10040,11 +10040,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -10059,24 +10059,24 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.6875</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="E55" t="n">
         <v>120</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H55" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -10085,16 +10085,16 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -10112,39 +10112,39 @@
         <v>45793.77083333334</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="E56" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명)</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10159,42 +10159,92 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
+        <v>45793.83333333334</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45793.875</v>
+      </c>
+      <c r="E57" t="n">
+        <v>60</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>60</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
         <v>45793.91666666666</v>
       </c>
-      <c r="D57" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="E57" t="n">
-        <v>120</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>순수대기</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>120</v>
-      </c>
-      <c r="I57" t="inlineStr">
+      <c r="D58" s="2" t="n">
+        <v>45793.95833333334</v>
+      </c>
+      <c r="E58" t="n">
+        <v>60</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>60</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>변경없음(대기)</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>78</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>313.46</v>
+        <v>24.68</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,57 +618,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.02083333334</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20906_None</t>
+          <t>32571_1300_4_M3_23312_T01639</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I2" t="n">
         <v>1300</v>
       </c>
       <c r="J2" t="n">
-        <v>3320</v>
+        <v>180</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T01639</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -677,63 +677,63 @@
         </is>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.0625</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20906_None</t>
+          <t>32571_1300_4_M3_23316_T01640</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1300</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T01640</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -748,57 +748,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.125</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.14583333334</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20906_None</t>
+          <t>32571_1300_4_M3_20500_T01514</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1300</v>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T01514</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -813,57 +813,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.1875</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20906_None</t>
+          <t>32041_1300_4_M10_20500_T0915</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1300</v>
       </c>
       <c r="J5" t="n">
-        <v>1810</v>
+        <v>160</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -872,63 +872,63 @@
         </is>
       </c>
       <c r="O5" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20906_None</t>
+          <t>31704_1300_4_M10_23311_T01521|T0915</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1300</v>
       </c>
       <c r="J6" t="n">
-        <v>3640</v>
+        <v>110</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T01521|T0915</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -937,63 +937,63 @@
         </is>
       </c>
       <c r="O6" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45792.25</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20906_None</t>
+          <t>32413_1300_4_M10_23311_T0915</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1300</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1008,57 +1008,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45792</v>
+        <v>45792.25</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20902_T02319</t>
+          <t>32453_1300_4_M10_23311_T0915|T02098</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1300</v>
       </c>
       <c r="J8" t="n">
-        <v>3430</v>
+        <v>300</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>T02319</t>
+          <t>T0915|T02098</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1067,63 +1067,63 @@
         </is>
       </c>
       <c r="O8" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.3125</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20902_T02507|T02320</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1300</v>
       </c>
       <c r="J9" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>T02507|T02320</t>
+          <t>T0915|T01362</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1138,57 +1138,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.375</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20902_T02508|T02321</t>
+          <t>32556_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1300</v>
       </c>
       <c r="J10" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>T02508|T02321</t>
+          <t>T01020</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1197,63 +1197,63 @@
         </is>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.4375</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20902_W2082|T02498</t>
+          <t>31772_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1251002101']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1300</v>
       </c>
       <c r="J11" t="n">
-        <v>3880</v>
+        <v>360</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>W2082|T02498</t>
+          <t>T01020</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1262,63 +1262,63 @@
         </is>
       </c>
       <c r="O11" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20902_t02604|W2051</t>
+          <t>32556_1300_4_M10_23100_T01226</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1300</v>
       </c>
       <c r="J12" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>t02604|W2051</t>
+          <t>T01226</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1333,57 +1333,57 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20902_T02619|T02326</t>
+          <t>31772_1300_4_M10_23100_T01226|W2060</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1251002101']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1300</v>
       </c>
       <c r="J13" t="n">
-        <v>1940</v>
+        <v>350</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>T02619|T02326</t>
+          <t>T01226|W2060</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1392,63 +1392,63 @@
         </is>
       </c>
       <c r="O13" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20500_WRF065</t>
+          <t>25441_1300_4_M11_20300_T02606</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1300</v>
       </c>
       <c r="J14" t="n">
-        <v>3710</v>
+        <v>2490</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1457,63 +1457,63 @@
         </is>
       </c>
       <c r="O14" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.6875</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20500_WRF065</t>
+          <t>25441_1300_4_M11_20700_T0873</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1300</v>
       </c>
       <c r="J15" t="n">
-        <v>320</v>
+        <v>2440</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T0873</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1522,53 +1522,53 @@
         </is>
       </c>
       <c r="O15" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20300_T02668</t>
+          <t>32470_1300_4_M11_23311_T0915</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1300</v>
       </c>
       <c r="J16" t="n">
-        <v>2440</v>
+        <v>230</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>T02668</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1587,63 +1587,63 @@
         </is>
       </c>
       <c r="O16" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45794.64583333334</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45794.66666666666</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20300_T02606</t>
+          <t>32571_1300_4_M3_12400_T01713</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>1300</v>
       </c>
       <c r="J17" t="n">
-        <v>2490</v>
+        <v>150</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>T01713</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1652,63 +1652,63 @@
         </is>
       </c>
       <c r="O17" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45793.125</v>
+        <v>45794.70833333334</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45794.72916666666</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20300_T02624</t>
+          <t>32041_1300_4_M10_12400_T01576</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1300</v>
       </c>
       <c r="J18" t="n">
-        <v>2480</v>
+        <v>150</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T02624</t>
+          <t>T01576</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1717,63 +1717,63 @@
         </is>
       </c>
       <c r="O18" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45794.75</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45794.77083333334</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20300_T02670</t>
+          <t>32413_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1300</v>
       </c>
       <c r="J19" t="n">
-        <v>2460</v>
+        <v>150</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T02670</t>
+          <t>T01288|T01715</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1782,63 +1782,63 @@
         </is>
       </c>
       <c r="O19" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45794.77083333334</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45794.79166666666</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20706_None</t>
+          <t>32453_1300_4_M10_12400_T02244</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1300</v>
       </c>
       <c r="J20" t="n">
-        <v>3400</v>
+        <v>300</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02244</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1847,63 +1847,63 @@
         </is>
       </c>
       <c r="O20" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45792.25</v>
+        <v>45794.8125</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45794.83333333334</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20706_T02149</t>
+          <t>31704_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1300</v>
       </c>
       <c r="J21" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>T01288|T01715</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1918,57 +1918,57 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45794.85416666666</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45794.875</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20706_T02149|W1817</t>
+          <t>31722_1300_4_M10_12400_T01716|T01362</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1300</v>
       </c>
       <c r="J22" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>T01716|T01362</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1983,57 +1983,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45795.22916666666</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45795.25</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20500_WRF065</t>
+          <t>32470_1300_4_M11_12400_T01521</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1300</v>
       </c>
       <c r="J23" t="n">
-        <v>3360</v>
+        <v>230</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T01521</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2042,63 +2042,63 @@
         </is>
       </c>
       <c r="O23" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.125</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20500_WRF065</t>
+          <t>31739_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1300</v>
       </c>
       <c r="J24" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2107,63 +2107,63 @@
         </is>
       </c>
       <c r="O24" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.3125</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20500_WRF065</t>
+          <t>30234_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1300</v>
       </c>
       <c r="J25" t="n">
-        <v>260</v>
+        <v>630</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2172,63 +2172,63 @@
         </is>
       </c>
       <c r="O25" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.3125</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20702_T02150|W1818</t>
+          <t>30260_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1300</v>
       </c>
       <c r="J26" t="n">
-        <v>3800</v>
+        <v>160</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2237,53 +2237,53 @@
         </is>
       </c>
       <c r="O26" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.5</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20702_T02150|W1818</t>
+          <t>31600_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1300</v>
       </c>
       <c r="J27" t="n">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2302,53 +2302,53 @@
         </is>
       </c>
       <c r="O27" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.5</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20706_W1817</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1300</v>
       </c>
       <c r="J28" t="n">
-        <v>1900</v>
+        <v>940</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>W1817</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2373,47 +2373,47 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.625</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20500_WRF065</t>
+          <t>32016_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1300</v>
       </c>
       <c r="J29" t="n">
-        <v>1850</v>
+        <v>320</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2432,49 +2432,49 @@
         </is>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20700_None</t>
+          <t>32018_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1300</v>
       </c>
       <c r="J30" t="n">
-        <v>2420</v>
+        <v>250</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2483,12 +2483,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2497,63 +2497,63 @@
         </is>
       </c>
       <c r="O30" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45793.25</v>
+        <v>45792.875</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20700_T02149</t>
+          <t>32019_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1300</v>
       </c>
       <c r="J31" t="n">
-        <v>2440</v>
+        <v>310</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2562,72 +2562,3424 @@
         </is>
       </c>
       <c r="O31" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20700_None</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1300</v>
       </c>
       <c r="J32" t="n">
+        <v>3320</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45793.3125</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45793.39583333334</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>32363_1300_4_M11_20906_None</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['SW1250904707']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>32363</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1810</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45793.39583333334</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45793.5625</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>32265_1300_4_M11_20906_None</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['SW1250904703']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>32265</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3640</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45793.5625</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>32267_1300_4_M11_20906_None</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['SW1250904705']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J35" t="n">
+        <v>310</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45792.04166666666</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>31739_1300_4_M10_20902_T02600|W2032</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['SW1250806608']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>31739</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J36" t="n">
+        <v>860</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>T02600|W2032</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>['2025-10-01']</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45792.08333333334</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45792.125</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>30234_1300_4_M10_20902_T02560</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['SW1250905625']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>30234</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J37" t="n">
+        <v>660</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>T02560</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S7 3470</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45792.1875</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>30260_1300_4_M10_20902_T02089</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['SW1250905618']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>30260</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J38" t="n">
+        <v>160</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>T02089</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S9 1990</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45792.22916666666</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>31600_1300_4_M11_20902_T02295</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['SW1250906901']</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>31600</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J39" t="n">
+        <v>580</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>T02295</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45792.375</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>31602_1300_4_M11_20902_T02390|T02293</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['SW1250904701']</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>31602</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J40" t="n">
+        <v>990</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>T02390|T02293</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45792.41666666666</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>32016_1300_4_M11_20902_W2039|T02496</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['SW1250906902']</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>32016</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J41" t="n">
+        <v>330</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>W2039|T02496</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45792.47916666666</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45792.64583333334</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>32017_1300_4_M11_20902_T02319</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['SW1250904708']</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>32017</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3430</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>T02319</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45792.6875</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45792.70833333334</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>32018_1300_4_M11_20902_T02507|T02320</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['SW1250906903']</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>32018</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J43" t="n">
+        <v>270</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>T02507|T02320</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O43" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45792.75</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45792.77083333334</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>32019_1300_4_M11_20902_T02508|T02321</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['SW1250906904']</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>32019</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J44" t="n">
+        <v>330</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>T02508|T02321</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O44" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45792.8125</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45792.97916666666</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>32265_1300_4_M11_20902_W2082|T02498</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['SW1250904703']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>32265</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3880</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>W2082|T02498</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O45" s="3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45793.04166666666</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>32267_1300_4_M11_20902_t02604|W2051</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['SW1250904705']</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J46" t="n">
+        <v>320</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>t02604|W2051</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45793.08333333334</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45793.1875</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>32363_1300_4_M11_20902_T02619|T02326</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['SW1250904707']</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>32363</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1940</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>T02619|T02326</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O47" s="3" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45793.22916666666</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45793.33333333334</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>32265_1300_4_M11_20500_WRF065</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['SW1250904703']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>32265</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3710</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O48" s="3" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45793.33333333334</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45793.35416666666</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>32267_1300_4_M11_20500_WRF065</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['SW1250904705']</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J49" t="n">
+        <v>320</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O49" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45793.39583333334</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45793.45833333334</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>26300_1300_4_M11_20300_T02624</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['SW1250908609']</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>26300</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2480</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>T02624</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>SCF-NS-CS15</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O50" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45793.5</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45793.5625</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>27870_1300_4_M11_20300_T02670</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['SW1250908617']</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>27870</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2460</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>T02670</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>SCF-NS-LGN58</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O51" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45793.60416666666</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45793.66666666666</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>25296_1300_4_M11_20300_T02668</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['SW1250908604']</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>25296</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2440</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>T02668</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>SCF-NS-CG05</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O52" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45792.04166666666</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45792.0625</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>31739_1300_4_M10_20702_T02150|W1818</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['SW1250806608']</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>31739</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J53" t="n">
+        <v>840</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>T02150|W1818</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>['2025-10-01']</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O53" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45792.08333333334</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45792.125</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>31739_1300_4_M10_20500_WRF065</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['SW1250806608']</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>31739</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J54" t="n">
+        <v>820</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>['2025-10-01']</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45792.1875</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>30234_1300_4_M10_20500_W2010</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['SW1250905625']</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>30234</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J55" t="n">
+        <v>650</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>W2010</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S7 3470</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O55" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45792.1875</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45792.20833333334</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>30260_1300_4_M10_20500_WRF065|W2010</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['SW1250905618']</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>30260</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J56" t="n">
+        <v>160</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>WRF065|W2010</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S9 1990</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O56" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45792.25</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>30234_1300_4_M10_20702_T02150</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['SW1250905625']</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>30234</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J57" t="n">
+        <v>640</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>T02150</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S7 3470</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O57" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45792.29166666666</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>30260_1300_4_M10_20702_T02150|W1818</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['SW1250905618']</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>30260</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J58" t="n">
+        <v>160</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>T02150|W1818</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>['2025-10-21']</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Phantom(개선2)-ND-S9 1990</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O58" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45792.33333333334</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>31600_1300_4_M11_20705_W2027|W1912</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['SW1250906901']</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>31600</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J59" t="n">
+        <v>580</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>W2027|W1912</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O59" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45792.375</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45792.41666666666</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>31602_1300_4_M11_20705_W2027|W1912</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['SW1250904701']</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>31602</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J60" t="n">
+        <v>970</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>W2027|W1912</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O60" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45792.45833333334</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>31600_1300_4_M11_20500_WRF065</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['SW1250906901']</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>31600</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J61" t="n">
+        <v>570</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O61" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45792.45833333334</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45792.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>31602_1300_4_M11_20500_WRF065</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['SW1250904701']</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>31602</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J62" t="n">
+        <v>960</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O62" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45792.54166666666</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45792.5625</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>32016_1300_4_M11_20706_T02149|W1817</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['SW1250906902']</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>32016</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J63" t="n">
+        <v>330</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>T02149|W1817</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O63" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['SW1250906902']</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>32016</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J64" t="n">
+        <v>320</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>W2053|WRF065</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O64" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45792.64583333334</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45792.70833333334</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>32017_1300_4_M11_20706_None</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['SW1250904708']</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>32017</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O65" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45792.70833333334</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45792.72916666666</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>32018_1300_4_M11_20706_T02149</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['SW1250906903']</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>32018</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J66" t="n">
+        <v>260</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>T02149</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O66" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45792.77083333334</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45792.79166666666</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>32019_1300_4_M11_20706_T02149|W1817</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['SW1250906904']</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>32019</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J67" t="n">
+        <v>320</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>T02149|W1817</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O67" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45792.8125</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45792.83333333334</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>32018_1300_4_M11_20500_WRF065</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['SW1250906903']</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>32018</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J68" t="n">
+        <v>260</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O68" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45792.83333333334</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45792.85416666666</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>32019_1300_4_M11_20500_WRF065</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['SW1250906904']</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>32019</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J69" t="n">
+        <v>320</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O69" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45792.85416666666</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45792.95833333334</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>32017_1300_4_M11_20500_WRF065</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['SW1250904708']</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>32017</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3360</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O70" s="3" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45793.08333333334</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>32265_1300_4_M11_20702_T02150|W1818</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['SW1250904703']</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>32265</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>T02150|W1818</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O71" s="3" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45793.08333333334</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45793.10416666666</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>32267_1300_4_M11_20702_T02150|W1818</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['SW1250904705']</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>32267</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J72" t="n">
+        <v>320</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>T02150|W1818</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O72" s="3" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45793.1875</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45793.22916666666</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>32363_1300_4_M11_20706_W1817</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['SW1250904707']</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>32363</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>W1817</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O73" s="3" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45793.25</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45793.3125</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>32363_1300_4_M11_20500_WRF065</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['SW1250904707']</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>32363</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1850</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>WRF065</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>['2025-11-03']</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O74" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45793.45833333334</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45793.52083333334</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>26300_1300_4_M11_20700_T02149</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['SW1250908609']</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>26300</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2440</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>T02149</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>SCF-NS-CS15</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O75" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45793.5625</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45793.625</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>27870_1300_4_M11_20700_None</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['SW1250908617']</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>27870</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J76" t="n">
         <v>2430</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>['2025-11-04']</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>SCF-NS-LGN58</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>1300</t>
         </is>
       </c>
-      <c r="O32" s="3" t="n">
+      <c r="O76" s="3" t="n">
         <v>0.0625</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45793.66666666666</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45793.72916666666</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>25296_1300_4_M11_20700_None</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['SW1250908604']</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>25296</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2420</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>SCF-NS-CG05</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O77" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" s="2" t="n">
+        <v>45792.14583333334</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45794.64583333334</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>32571_1300_4_M3_20500_T01514_AGING</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['SW1250212001']</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>32571</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J78" t="n">
+        <v>160</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>T01514</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>['2025-03-24']</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O78" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" s="2" t="n">
+        <v>45792.20833333334</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45794.70833333334</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>32041_1300_4_M10_20500_T0915_AGING</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['SW1250911401']</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>32041</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J79" t="n">
+        <v>160</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>T0915</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>['2025-10-17']</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O79" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" s="2" t="n">
+        <v>45792.22916666666</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45794.72916666666</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>32453_1300_4_M10_23311_T0915|T02098_AGING</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['SW1251002401, SW1250911402']</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>32453</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J80" t="n">
+        <v>300</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>T0915|T02098</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>['2025-10-17']</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O80" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" s="2" t="n">
+        <v>45792.25</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45794.75</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>31722_1300_4_M10_23311_T0915|T01362_AGING</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>['SW1251001901']</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>31722</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J81" t="n">
+        <v>150</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>T0915|T01362</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>['2025-10-27']</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>PPF-NS-SGA N</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O81" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45794.77083333334</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>31704_1300_4_M10_23311_T01521|T0915_AGING</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['SW1250911101']</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>31704</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J82" t="n">
+        <v>110</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>T01521|T0915</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>['2025-10-28']</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>PPF-NS-TGA(WHITE)</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O82" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" s="2" t="n">
+        <v>45792.33333333334</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45794.83333333334</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>32413_1300_4_M10_23311_T0915_AGING</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['SW1251002001']</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>32413</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J83" t="n">
+        <v>160</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>T0915</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>['2025-10-31']</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>PPF-NS-TGA N (OP개선)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O83" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" s="2" t="n">
+        <v>45792.72916666666</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45795.22916666666</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>32470_1300_4_M11_23311_T0915_AGING</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['SW1251003601']</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>32470</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J84" t="n">
+        <v>230</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>T0915</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>['2025-11-04']</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O84" s="3" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="3">
@@ -2741,25 +6093,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21600</v>
+        <v>780</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>16.67</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3270</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>69.87</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>13.46</v>
       </c>
       <c r="I3" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="4">
@@ -2774,16 +6126,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>660</v>
+        <v>960</v>
       </c>
       <c r="D4" t="n">
-        <v>3.06</v>
+        <v>20.51</v>
       </c>
       <c r="E4" t="n">
-        <v>300</v>
+        <v>1140</v>
       </c>
       <c r="F4" t="n">
-        <v>1.39</v>
+        <v>24.36</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2792,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="5">
@@ -2807,10 +6159,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1260</v>
+        <v>1500</v>
       </c>
       <c r="D5" t="n">
-        <v>5.83</v>
+        <v>32.05</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2819,13 +6171,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H5" t="n">
-        <v>2.78</v>
+        <v>19.23</v>
       </c>
       <c r="I5" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="6">
@@ -2840,25 +6192,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>930</v>
+        <v>1380</v>
       </c>
       <c r="D6" t="n">
-        <v>4.31</v>
+        <v>29.49</v>
       </c>
       <c r="E6" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H6" t="n">
-        <v>1.39</v>
+        <v>12.82</v>
       </c>
       <c r="I6" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="7">
@@ -2891,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="8">
@@ -2924,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="9">
@@ -2957,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="10">
@@ -2990,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="11">
@@ -3023,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="12">
@@ -3056,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="13">
@@ -3089,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21600</v>
+        <v>4680</v>
       </c>
     </row>
   </sheetData>
@@ -3167,14 +6519,16 @@
       <c r="D2" s="2" t="n">
         <v>45740</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" s="2" t="n">
+        <v>45794.66666666666</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>준수</t>
+          <t>지각</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>54.67</v>
       </c>
     </row>
     <row r="3">
@@ -3196,7 +6550,9 @@
       <c r="D3" s="2" t="n">
         <v>45931</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3225,7 +6581,9 @@
       <c r="D4" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" s="2" t="n">
+        <v>45794.72916666666</v>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3254,7 +6612,9 @@
       <c r="D5" s="2" t="n">
         <v>45951</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" s="2" t="n">
+        <v>45792.33333333334</v>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3283,7 +6643,9 @@
       <c r="D6" s="2" t="n">
         <v>45951</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3312,7 +6674,9 @@
       <c r="D7" s="2" t="n">
         <v>45957</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" s="2" t="n">
+        <v>45794.875</v>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3341,7 +6705,9 @@
       <c r="D8" s="2" t="n">
         <v>45958</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" s="2" t="n">
+        <v>45794.83333333334</v>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3370,7 +6736,9 @@
       <c r="D9" s="2" t="n">
         <v>45961</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" s="2" t="n">
+        <v>45794.77083333334</v>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3399,7 +6767,9 @@
       <c r="D10" s="2" t="n">
         <v>45961</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" s="2" t="n">
+        <v>45792.5</v>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3429,7 +6799,7 @@
         <v>45964</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.875</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -3460,7 +6830,7 @@
         <v>45964</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -3490,7 +6860,9 @@
       <c r="D13" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" s="2" t="n">
+        <v>45792.5</v>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3520,7 +6892,7 @@
         <v>45964</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3551,7 +6923,7 @@
         <v>45964</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3582,7 +6954,7 @@
         <v>45964</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3613,7 +6985,7 @@
         <v>45964</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.5625</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3643,7 +7015,9 @@
       <c r="D18" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" s="2" t="n">
+        <v>45792.54166666666</v>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3672,7 +7046,9 @@
       <c r="D19" s="2" t="n">
         <v>45964</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" s="2" t="n">
+        <v>45792.625</v>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3702,7 +7078,7 @@
         <v>45965</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.72916666666</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3733,7 +7109,7 @@
         <v>45965</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.52083333334</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -3764,7 +7140,7 @@
         <v>45965</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.6875</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -3795,7 +7171,7 @@
         <v>45965</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.625</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -3825,7 +7201,9 @@
       <c r="D24" s="2" t="n">
         <v>45965</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" s="2" t="n">
+        <v>45795.25</v>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3844,7 +7222,9 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" s="2" t="n">
+        <v>45792.47916666666</v>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3863,7 +7243,9 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" s="2" t="n">
+        <v>45794.79166666666</v>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>준수</t>
@@ -3884,7 +7266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3957,69 +7339,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.02083333334</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.0625</v>
       </c>
       <c r="E2" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>23312</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>23316</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.125</v>
       </c>
       <c r="E3" t="n">
         <v>60</v>
@@ -4037,17 +7419,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>23316</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(EPU→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -4057,19 +7439,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.14583333334</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.1875</v>
       </c>
       <c r="E4" t="n">
         <v>60</v>
@@ -4087,12 +7469,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -4107,69 +7489,69 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.3125</v>
       </c>
       <c r="E5" t="n">
         <v>60</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>60</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.375</v>
       </c>
       <c r="E6" t="n">
         <v>60</v>
@@ -4187,17 +7569,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20710</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -4207,22 +7589,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45792.4375</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4230,24 +7612,24 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20710</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -4257,19 +7639,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.5</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E8" t="n">
         <v>60</v>
@@ -4287,17 +7669,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>공정변경(안료→투명), 배합액변경</t>
+          <t>공정변경(투명→염료), 배합액변경</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -4307,19 +7689,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E9" t="n">
         <v>60</v>
@@ -4337,17 +7719,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>공정변경(투명→염료), 배합액변경</t>
+          <t>공정변경(염료→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -4357,22 +7739,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4380,24 +7762,24 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -4407,92 +7789,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45793.125</v>
+        <v>45794.64583333334</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>2760</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>60</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45794.66666666666</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45794.70833333334</v>
       </c>
       <c r="E12" t="n">
         <v>60</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -4501,25 +7883,25 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45794.72916666666</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45792.25</v>
+        <v>45794.75</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -4537,17 +7919,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -4557,69 +7939,69 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45794.79166666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45794.8125</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45794.83333333334</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45794.85416666666</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
@@ -4637,17 +8019,17 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -4657,242 +8039,242 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45794.875</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45795.22916666666</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>510</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>100</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="E19" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.625</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E20" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4901,57 +8283,1707 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45792.875</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45792.95833333334</v>
+      </c>
+      <c r="E21" t="n">
+        <v>120</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>120</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>코팅25호기_WIN</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45793.10416666666</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45793.3125</v>
+      </c>
+      <c r="E22" t="n">
+        <v>300</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>300</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20906</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45792.04166666666</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45792.08333333334</v>
+      </c>
+      <c r="E23" t="n">
+        <v>60</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>60</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45792.125</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>60</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45792.1875</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45792.22916666666</v>
+      </c>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>60</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
+      <c r="E26" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>60</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45792.375</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45792.41666666666</v>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>60</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45792.47916666666</v>
+      </c>
+      <c r="E28" t="n">
+        <v>60</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>60</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45792.64583333334</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45792.6875</v>
+      </c>
+      <c r="E29" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>60</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45792.70833333334</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45792.75</v>
+      </c>
+      <c r="E30" t="n">
+        <v>60</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>60</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45792.77083333334</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45792.8125</v>
+      </c>
+      <c r="E31" t="n">
+        <v>60</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>60</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45792.97916666666</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45793.02083333334</v>
+      </c>
+      <c r="E32" t="n">
+        <v>60</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>60</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45793.04166666666</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45793.08333333334</v>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>60</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45793.1875</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45793.22916666666</v>
+      </c>
+      <c r="E34" t="n">
+        <v>60</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>60</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>공정변경(안료→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45793.35416666666</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45793.39583333334</v>
+      </c>
+      <c r="E35" t="n">
+        <v>60</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>60</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>공정변경(투명→염료), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45793.45833333334</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45793.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>60</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>60</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>코팅26호기_WIN</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45793.5625</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45793.60416666666</v>
+      </c>
+      <c r="E37" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>60</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>C2270</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>코팅27호기_WIN</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45792.0625</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45792.08333333334</v>
+      </c>
+      <c r="E38" t="n">
+        <v>30</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>30</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45792.125</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="E39" t="n">
+        <v>60</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>60</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45792.20833333334</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45792.25</v>
+      </c>
+      <c r="E40" t="n">
+        <v>60</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>60</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>공정변경(투명→SR), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45792.29166666666</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45792.3125</v>
+      </c>
+      <c r="E41" t="n">
+        <v>30</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>30</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45792.33333333334</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45792.375</v>
+      </c>
+      <c r="E42" t="n">
+        <v>60</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>60</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45792.41666666666</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="E43" t="n">
+        <v>30</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>30</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45792.5</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45792.54166666666</v>
+      </c>
+      <c r="E44" t="n">
+        <v>60</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>60</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>공정변경(투명→SR), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45792.5625</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45792.58333333334</v>
+      </c>
+      <c r="E45" t="n">
+        <v>30</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45792.60416666666</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45792.64583333334</v>
+      </c>
+      <c r="E46" t="n">
+        <v>60</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>60</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>공정변경(투명→SR)</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45792.72916666666</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45792.77083333334</v>
+      </c>
+      <c r="E47" t="n">
+        <v>60</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>60</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45792.79166666666</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45792.8125</v>
+      </c>
+      <c r="E48" t="n">
+        <v>30</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>30</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45792.95833333334</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="E49" t="n">
+        <v>60</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>60</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>공정변경(투명→SR), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45793.10416666666</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45793.1875</v>
+      </c>
+      <c r="E50" t="n">
+        <v>120</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>30</v>
+      </c>
+      <c r="H50" t="n">
+        <v>90</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>배합액변경</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45793.22916666666</v>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>45793.25</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>45793.29166666666</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="E51" t="n">
+        <v>30</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>30</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>공정변경(SR→투명), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45793.3125</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45793.45833333334</v>
+      </c>
+      <c r="E52" t="n">
+        <v>210</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
         <v>60</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H52" t="n">
+        <v>150</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>공정변경(투명→SR), 배합액변경</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45793.52083333334</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45793.5625</v>
+      </c>
+      <c r="E53" t="n">
+        <v>60</v>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>혼합(셋업+대기)</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G53" t="n">
         <v>30</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H53" t="n">
         <v>30</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>변경없음(대기)</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="L53" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45793.625</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45793.66666666666</v>
+      </c>
+      <c r="E54" t="n">
+        <v>60</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>60</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.68</v>
+        <v>25.25</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45792</v>
+        <v>45793</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45792.02083333334</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45793.0625</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -757,10 +757,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45792.125</v>
+        <v>45793.125</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45793.1875</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45792.25</v>
+        <v>45793.25</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45792.25</v>
+        <v>45793.25</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1082,10 +1082,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45793.3125</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45792.375</v>
+        <v>45793.375</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45793.4375</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -1277,10 +1277,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45792.5</v>
+        <v>45793.5</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1407,17 +1407,17 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45793.5625</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20300_T02606</t>
+          <t>25441_1300_4_M11_20700_T0873</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1434,11 +1434,11 @@
         <v>1300</v>
       </c>
       <c r="J14" t="n">
-        <v>2490</v>
+        <v>2440</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>T0873</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="O14" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -1472,38 +1472,38 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45793.625</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20700_T0873</t>
+          <t>32470_1300_4_M11_23311_T0915</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1300</v>
       </c>
       <c r="J15" t="n">
-        <v>2440</v>
+        <v>230</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>T0873</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="O15" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1537,48 +1537,48 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45795.64583333334</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45795.66666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_23311_T0915</t>
+          <t>32571_1300_4_M3_12400_T01713</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1300</v>
       </c>
       <c r="J16" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T01713</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1602,27 +1602,27 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45794.64583333334</v>
+        <v>45795.70833333334</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45794.66666666666</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_12400_T01713</t>
+          <t>32041_1300_4_M10_12400_T01576</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['SW1250212001']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>32571</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1633,17 +1633,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>T01713</t>
+          <t>T01576</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['2025-03-24']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1667,27 +1667,27 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45794.70833333334</v>
+        <v>45795.75</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45794.72916666666</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>32041_1300_4_M10_12400_T01576</t>
+          <t>32413_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['SW1250911401']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1698,17 +1698,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T01576</t>
+          <t>T01288|T01715</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1732,48 +1732,48 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45794.75</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45794.77083333334</v>
+        <v>45795.79166666666</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_12400_T01288|T01715</t>
+          <t>32453_1300_4_M10_12400_T02244</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['SW1251002001']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1300</v>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T01288|T01715</t>
+          <t>T02244</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1797,48 +1797,48 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45794.77083333334</v>
+        <v>45795.83333333334</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45794.79166666666</v>
+        <v>45795.85416666666</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_12400_T02244</t>
+          <t>31722_1300_4_M10_12400_T01716|T01362</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['SW1251002401, SW1250911402']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1300</v>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>T02244</t>
+          <t>T01716|T01362</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1862,10 +1862,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45794.8125</v>
+        <v>45795.875</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45794.83333333334</v>
+        <v>45795.89583333334</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1927,48 +1927,48 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45794.85416666666</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45794.875</v>
+        <v>45796.16666666666</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_12400_T01716|T01362</t>
+          <t>32470_1300_4_M11_12400_T01521</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1300</v>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>T01716|T01362</t>
+          <t>T01521</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1983,57 +1983,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>코팅1호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45795.22916666666</v>
+        <v>45792.125</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45795.25</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_12400_T01521</t>
+          <t>31739_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1300</v>
       </c>
       <c r="J23" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>T01521</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="O23" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="24">
@@ -2057,34 +2057,34 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.3125</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20906_None</t>
+          <t>30234_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1300</v>
       </c>
       <c r="J24" t="n">
-        <v>800</v>
+        <v>630</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2093,12 +2093,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2122,34 +2122,34 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.3125</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20906_None</t>
+          <t>30260_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1300</v>
       </c>
       <c r="J25" t="n">
-        <v>630</v>
+        <v>160</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="O25" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -2187,34 +2187,34 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.5</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20906_None</t>
+          <t>31600_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1300</v>
       </c>
       <c r="J26" t="n">
-        <v>160</v>
+        <v>570</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="O26" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="27">
@@ -2252,34 +2252,34 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.5</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20906_None</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1300</v>
       </c>
       <c r="J27" t="n">
-        <v>570</v>
+        <v>940</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2317,34 +2317,34 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.625</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20906_None</t>
+          <t>32016_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1300</v>
       </c>
       <c r="J28" t="n">
-        <v>940</v>
+        <v>320</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="O28" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -2382,34 +2382,34 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.625</v>
+        <v>45793.0625</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20906_None</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1300</v>
       </c>
       <c r="J29" t="n">
-        <v>320</v>
+        <v>3320</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45793.0625</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45792.875</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2577,34 +2577,34 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45793.3125</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20906_None</t>
+          <t>32363_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1300</v>
       </c>
       <c r="J32" t="n">
-        <v>3320</v>
+        <v>1810</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -2642,34 +2642,34 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.5625</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20906_None</t>
+          <t>32265_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1300</v>
       </c>
       <c r="J33" t="n">
-        <v>1810</v>
+        <v>3640</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="O33" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="34">
@@ -2707,34 +2707,34 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.5625</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20906_None</t>
+          <t>32267_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1300</v>
       </c>
       <c r="J34" t="n">
-        <v>3640</v>
+        <v>310</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2757,63 +2757,63 @@
         </is>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45792</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20906_None</t>
+          <t>31739_1300_4_M10_20902_T02600|W2032</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1300</v>
       </c>
       <c r="J35" t="n">
-        <v>310</v>
+        <v>860</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02600|W2032</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="O35" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="36">
@@ -2837,48 +2837,48 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45792</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.125</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20902_T02600|W2032</t>
+          <t>30234_1300_4_M10_20902_T02560</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1300</v>
       </c>
       <c r="J36" t="n">
-        <v>860</v>
+        <v>660</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>T02600|W2032</t>
+          <t>T02560</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2902,38 +2902,38 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.1875</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20902_T02560</t>
+          <t>30260_1300_4_M10_20902_T02089</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1300</v>
       </c>
       <c r="J37" t="n">
-        <v>660</v>
+        <v>160</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>T02560</t>
+          <t>T02089</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="O37" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="38">
@@ -2967,48 +2967,48 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20902_T02089</t>
+          <t>31600_1300_4_M11_20902_T02295</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1300</v>
       </c>
       <c r="J38" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>T02089</t>
+          <t>T02295</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="O38" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="39">
@@ -3032,38 +3032,38 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.3125</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.375</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20902_T02295</t>
+          <t>31602_1300_4_M11_20902_T02390|T02293</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1300</v>
       </c>
       <c r="J39" t="n">
-        <v>580</v>
+        <v>990</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>T02295</t>
+          <t>T02390|T02293</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="O39" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="40">
@@ -3097,38 +3097,38 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.4375</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20902_T02390|T02293</t>
+          <t>32016_1300_4_M11_20902_W2039|T02496</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1300</v>
       </c>
       <c r="J40" t="n">
-        <v>990</v>
+        <v>330</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>T02390|T02293</t>
+          <t>W2039|T02496</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="O40" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="41">
@@ -3162,38 +3162,38 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20902_W2039|T02496</t>
+          <t>32017_1300_4_M11_20902_T02319</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1300</v>
       </c>
       <c r="J41" t="n">
-        <v>330</v>
+        <v>3430</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>W2039|T02496</t>
+          <t>T02319</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="O41" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="42">
@@ -3227,38 +3227,38 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20902_T02319</t>
+          <t>32018_1300_4_M11_20902_T02507|T02320</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1300</v>
       </c>
       <c r="J42" t="n">
-        <v>3430</v>
+        <v>270</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>T02319</t>
+          <t>T02507|T02320</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="O42" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="43">
@@ -3292,38 +3292,38 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.75</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20902_T02507|T02320</t>
+          <t>32019_1300_4_M11_20902_T02508|T02321</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1300</v>
       </c>
       <c r="J43" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>T02507|T02320</t>
+          <t>T02508|T02321</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3357,38 +3357,38 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.8125</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20902_T02508|T02321</t>
+          <t>32265_1300_4_M11_20902_W2082|T02498</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1300</v>
       </c>
       <c r="J44" t="n">
-        <v>330</v>
+        <v>3880</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>T02508|T02321</t>
+          <t>W2082|T02498</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="O44" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="45">
@@ -3422,38 +3422,38 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20902_W2082|T02498</t>
+          <t>32267_1300_4_M11_20902_t02604|W2051</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1300</v>
       </c>
       <c r="J45" t="n">
-        <v>3880</v>
+        <v>320</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>W2082|T02498</t>
+          <t>t02604|W2051</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -3487,38 +3487,38 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20902_t02604|W2051</t>
+          <t>32363_1300_4_M11_20902_T02619|T02326</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1300</v>
       </c>
       <c r="J46" t="n">
-        <v>320</v>
+        <v>1940</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>t02604|W2051</t>
+          <t>T02619|T02326</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="O46" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -3552,38 +3552,38 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20902_T02619|T02326</t>
+          <t>32265_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1300</v>
       </c>
       <c r="J47" t="n">
-        <v>1940</v>
+        <v>3710</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>T02619|T02326</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3617,34 +3617,34 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20500_WRF065</t>
+          <t>32267_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1300</v>
       </c>
       <c r="J48" t="n">
-        <v>3710</v>
+        <v>320</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="O48" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="49">
@@ -3682,48 +3682,48 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20500_WRF065</t>
+          <t>25296_1300_4_M11_20300_T02668</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1300</v>
       </c>
       <c r="J49" t="n">
-        <v>320</v>
+        <v>2440</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02668</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="O49" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="50">
@@ -3747,38 +3747,38 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.5</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.5625</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20300_T02624</t>
+          <t>25441_1300_4_M11_20300_T02606</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1300</v>
       </c>
       <c r="J50" t="n">
-        <v>2480</v>
+        <v>2490</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>T02624</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3812,38 +3812,38 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20300_T02670</t>
+          <t>26300_1300_4_M11_20300_T02624</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1300</v>
       </c>
       <c r="J51" t="n">
-        <v>2460</v>
+        <v>2480</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>T02670</t>
+          <t>T02624</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3877,38 +3877,38 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20300_T02668</t>
+          <t>27870_1300_4_M11_20300_T02670</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1300</v>
       </c>
       <c r="J52" t="n">
-        <v>2440</v>
+        <v>2460</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>T02668</t>
+          <t>T02670</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4920,31 +4920,31 @@
         <v>45792.8125</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20500_WRF065</t>
+          <t>32017_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1300</v>
       </c>
       <c r="J68" t="n">
-        <v>260</v>
+        <v>3360</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="O68" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -4982,34 +4982,34 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.9375</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20500_WRF065</t>
+          <t>32018_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1300</v>
       </c>
       <c r="J69" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.9375</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>45792.95833333334</v>
@@ -5057,24 +5057,24 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20500_WRF065</t>
+          <t>32019_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1300</v>
       </c>
       <c r="J70" t="n">
-        <v>3360</v>
+        <v>320</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="O70" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="71">
@@ -5382,28 +5382,28 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20700_T02149</t>
+          <t>25296_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1300</v>
       </c>
       <c r="J75" t="n">
-        <v>2440</v>
+        <v>2420</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5437,38 +5437,38 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45793.625</v>
+        <v>45793.72916666666</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20700_None</t>
+          <t>26300_1300_4_M11_20700_T02149</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1300</v>
       </c>
       <c r="J76" t="n">
-        <v>2430</v>
+        <v>2440</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5502,34 +5502,34 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20700_None</t>
+          <t>27870_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1300</v>
       </c>
       <c r="J77" t="n">
-        <v>2420</v>
+        <v>2430</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5563,10 +5563,10 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45794.64583333334</v>
+        <v>45795.64583333334</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -5624,10 +5624,10 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45794.70833333334</v>
+        <v>45795.70833333334</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -5685,10 +5685,10 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45794.72916666666</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
@@ -5746,10 +5746,10 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="n">
-        <v>45792.25</v>
+        <v>45793.25</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45794.75</v>
+        <v>45795.75</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -5807,10 +5807,10 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45794.77083333334</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -5868,10 +5868,10 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45794.83333333334</v>
+        <v>45795.83333333334</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -5929,10 +5929,10 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45795.22916666666</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3">
@@ -6093,25 +6093,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>780</v>
+        <v>2130</v>
       </c>
       <c r="D3" t="n">
-        <v>16.67</v>
+        <v>35.5</v>
       </c>
       <c r="E3" t="n">
-        <v>3270</v>
+        <v>3300</v>
       </c>
       <c r="F3" t="n">
-        <v>69.87</v>
+        <v>55</v>
       </c>
       <c r="G3" t="n">
-        <v>630</v>
+        <v>570</v>
       </c>
       <c r="H3" t="n">
-        <v>13.46</v>
+        <v>9.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4">
@@ -6129,13 +6129,13 @@
         <v>960</v>
       </c>
       <c r="D4" t="n">
-        <v>20.51</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
         <v>1140</v>
       </c>
       <c r="F4" t="n">
-        <v>24.36</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="5">
@@ -6159,10 +6159,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1500</v>
+        <v>1590</v>
       </c>
       <c r="D5" t="n">
-        <v>32.05</v>
+        <v>26.5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6171,13 +6171,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="H5" t="n">
-        <v>19.23</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="6">
@@ -6195,22 +6195,22 @@
         <v>1380</v>
       </c>
       <c r="D6" t="n">
-        <v>29.49</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="F6" t="n">
-        <v>9.619999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="G6" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="H6" t="n">
-        <v>12.82</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7">
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="8">
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="9">
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="10">
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="11">
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="12">
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="13">
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4680</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -6520,7 +6520,7 @@
         <v>45740</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45794.66666666666</v>
+        <v>45795.66666666666</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>54.67</v>
+        <v>55.67</v>
       </c>
     </row>
     <row r="3">
@@ -6582,7 +6582,7 @@
         <v>45947</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45794.72916666666</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45957</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45794.875</v>
+        <v>45795.85416666666</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45958</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45794.83333333334</v>
+        <v>45795.89583333334</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
         <v>45961</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45794.77083333334</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>45961</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45792.5</v>
+        <v>45793.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45964</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45792.875</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>45964</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>45964</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>45965</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45793.52083333334</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45965</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.72916666666</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45965</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>45965</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45793.625</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>45965</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45795.25</v>
+        <v>45796.16666666666</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v>45794.79166666666</v>
+        <v>45795.79166666666</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7348,10 +7348,10 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45792.02083333334</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45793.0625</v>
       </c>
       <c r="E2" t="n">
         <v>60</v>
@@ -7398,10 +7398,10 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45792.125</v>
+        <v>45793.125</v>
       </c>
       <c r="E3" t="n">
         <v>60</v>
@@ -7448,10 +7448,10 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45793.1875</v>
       </c>
       <c r="E4" t="n">
         <v>60</v>
@@ -7498,10 +7498,10 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45793.3125</v>
       </c>
       <c r="E5" t="n">
         <v>60</v>
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45792.375</v>
+        <v>45793.375</v>
       </c>
       <c r="E6" t="n">
         <v>60</v>
@@ -7598,10 +7598,10 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45793.4375</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="E7" t="n">
         <v>30</v>
@@ -7648,24 +7648,24 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45792.5</v>
+        <v>45793.5</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45793.5625</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -7674,16 +7674,16 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>공정변경(투명→염료), 배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="9">
@@ -7698,13 +7698,13 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45793.625</v>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -7712,24 +7712,24 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>공정변경(염료→SR), 배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -7748,42 +7748,42 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45795.64583333334</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>2880</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="11">
@@ -7798,13 +7798,13 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45795.66666666666</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45794.64583333334</v>
+        <v>45795.70833333334</v>
       </c>
       <c r="E11" t="n">
-        <v>2760</v>
+        <v>60</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -7812,14 +7812,14 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
-        <v>2700</v>
+        <v>30</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -7829,11 +7829,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -7848,24 +7848,24 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45794.66666666666</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45794.70833333334</v>
+        <v>45795.75</v>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -7898,24 +7898,24 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45794.72916666666</v>
+        <v>45795.79166666666</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45794.75</v>
+        <v>45795.83333333334</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -7948,10 +7948,10 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45794.79166666666</v>
+        <v>45795.85416666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45794.8125</v>
+        <v>45795.875</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
@@ -7998,24 +7998,24 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45794.83333333334</v>
+        <v>45795.89583333334</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45794.85416666666</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -8033,57 +8033,57 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>코팅1호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45794.875</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45795.22916666666</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E16" t="n">
-        <v>510</v>
+        <v>150</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8098,13 +8098,13 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E17" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -8148,13 +8148,13 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="E18" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -8198,13 +8198,13 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.625</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45792.625</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45793.3125</v>
       </c>
       <c r="E20" t="n">
         <v>300</v>
@@ -8289,101 +8289,101 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H21" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45792.125</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H22" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.1875</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="E23" t="n">
         <v>60</v>
@@ -8448,10 +8448,10 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.3125</v>
       </c>
       <c r="E24" t="n">
         <v>60</v>
@@ -8498,10 +8498,10 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.375</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E25" t="n">
         <v>60</v>
@@ -8548,10 +8548,10 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.4375</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -8598,10 +8598,10 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="E27" t="n">
         <v>60</v>
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.75</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -8698,10 +8698,10 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.8125</v>
       </c>
       <c r="E29" t="n">
         <v>60</v>
@@ -8748,10 +8748,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.75</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="E30" t="n">
         <v>60</v>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="E31" t="n">
         <v>60</v>
@@ -8848,10 +8848,10 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="E32" t="n">
         <v>60</v>
@@ -8874,12 +8874,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(안료→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -8898,10 +8898,10 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E33" t="n">
         <v>60</v>
@@ -8919,17 +8919,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→염료), 배합액변경</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -8948,10 +8948,10 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.5</v>
       </c>
       <c r="E34" t="n">
         <v>60</v>
@@ -8969,17 +8969,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>공정변경(안료→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -8998,10 +8998,10 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.5625</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E35" t="n">
         <v>60</v>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>공정변경(투명→염료), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -9048,10 +9048,10 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="E36" t="n">
         <v>60</v>
@@ -9089,22 +9089,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2270</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅27호기_WIN</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45792.0625</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -9112,24 +9112,24 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -9148,13 +9148,13 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45792.125</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -9162,14 +9162,14 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -9198,10 +9198,10 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.25</v>
       </c>
       <c r="E39" t="n">
         <v>60</v>
@@ -9224,12 +9224,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -9248,13 +9248,13 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.29166666666</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.3125</v>
       </c>
       <c r="E40" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -9262,24 +9262,24 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -9298,28 +9298,28 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.375</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -9329,11 +9329,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -9348,24 +9348,24 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.4375</v>
       </c>
       <c r="E42" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H42" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -9374,16 +9374,16 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -9398,13 +9398,13 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.5</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -9412,24 +9412,24 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -9448,13 +9448,13 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.5625</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="E44" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -9462,24 +9462,24 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>20706</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -9498,13 +9498,13 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -9512,24 +9512,24 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>공정변경(투명→SR)</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -9548,28 +9548,28 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E46" t="n">
         <v>60</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>60</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -9579,11 +9579,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9598,24 +9598,24 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.8125</v>
       </c>
       <c r="E47" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H47" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -9624,16 +9624,16 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -9648,13 +9648,13 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45793</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -9662,24 +9662,24 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -9698,42 +9698,42 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793</v>
+        <v>45793.1875</v>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -9748,42 +9748,42 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.25</v>
       </c>
       <c r="E50" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>30</v>
       </c>
       <c r="H50" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -9798,42 +9798,42 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.3125</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>공정변경(투명→SR)</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>100</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="52">
@@ -9848,10 +9848,10 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.52083333334</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="E52" t="n">
         <v>210</v>
@@ -9862,14 +9862,14 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H52" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -9879,11 +9879,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>28.6</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="53">
@@ -9898,10 +9898,10 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.72916666666</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="E53" t="n">
         <v>60</v>
@@ -9934,56 +9934,6 @@
       </c>
       <c r="L53" t="n">
         <v>50</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>코팅27호기_WIN</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45793.625</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>45793.66666666666</v>
-      </c>
-      <c r="E54" t="n">
-        <v>60</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>순수대기</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>60</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>변경없음(대기)</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -530,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,57 +627,39 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>45793.02083333334</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DOWNTIME 기계 사용 불가 시간</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>32571_1300_4_M3_23312_T01639</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['SW1250212001']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>32571</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="J2" t="n">
-        <v>180</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>T01639</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>['2025-03-24']</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -692,17 +674,17 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_23316_T01640</t>
+          <t>32571_1300_4_M3_23312_T01639</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -719,11 +701,11 @@
         <v>1300</v>
       </c>
       <c r="J3" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>T01640</t>
+          <t>T01639</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -757,17 +739,17 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45793.125</v>
+        <v>45793.0625</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_20500_T01514</t>
+          <t>32571_1300_4_M3_23316_T01640</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -784,11 +766,11 @@
         <v>1300</v>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>T01514</t>
+          <t>T01640</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -822,27 +804,27 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.125</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>32041_1300_4_M10_20500_T0915</t>
+          <t>32571_1300_4_M3_20500_T01514</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['SW1250911401']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -853,17 +835,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T01514</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -887,48 +869,48 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
+        <v>45793.1875</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>45793.20833333334</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45793.22916666666</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>31704_1300_4_M10_23311_T01521|T0915</t>
+          <t>32041_1300_4_M10_20500_T0915</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['SW1250911101']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31704</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1300</v>
       </c>
       <c r="J6" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>T01521|T0915</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['2025-10-28']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA(WHITE)</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -952,48 +934,48 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
+        <v>45793.20833333334</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>45793.22916666666</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45793.25</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_23311_T0915</t>
+          <t>31704_1300_4_M10_23311_T01521|T0915</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['SW1251002001']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1300</v>
       </c>
       <c r="J7" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T01521|T0915</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1017,48 +999,48 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
+        <v>45793.22916666666</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>45793.25</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>45793.27083333334</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_23311_T0915|T02098</t>
+          <t>32413_1300_4_M10_23311_T0915</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['SW1251002401, SW1250911402']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1300</v>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>T0915|T02098</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1082,48 +1064,48 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.25</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_23311_T0915|T01362</t>
+          <t>32453_1300_4_M10_23311_T0915|T02098</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1300</v>
       </c>
       <c r="J9" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>T0915|T01362</t>
+          <t>T0915|T02098</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1147,38 +1129,38 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45793.375</v>
+        <v>45793.3125</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>32556_1300_4_M10_20710_T01020</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['SW1250908901, SW1251001801']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1300</v>
       </c>
       <c r="J10" t="n">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>T01020</t>
+          <t>T0915|T01362</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1188,7 +1170,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1197,7 +1179,7 @@
         </is>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -1212,34 +1194,34 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
+        <v>45793.375</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>45793.41666666666</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>45793.4375</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>31772_1300_4_M10_20710_T01020</t>
+          <t>32556_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['SW1251002101']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>31772</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1300</v>
       </c>
       <c r="J11" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1248,12 +1230,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>WINDSHIELD 보호필름(점착개선)</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1262,7 +1244,7 @@
         </is>
       </c>
       <c r="O11" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -1277,27 +1259,27 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.4375</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>32556_1300_4_M10_23100_T01226</t>
+          <t>31772_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['SW1250908901, SW1251001801']</t>
+          <t>['SW1251002101']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1308,17 +1290,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>T01226</t>
+          <t>T01020</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1342,10 +1324,10 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
+        <v>45793.45833333334</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>45793.47916666666</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>45793.5</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1407,48 +1389,48 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.5</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20700_T0873</t>
+          <t>32556_1300_4_M10_23100_T01226</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1300</v>
       </c>
       <c r="J14" t="n">
-        <v>2440</v>
+        <v>360</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>T0873</t>
+          <t>T01226</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1457,7 +1439,7 @@
         </is>
       </c>
       <c r="O14" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -1472,38 +1454,38 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45793.625</v>
+        <v>45793.5625</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45793.64583333334</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_23311_T0915</t>
+          <t>25441_1300_4_M11_20700_T0873</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1300</v>
       </c>
       <c r="J15" t="n">
-        <v>230</v>
+        <v>2440</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T0873</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1513,7 +1495,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1522,7 +1504,7 @@
         </is>
       </c>
       <c r="O15" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -1537,48 +1519,48 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45795.64583333334</v>
+        <v>45793.625</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45795.66666666666</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_12400_T01713</t>
+          <t>32470_1300_4_M11_23311_T0915</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['SW1250212001']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>32571</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1300</v>
       </c>
       <c r="J16" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>T01713</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['2025-03-24']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1602,27 +1584,27 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45795.70833333334</v>
+        <v>45795.64583333334</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45795.72916666666</v>
+        <v>45795.66666666666</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32041_1300_4_M10_12400_T01576</t>
+          <t>32571_1300_4_M3_12400_T01713</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['SW1250911401']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1633,17 +1615,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>T01576</t>
+          <t>T01713</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1667,27 +1649,27 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45795.75</v>
+        <v>45795.70833333334</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45795.77083333334</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_12400_T01288|T01715</t>
+          <t>32041_1300_4_M10_12400_T01576</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['SW1251002001']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1698,17 +1680,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T01288|T01715</t>
+          <t>T01576</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1732,48 +1714,48 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45795.77083333334</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45795.79166666666</v>
+        <v>45795.75</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_12400_T02244</t>
+          <t>31704_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['SW1251002401, SW1250911402']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1300</v>
       </c>
       <c r="J19" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T02244</t>
+          <t>T01288|T01715</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1797,27 +1779,27 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45795.83333333334</v>
+        <v>45795.75</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45795.85416666666</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_12400_T01716|T01362</t>
+          <t>32413_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1828,17 +1810,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>T01716|T01362</t>
+          <t>T01288|T01715</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1862,48 +1844,48 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45795.875</v>
+        <v>45795.79166666666</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45795.89583333334</v>
+        <v>45795.8125</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>31704_1300_4_M10_12400_T01288|T01715</t>
+          <t>32453_1300_4_M10_12400_T02244</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['SW1250911101']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>31704</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1300</v>
       </c>
       <c r="J21" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>T01288|T01715</t>
+          <t>T02244</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2025-10-28']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA(WHITE)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1927,48 +1909,48 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45796.14583333334</v>
+        <v>45795.83333333334</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45796.16666666666</v>
+        <v>45795.85416666666</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_12400_T01521</t>
+          <t>31722_1300_4_M10_12400_T01716|T01362</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1300</v>
       </c>
       <c r="J22" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>T01521</t>
+          <t>T01716|T01362</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1983,57 +1965,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45792.125</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45796.16666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20906_None</t>
+          <t>32470_1300_4_M11_12400_T01521</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1300</v>
       </c>
       <c r="J23" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T01521</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2042,7 +2024,7 @@
         </is>
       </c>
       <c r="O23" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -2057,34 +2039,34 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.125</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20906_None</t>
+          <t>31739_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1300</v>
       </c>
       <c r="J24" t="n">
-        <v>630</v>
+        <v>800</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2093,12 +2075,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2122,34 +2104,34 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>45792.3125</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>45792.33333333334</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20906_None</t>
+          <t>30234_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1300</v>
       </c>
       <c r="J25" t="n">
-        <v>160</v>
+        <v>630</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2163,7 +2145,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2172,7 +2154,7 @@
         </is>
       </c>
       <c r="O25" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="26">
@@ -2187,34 +2169,34 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.3125</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20906_None</t>
+          <t>30260_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1300</v>
       </c>
       <c r="J26" t="n">
-        <v>570</v>
+        <v>160</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2223,12 +2205,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2237,7 +2219,7 @@
         </is>
       </c>
       <c r="O26" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="27">
@@ -2252,34 +2234,34 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.375</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20906_None</t>
+          <t>31600_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1300</v>
       </c>
       <c r="J27" t="n">
-        <v>940</v>
+        <v>570</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2293,7 +2275,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2317,10 +2299,10 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.66666666666</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.6875</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -2382,34 +2364,34 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20906_None</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1300</v>
       </c>
       <c r="J29" t="n">
-        <v>3320</v>
+        <v>940</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2423,7 +2405,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2432,7 +2414,7 @@
         </is>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="30">
@@ -2447,10 +2429,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2512,10 +2494,10 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45792.9375</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -2577,34 +2559,34 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20906_None</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1300</v>
       </c>
       <c r="J32" t="n">
-        <v>1810</v>
+        <v>3320</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2618,7 +2600,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2627,7 +2609,7 @@
         </is>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -2642,34 +2624,34 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.25</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20906_None</t>
+          <t>32267_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1300</v>
       </c>
       <c r="J33" t="n">
-        <v>3640</v>
+        <v>310</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2683,7 +2665,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2692,7 +2674,7 @@
         </is>
       </c>
       <c r="O33" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="34">
@@ -2707,34 +2689,34 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.3125</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20906_None</t>
+          <t>32363_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1300</v>
       </c>
       <c r="J34" t="n">
-        <v>310</v>
+        <v>1810</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2748,7 +2730,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2757,63 +2739,63 @@
         </is>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45792</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45793.5625</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20902_T02600|W2032</t>
+          <t>32265_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1300</v>
       </c>
       <c r="J35" t="n">
-        <v>860</v>
+        <v>3640</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>T02600|W2032</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2822,7 +2804,7 @@
         </is>
       </c>
       <c r="O35" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="36">
@@ -2837,48 +2819,48 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45792</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20902_T02560</t>
+          <t>31739_1300_4_M10_20902_T02600|W2032</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1300</v>
       </c>
       <c r="J36" t="n">
-        <v>660</v>
+        <v>860</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>T02560</t>
+          <t>T02600|W2032</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2902,38 +2884,38 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.125</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20902_T02089</t>
+          <t>30234_1300_4_M10_20902_T02560</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1300</v>
       </c>
       <c r="J37" t="n">
-        <v>160</v>
+        <v>660</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>T02089</t>
+          <t>T02560</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2943,7 +2925,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2952,7 +2934,7 @@
         </is>
       </c>
       <c r="O37" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="38">
@@ -2967,48 +2949,48 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.1875</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20902_T02295</t>
+          <t>30260_1300_4_M10_20902_T02089</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1300</v>
       </c>
       <c r="J38" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>T02295</t>
+          <t>T02089</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3017,7 +2999,7 @@
         </is>
       </c>
       <c r="O38" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="39">
@@ -3032,38 +3014,38 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20902_T02390|T02293</t>
+          <t>31600_1300_4_M11_20902_T02295</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1300</v>
       </c>
       <c r="J39" t="n">
-        <v>990</v>
+        <v>580</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>T02390|T02293</t>
+          <t>T02295</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3073,7 +3055,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3082,7 +3064,7 @@
         </is>
       </c>
       <c r="O39" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="40">
@@ -3097,38 +3079,38 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.3125</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20902_W2039|T02496</t>
+          <t>32017_1300_4_M11_20902_T02319</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1300</v>
       </c>
       <c r="J40" t="n">
-        <v>330</v>
+        <v>3430</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>W2039|T02496</t>
+          <t>T02319</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3138,7 +3120,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3147,7 +3129,7 @@
         </is>
       </c>
       <c r="O40" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -3162,38 +3144,38 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20902_T02319</t>
+          <t>32018_1300_4_M11_20902_T02507|T02320</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1300</v>
       </c>
       <c r="J41" t="n">
-        <v>3430</v>
+        <v>270</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>T02319</t>
+          <t>T02507|T02320</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3203,7 +3185,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3212,7 +3194,7 @@
         </is>
       </c>
       <c r="O41" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -3227,38 +3209,38 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20902_T02507|T02320</t>
+          <t>32016_1300_4_M11_20902_W2039|T02496</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1300</v>
       </c>
       <c r="J42" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>T02507|T02320</t>
+          <t>W2039|T02496</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3268,7 +3250,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3292,38 +3274,38 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20902_T02508|T02321</t>
+          <t>31602_1300_4_M11_20902_T02390|T02293</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1300</v>
       </c>
       <c r="J43" t="n">
-        <v>330</v>
+        <v>990</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>T02508|T02321</t>
+          <t>T02390|T02293</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3333,7 +3315,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3342,7 +3324,7 @@
         </is>
       </c>
       <c r="O43" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="44">
@@ -3357,38 +3339,38 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.75</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20902_W2082|T02498</t>
+          <t>32019_1300_4_M11_20902_T02508|T02321</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1300</v>
       </c>
       <c r="J44" t="n">
-        <v>3880</v>
+        <v>330</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>W2082|T02498</t>
+          <t>T02508|T02321</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3398,7 +3380,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3407,7 +3389,7 @@
         </is>
       </c>
       <c r="O44" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="45">
@@ -3422,38 +3404,38 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.8125</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20902_t02604|W2051</t>
+          <t>32265_1300_4_M11_20902_W2082|T02498</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1300</v>
       </c>
       <c r="J45" t="n">
-        <v>320</v>
+        <v>3880</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>t02604|W2051</t>
+          <t>W2082|T02498</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3463,7 +3445,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3472,7 +3454,7 @@
         </is>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="46">
@@ -3487,38 +3469,38 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20902_T02619|T02326</t>
+          <t>32267_1300_4_M11_20902_t02604|W2051</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1300</v>
       </c>
       <c r="J46" t="n">
-        <v>1940</v>
+        <v>320</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>T02619|T02326</t>
+          <t>t02604|W2051</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3528,7 +3510,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3537,7 +3519,7 @@
         </is>
       </c>
       <c r="O46" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="47">
@@ -3552,38 +3534,38 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.1875</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20500_WRF065</t>
+          <t>32363_1300_4_M11_20902_T02619|T02326</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1300</v>
       </c>
       <c r="J47" t="n">
-        <v>3710</v>
+        <v>1940</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02619|T02326</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3593,7 +3575,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3617,10 +3599,10 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.25</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
@@ -3682,48 +3664,48 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.25</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20300_T02668</t>
+          <t>32265_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1300</v>
       </c>
       <c r="J49" t="n">
-        <v>2440</v>
+        <v>3710</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>T02668</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3732,7 +3714,7 @@
         </is>
       </c>
       <c r="O49" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="50">
@@ -3747,38 +3729,38 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20300_T02606</t>
+          <t>25296_1300_4_M11_20300_T02668</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1300</v>
       </c>
       <c r="J50" t="n">
-        <v>2490</v>
+        <v>2440</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>T02668</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3788,7 +3770,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3812,38 +3794,38 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.5</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45793.5625</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20300_T02624</t>
+          <t>25441_1300_4_M11_20300_T02606</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1300</v>
       </c>
       <c r="J51" t="n">
-        <v>2480</v>
+        <v>2490</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>T02624</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3853,7 +3835,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3877,38 +3859,38 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45793.77083333334</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20300_T02670</t>
+          <t>26300_1300_4_M11_20300_T02624</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1300</v>
       </c>
       <c r="J52" t="n">
-        <v>2460</v>
+        <v>2480</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>T02670</t>
+          <t>T02624</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3918,7 +3900,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3933,57 +3915,57 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20702_T02150|W1818</t>
+          <t>27870_1300_4_M11_20300_T02670</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1300</v>
       </c>
       <c r="J53" t="n">
-        <v>840</v>
+        <v>2460</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>T02670</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3992,7 +3974,7 @@
         </is>
       </c>
       <c r="O53" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="54">
@@ -4007,17 +3989,17 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.0625</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20500_WRF065</t>
+          <t>31739_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4034,11 +4016,11 @@
         <v>1300</v>
       </c>
       <c r="J54" t="n">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4057,7 +4039,7 @@
         </is>
       </c>
       <c r="O54" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="55">
@@ -4072,48 +4054,48 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.125</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20500_W2010</t>
+          <t>31739_1300_4_M10_20500_WRF065</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1300</v>
       </c>
       <c r="J55" t="n">
-        <v>650</v>
+        <v>820</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>W2010</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4122,7 +4104,7 @@
         </is>
       </c>
       <c r="O55" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="56">
@@ -4137,38 +4119,38 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="D56" s="2" t="n">
         <v>45792.1875</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>45792.20833333334</v>
       </c>
       <c r="E56" t="n">
         <v>2</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20500_WRF065|W2010</t>
+          <t>30234_1300_4_M10_20500_W2010</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1300</v>
       </c>
       <c r="J56" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>WRF065|W2010</t>
+          <t>W2010</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4178,7 +4160,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4202,38 +4184,38 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.1875</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20702_T02150</t>
+          <t>30260_1300_4_M10_20500_WRF065|W2010</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1300</v>
       </c>
       <c r="J57" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>T02150</t>
+          <t>WRF065|W2010</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4243,7 +4225,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4267,38 +4249,38 @@
         </is>
       </c>
       <c r="C58" s="2" t="n">
+        <v>45792.25</v>
+      </c>
+      <c r="D58" s="2" t="n">
         <v>45792.27083333334</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>45792.29166666666</v>
       </c>
       <c r="E58" t="n">
         <v>3</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20702_T02150|W1818</t>
+          <t>30234_1300_4_M10_20702_T02150</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1300</v>
       </c>
       <c r="J58" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>T02150</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4308,7 +4290,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4332,48 +4314,48 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.29166666666</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20705_W2027|W1912</t>
+          <t>30260_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1300</v>
       </c>
       <c r="J59" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4397,34 +4379,34 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.3125</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20705_W2027|W1912</t>
+          <t>31600_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1300</v>
       </c>
       <c r="J60" t="n">
-        <v>970</v>
+        <v>580</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -4438,7 +4420,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4447,7 +4429,7 @@
         </is>
       </c>
       <c r="O60" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -4462,10 +4444,10 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.375</v>
       </c>
       <c r="E61" t="n">
         <v>3</v>
@@ -4527,38 +4509,38 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20500_WRF065</t>
+          <t>32017_1300_4_M11_20706_None</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1300</v>
       </c>
       <c r="J62" t="n">
-        <v>960</v>
+        <v>3400</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4568,7 +4550,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4577,7 +4559,7 @@
         </is>
       </c>
       <c r="O62" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="63">
@@ -4602,28 +4584,28 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20706_T02149|W1817</t>
+          <t>32018_1300_4_M11_20706_T02149</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1300</v>
       </c>
       <c r="J63" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4633,7 +4615,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4657,17 +4639,17 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.625</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
+          <t>32016_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4684,11 +4666,11 @@
         <v>1300</v>
       </c>
       <c r="J64" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>W2053|WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4725,35 +4707,35 @@
         <v>45792.64583333334</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.66666666666</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20706_None</t>
+          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1300</v>
       </c>
       <c r="J65" t="n">
-        <v>3400</v>
+        <v>320</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>W2053|WRF065</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4763,7 +4745,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4772,7 +4754,7 @@
         </is>
       </c>
       <c r="O65" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="66">
@@ -4790,35 +4772,35 @@
         <v>45792.70833333334</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.75</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20706_T02149</t>
+          <t>31602_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1300</v>
       </c>
       <c r="J66" t="n">
-        <v>260</v>
+        <v>970</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4828,7 +4810,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4837,7 +4819,7 @@
         </is>
       </c>
       <c r="O66" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="67">
@@ -4920,31 +4902,31 @@
         <v>45792.8125</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20500_WRF065</t>
+          <t>31602_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1300</v>
       </c>
       <c r="J68" t="n">
-        <v>3360</v>
+        <v>960</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -4958,7 +4940,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4967,7 +4949,7 @@
         </is>
       </c>
       <c r="O68" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="69">
@@ -4982,10 +4964,10 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45792.875</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
@@ -5047,10 +5029,10 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45792.875</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="E70" t="n">
         <v>3</v>
@@ -5112,38 +5094,38 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
+        <v>45792.89583333334</v>
+      </c>
+      <c r="D71" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="D71" s="2" t="n">
-        <v>45793.08333333334</v>
-      </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20702_T02150|W1818</t>
+          <t>32017_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1300</v>
       </c>
       <c r="J71" t="n">
-        <v>3800</v>
+        <v>3360</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5153,7 +5135,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5162,7 +5144,7 @@
         </is>
       </c>
       <c r="O71" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="72">
@@ -5177,10 +5159,10 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -5242,38 +5224,38 @@
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.0625</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20706_W1817</t>
+          <t>32265_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1300</v>
       </c>
       <c r="J73" t="n">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>W1817</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5283,7 +5265,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5292,7 +5274,7 @@
         </is>
       </c>
       <c r="O73" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -5307,17 +5289,17 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.1875</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20500_WRF065</t>
+          <t>32363_1300_4_M11_20706_W1817</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5334,11 +5316,11 @@
         <v>1300</v>
       </c>
       <c r="J74" t="n">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>W1817</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5357,7 +5339,7 @@
         </is>
       </c>
       <c r="O74" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="75">
@@ -5372,48 +5354,48 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.25</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.3125</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20700_None</t>
+          <t>32363_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1300</v>
       </c>
       <c r="J75" t="n">
-        <v>2420</v>
+        <v>1850</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5437,38 +5419,38 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45793.52083333334</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20700_T02149</t>
+          <t>25296_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1300</v>
       </c>
       <c r="J76" t="n">
-        <v>2440</v>
+        <v>2420</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5478,7 +5460,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5502,38 +5484,38 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45793.77083333334</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45793.83333333334</v>
+        <v>45793.72916666666</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20700_None</t>
+          <t>26300_1300_4_M11_20700_T02149</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1300</v>
       </c>
       <c r="J77" t="n">
-        <v>2430</v>
+        <v>2440</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5543,7 +5525,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5558,53 +5540,57 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AGING</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.77083333334</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45795.64583333334</v>
+        <v>45793.83333333334</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_20500_T01514_AGING</t>
+          <t>27870_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['SW1250212001']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>32571</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1300</v>
       </c>
       <c r="J78" t="n">
-        <v>160</v>
+        <v>2430</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>T01514</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2025-03-24']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5613,7 +5599,7 @@
         </is>
       </c>
       <c r="O78" s="3" t="n">
-        <v>2.5</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="79">
@@ -5624,27 +5610,27 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45795.70833333334</v>
+        <v>45795.64583333334</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>32041_1300_4_M10_20500_T0915_AGING</t>
+          <t>32571_1300_4_M3_20500_T01514_AGING</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['SW1250911401']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -5655,17 +5641,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T01514</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5685,38 +5671,38 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45795.72916666666</v>
+        <v>45795.70833333334</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_23311_T0915|T02098_AGING</t>
+          <t>32041_1300_4_M10_20500_T0915_AGING</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['SW1251002401, SW1250911402']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1300</v>
       </c>
       <c r="J80" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>T0915|T02098</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5726,7 +5712,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5746,48 +5732,48 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45795.75</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_23311_T0915|T01362_AGING</t>
+          <t>32453_1300_4_M10_23311_T0915|T02098_AGING</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1300</v>
       </c>
       <c r="J81" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>T0915|T01362</t>
+          <t>T0915|T02098</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -5807,48 +5793,48 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.25</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45795.77083333334</v>
+        <v>45795.75</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>31704_1300_4_M10_23311_T01521|T0915_AGING</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362_AGING</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['SW1250911101']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>31704</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1300</v>
       </c>
       <c r="J82" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>T01521|T0915</t>
+          <t>T0915|T01362</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2025-10-28']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA(WHITE)</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5868,48 +5854,48 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45795.83333333334</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_23311_T0915_AGING</t>
+          <t>31704_1300_4_M10_23311_T01521|T0915_AGING</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['SW1251002001']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1300</v>
       </c>
       <c r="J83" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T01521|T0915</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -5929,56 +5915,117 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
-        <v>45793.64583333334</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45796.14583333334</v>
+        <v>45795.83333333334</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_23311_T0915_AGING</t>
+          <t>32413_1300_4_M10_23311_T0915_AGING</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1300</v>
       </c>
       <c r="J84" t="n">
+        <v>160</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>T0915</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>['2025-10-31']</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>PPF-NS-TGA N (OP개선)</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="O84" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" s="2" t="n">
+        <v>45793.64583333334</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45796.14583333334</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>32470_1300_4_M11_23311_T0915_AGING</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>['SW1251003601']</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>32470</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J85" t="n">
         <v>230</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>T0915</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>['2025-11-04']</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="N85" t="inlineStr">
         <is>
           <t>1300</t>
         </is>
       </c>
-      <c r="O84" s="3" t="n">
+      <c r="O85" s="3" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -6099,16 +6146,16 @@
         <v>35.5</v>
       </c>
       <c r="E3" t="n">
-        <v>3300</v>
+        <v>3330</v>
       </c>
       <c r="F3" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="G3" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="H3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
         <v>6000</v>
@@ -6132,10 +6179,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1140</v>
+        <v>1110</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6198,16 +6245,16 @@
         <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="F6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
         <v>6000</v>
@@ -6706,7 +6753,7 @@
         <v>45958</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45795.89583333334</v>
+        <v>45795.75</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -6768,7 +6815,7 @@
         <v>45961</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -6799,7 +6846,7 @@
         <v>45964</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45792.9375</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -6830,7 +6877,7 @@
         <v>45964</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -6861,7 +6908,7 @@
         <v>45964</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -6892,7 +6939,7 @@
         <v>45964</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -6954,7 +7001,7 @@
         <v>45964</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -7016,7 +7063,7 @@
         <v>45964</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -7047,7 +7094,7 @@
         <v>45964</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.6875</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -7223,7 +7270,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -7244,7 +7291,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v>45795.79166666666</v>
+        <v>45795.8125</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -7266,7 +7313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7848,10 +7895,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45795.72916666666</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45795.75</v>
+        <v>45795.79166666666</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
@@ -7898,24 +7945,24 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45795.79166666666</v>
+        <v>45795.8125</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>45795.83333333334</v>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -7933,7 +7980,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -7951,21 +7998,21 @@
         <v>45795.85416666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45795.875</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -7983,57 +8030,57 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>100</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>코팅1호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45795.89583333334</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45796.14583333334</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E15" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>12400</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8048,13 +8095,13 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.375</v>
       </c>
       <c r="E16" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -8065,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -8098,13 +8145,13 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.66666666666</v>
       </c>
       <c r="E17" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -8115,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -8148,13 +8195,13 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -8165,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -8198,13 +8245,13 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.9375</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45793</v>
       </c>
       <c r="E19" t="n">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -8215,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -8248,13 +8295,13 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.25</v>
       </c>
       <c r="E20" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -8265,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -8289,51 +8336,51 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45793.3125</v>
       </c>
       <c r="E21" t="n">
         <v>60</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>60</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -8348,10 +8395,10 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
@@ -8398,10 +8445,10 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.125</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E23" t="n">
         <v>60</v>
@@ -8448,10 +8495,10 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.1875</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="E24" t="n">
         <v>60</v>
@@ -8498,10 +8545,10 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.3125</v>
       </c>
       <c r="E25" t="n">
         <v>60</v>
@@ -8548,10 +8595,10 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -8598,10 +8645,10 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="E27" t="n">
         <v>60</v>
@@ -8648,10 +8695,10 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -8698,10 +8745,10 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.75</v>
       </c>
       <c r="E29" t="n">
         <v>60</v>
@@ -8748,10 +8795,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.8125</v>
       </c>
       <c r="E30" t="n">
         <v>60</v>
@@ -8798,10 +8845,10 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="E31" t="n">
         <v>60</v>
@@ -8848,10 +8895,10 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="E32" t="n">
         <v>60</v>
@@ -8874,12 +8921,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>공정변경(안료→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -8898,10 +8945,10 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="E33" t="n">
         <v>60</v>
@@ -8919,17 +8966,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>20300</t>
-        </is>
-      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>공정변경(투명→염료), 배합액변경</t>
+          <t>공정변경(안료→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -8948,10 +8995,10 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E34" t="n">
         <v>60</v>
@@ -8969,17 +9016,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>20300</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>20300</t>
-        </is>
-      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→염료), 배합액변경</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -8998,10 +9045,10 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.5</v>
       </c>
       <c r="E35" t="n">
         <v>60</v>
@@ -9048,10 +9095,10 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45793.5625</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E36" t="n">
         <v>60</v>
@@ -9089,22 +9136,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -9112,24 +9159,24 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -9148,13 +9195,13 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.0625</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="E38" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -9162,24 +9209,24 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -9198,10 +9245,10 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.125</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E39" t="n">
         <v>60</v>
@@ -9224,12 +9271,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -9248,13 +9295,13 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.25</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -9262,24 +9309,24 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>20702</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>20705</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -9298,42 +9345,42 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.29166666666</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.3125</v>
       </c>
       <c r="E41" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H41" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
           <t>20705</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>20705</t>
-        </is>
-      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -9348,10 +9395,10 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="E42" t="n">
         <v>30</v>
@@ -9398,24 +9445,24 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.5</v>
+        <v>45792.375</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E43" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>60</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -9429,11 +9476,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>공정변경(투명→SR)</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -9451,21 +9498,21 @@
         <v>45792.5625</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -9474,16 +9521,16 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -9498,13 +9545,13 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.625</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>45792.64583333334</v>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -9512,24 +9559,24 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>20706</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -9548,42 +9595,42 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.66666666666</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="E46" t="n">
         <v>60</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H46" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
@@ -9598,10 +9645,10 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.75</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -9619,17 +9666,17 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -9648,13 +9695,13 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793</v>
+        <v>45792.8125</v>
       </c>
       <c r="E48" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -9662,24 +9709,24 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>20702</t>
-        </is>
-      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -9698,42 +9745,42 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="E49" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H49" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
           <t>20702</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>20706</t>
-        </is>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -9748,42 +9795,42 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.1875</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>30</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
@@ -9798,42 +9845,42 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.25</v>
       </c>
       <c r="E51" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H51" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>28.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -9848,10 +9895,10 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.3125</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="E52" t="n">
         <v>210</v>
@@ -9862,28 +9909,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H52" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(투명→SR)</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>14.3</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="53">
@@ -9898,13 +9945,13 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45793.52083333334</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45793.77083333334</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="E53" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -9915,24 +9962,74 @@
         <v>30</v>
       </c>
       <c r="H53" t="n">
+        <v>180</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45793.72916666666</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45793.77083333334</v>
+      </c>
+      <c r="E54" t="n">
+        <v>60</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>30</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="H54" t="n">
+        <v>30</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>변경없음(대기)</t>
         </is>
       </c>
-      <c r="L53" t="n">
+      <c r="L54" t="n">
         <v>50</v>
       </c>
     </row>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.25</v>
+        <v>25.38</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1334,38 +1334,38 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>31772_1300_4_M10_23100_T01226|W2060</t>
+          <t>32556_1300_4_M10_23100_T01226</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['SW1251002101']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>31772</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1300</v>
       </c>
       <c r="J13" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>T01226|W2060</t>
+          <t>T01226</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>WINDSHIELD 보호필름(점착개선)</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1399,38 +1399,38 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>32556_1300_4_M10_23100_T01226</t>
+          <t>31772_1300_4_M10_23100_T01226|W2060</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['SW1250908901, SW1251001801']</t>
+          <t>['SW1251002101']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1300</v>
       </c>
       <c r="J14" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>T01226</t>
+          <t>T01226|W2060</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
+        <v>45793.60416666666</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <v>45793.625</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>45793.64583333334</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
+        <v>45796.125</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>45796.14583333334</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>45796.16666666666</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -2299,34 +2299,34 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.66666666666</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20906_None</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1300</v>
       </c>
       <c r="J28" t="n">
-        <v>320</v>
+        <v>3320</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="O28" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -2364,34 +2364,34 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45793.0625</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20906_None</t>
+          <t>32019_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1300</v>
       </c>
       <c r="J29" t="n">
-        <v>940</v>
+        <v>310</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="O29" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -2429,34 +2429,34 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45793.0625</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20906_None</t>
+          <t>32016_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1300</v>
       </c>
       <c r="J30" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2494,27 +2494,27 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20906_None</t>
+          <t>32267_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2559,34 +2559,34 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793</v>
+        <v>45793.25</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20906_None</t>
+          <t>32018_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1300</v>
       </c>
       <c r="J32" t="n">
-        <v>3320</v>
+        <v>250</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -2624,34 +2624,34 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.3125</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20906_None</t>
+          <t>32363_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1300</v>
       </c>
       <c r="J33" t="n">
-        <v>310</v>
+        <v>1810</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="O33" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="34">
@@ -2689,34 +2689,34 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20906_None</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1300</v>
       </c>
       <c r="J34" t="n">
-        <v>1810</v>
+        <v>940</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="35">
@@ -2754,10 +2754,10 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -3147,35 +3147,35 @@
         <v>45792.52083333334</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20902_T02507|T02320</t>
+          <t>32265_1300_4_M11_20902_W2082|T02498</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1300</v>
       </c>
       <c r="J41" t="n">
-        <v>270</v>
+        <v>3880</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>T02507|T02320</t>
+          <t>W2082|T02498</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="O41" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="42">
@@ -3209,38 +3209,38 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.75</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20902_W2039|T02496</t>
+          <t>32267_1300_4_M11_20902_t02604|W2051</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1300</v>
       </c>
       <c r="J42" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>W2039|T02496</t>
+          <t>t02604|W2051</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -3339,10 +3339,10 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>45792.97916666666</v>
@@ -3414,28 +3414,28 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20902_W2082|T02498</t>
+          <t>32016_1300_4_M11_20902_W2039|T02496</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1300</v>
       </c>
       <c r="J45" t="n">
-        <v>3880</v>
+        <v>330</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>W2082|T02498</t>
+          <t>W2039|T02496</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -3472,35 +3472,35 @@
         <v>45793.02083333334</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.125</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20902_t02604|W2051</t>
+          <t>32363_1300_4_M11_20902_T02619|T02326</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1300</v>
       </c>
       <c r="J46" t="n">
-        <v>320</v>
+        <v>1940</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>t02604|W2051</t>
+          <t>T02619|T02326</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="O46" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>45793.1875</v>
@@ -3544,28 +3544,28 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20902_T02619|T02326</t>
+          <t>32018_1300_4_M11_20902_T02507|T02320</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1300</v>
       </c>
       <c r="J47" t="n">
-        <v>1940</v>
+        <v>270</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>T02619|T02326</t>
+          <t>T02507|T02320</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3584,7 +3584,7 @@
         </is>
       </c>
       <c r="O47" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="48">
@@ -3602,45 +3602,45 @@
         <v>45793.22916666666</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.29166666666</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20500_WRF065</t>
+          <t>25441_1300_4_M11_20300_T02606</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1300</v>
       </c>
       <c r="J48" t="n">
-        <v>320</v>
+        <v>2490</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="O48" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="49">
@@ -3664,48 +3664,48 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20500_WRF065</t>
+          <t>25296_1300_4_M11_20300_T02668</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1300</v>
       </c>
       <c r="J49" t="n">
-        <v>3710</v>
+        <v>2440</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02668</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="O49" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="50">
@@ -3729,38 +3729,38 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.5</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20300_T02668</t>
+          <t>26300_1300_4_M11_20300_T02624</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1300</v>
       </c>
       <c r="J50" t="n">
-        <v>2440</v>
+        <v>2480</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>T02668</t>
+          <t>T02624</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3794,38 +3794,38 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20300_T02606</t>
+          <t>27870_1300_4_M11_20300_T02670</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1300</v>
       </c>
       <c r="J51" t="n">
-        <v>2490</v>
+        <v>2460</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>T02670</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3850,57 +3850,57 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2270</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅27호기_WIN</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45792.0625</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20300_T02624</t>
+          <t>31739_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1300</v>
       </c>
       <c r="J52" t="n">
-        <v>2480</v>
+        <v>840</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>T02624</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3909,63 +3909,63 @@
         </is>
       </c>
       <c r="O52" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2270</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅27호기_WIN</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45793.77083333334</v>
+        <v>45792.125</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20300_T02670</t>
+          <t>31739_1300_4_M10_20500_WRF065</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1300</v>
       </c>
       <c r="J53" t="n">
-        <v>2460</v>
+        <v>820</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>T02670</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="O53" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="54">
@@ -3989,48 +3989,48 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45792.1875</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20702_T02150|W1818</t>
+          <t>30234_1300_4_M10_20500_W2010</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1300</v>
       </c>
       <c r="J54" t="n">
-        <v>840</v>
+        <v>650</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>W2010</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4054,48 +4054,48 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45792.1875</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20500_WRF065</t>
+          <t>30260_1300_4_M10_20500_WRF065|W2010</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1300</v>
       </c>
       <c r="J55" t="n">
-        <v>820</v>
+        <v>160</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>WRF065|W2010</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="O55" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="56">
@@ -4119,17 +4119,17 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.25</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20500_W2010</t>
+          <t>30234_1300_4_M10_20702_T02150</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4146,11 +4146,11 @@
         <v>1300</v>
       </c>
       <c r="J56" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>W2010</t>
+          <t>T02150</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4184,17 +4184,17 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.29166666666</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20500_WRF065|W2010</t>
+          <t>30260_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>WRF065|W2010</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4249,48 +4249,48 @@
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.3125</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20702_T02150</t>
+          <t>31600_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1300</v>
       </c>
       <c r="J58" t="n">
-        <v>640</v>
+        <v>580</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>T02150</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4314,48 +4314,48 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.375</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20702_T02150|W1818</t>
+          <t>31600_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1300</v>
       </c>
       <c r="J59" t="n">
-        <v>160</v>
+        <v>570</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4379,38 +4379,38 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20705_W2027|W1912</t>
+          <t>32017_1300_4_M11_20706_None</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1300</v>
       </c>
       <c r="J60" t="n">
-        <v>580</v>
+        <v>3400</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="O60" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="61">
@@ -4444,34 +4444,34 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E61" t="n">
         <v>3</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20500_WRF065</t>
+          <t>32017_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1300</v>
       </c>
       <c r="J61" t="n">
-        <v>570</v>
+        <v>3360</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4494,7 +4494,7 @@
         </is>
       </c>
       <c r="O61" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="62">
@@ -4509,38 +4509,38 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E62" t="n">
         <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20706_None</t>
+          <t>32265_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1300</v>
       </c>
       <c r="J62" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="O62" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -4574,38 +4574,38 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20706_T02149</t>
+          <t>32267_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1300</v>
       </c>
       <c r="J63" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4639,38 +4639,38 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20706_T02149|W1817</t>
+          <t>31602_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1300</v>
       </c>
       <c r="J64" t="n">
-        <v>330</v>
+        <v>970</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="O64" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="65">
@@ -4704,27 +4704,27 @@
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45792.66666666666</v>
+        <v>45792.9375</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
+          <t>32019_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>W2053|WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4769,38 +4769,38 @@
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45792.75</v>
+        <v>45793</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20705_W2027|W1912</t>
+          <t>32016_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1300</v>
       </c>
       <c r="J66" t="n">
-        <v>970</v>
+        <v>330</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="O66" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="67">
@@ -4834,17 +4834,17 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20706_T02149|W1817</t>
+          <t>32019_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4899,38 +4899,38 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20500_WRF065</t>
+          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1300</v>
       </c>
       <c r="J68" t="n">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>W2053|WRF065</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="O68" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="69">
@@ -4964,34 +4964,34 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45792.875</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20500_WRF065</t>
+          <t>32267_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1300</v>
       </c>
       <c r="J69" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5029,38 +5029,38 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45792.875</v>
+        <v>45793.125</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20500_WRF065</t>
+          <t>32363_1300_4_M11_20706_W1817</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1300</v>
       </c>
       <c r="J70" t="n">
-        <v>320</v>
+        <v>1900</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>W1817</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5079,7 +5079,7 @@
         </is>
       </c>
       <c r="O70" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="71">
@@ -5094,38 +5094,38 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45793.1875</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45793</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20500_WRF065</t>
+          <t>32018_1300_4_M11_20706_T02149</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1300</v>
       </c>
       <c r="J71" t="n">
-        <v>3360</v>
+        <v>260</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5135,7 +5135,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5144,7 +5144,7 @@
         </is>
       </c>
       <c r="O71" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -5159,38 +5159,38 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.25</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20702_T02150|W1818</t>
+          <t>32018_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1300</v>
       </c>
       <c r="J72" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5224,38 +5224,38 @@
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.25</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.3125</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20702_T02150|W1818</t>
+          <t>32363_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1300</v>
       </c>
       <c r="J73" t="n">
-        <v>3800</v>
+        <v>1850</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5274,7 +5274,7 @@
         </is>
       </c>
       <c r="O73" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="74">
@@ -5289,38 +5289,38 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20706_W1817</t>
+          <t>31602_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1300</v>
       </c>
       <c r="J74" t="n">
-        <v>1900</v>
+        <v>960</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>W1817</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5354,34 +5354,34 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.4375</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="E75" t="n">
         <v>3</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20500_WRF065</t>
+          <t>32265_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1300</v>
       </c>
       <c r="J75" t="n">
-        <v>1850</v>
+        <v>3710</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="O75" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="76">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45793.77083333334</v>
+        <v>45793.75</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45793.83333333334</v>
+        <v>45793.8125</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -5976,10 +5976,10 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" s="2" t="n">
-        <v>45793.64583333334</v>
+        <v>45793.625</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45796.14583333334</v>
+        <v>45796.125</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="3">
@@ -6143,22 +6143,22 @@
         <v>2130</v>
       </c>
       <c r="D3" t="n">
-        <v>35.5</v>
+        <v>35.68</v>
       </c>
       <c r="E3" t="n">
-        <v>3330</v>
+        <v>3300</v>
       </c>
       <c r="F3" t="n">
-        <v>55.5</v>
+        <v>55.28</v>
       </c>
       <c r="G3" t="n">
         <v>540</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="4">
@@ -6176,13 +6176,13 @@
         <v>960</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>16.08</v>
       </c>
       <c r="E4" t="n">
-        <v>1110</v>
+        <v>1320</v>
       </c>
       <c r="F4" t="n">
-        <v>18.5</v>
+        <v>22.11</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="5">
@@ -6206,10 +6206,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1590</v>
+        <v>1410</v>
       </c>
       <c r="D5" t="n">
-        <v>26.5</v>
+        <v>23.62</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6218,13 +6218,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>15.08</v>
       </c>
       <c r="I5" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="6">
@@ -6239,25 +6239,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1380</v>
+        <v>1560</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>26.13</v>
       </c>
       <c r="E6" t="n">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>5.53</v>
       </c>
       <c r="G6" t="n">
         <v>660</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="I6" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="7">
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="8">
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="9">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="10">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="11">
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="12">
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="13">
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6000</v>
+        <v>5970</v>
       </c>
     </row>
   </sheetData>
@@ -6815,7 +6815,7 @@
         <v>45961</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>45964</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45793.0625</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>45964</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>45964</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>45964</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>45964</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.70833333334</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>45964</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>45964</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>45965</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>45965</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45965</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45793.83333333334</v>
+        <v>45793.8125</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>45965</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45796.16666666666</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7698,21 +7698,21 @@
         <v>45793.5</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="E8" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>66.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -7745,10 +7745,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
+        <v>45793.58333333334</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>45793.60416666666</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>45793.625</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
@@ -7795,13 +7795,13 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45793.64583333334</v>
+        <v>45793.625</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>45795.64583333334</v>
       </c>
       <c r="E10" t="n">
-        <v>2880</v>
+        <v>2910</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>2820</v>
+        <v>2850</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -7998,10 +7998,10 @@
         <v>45795.85416666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45796.14583333334</v>
+        <v>45796.125</v>
       </c>
       <c r="E14" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="15">
@@ -8148,10 +8148,10 @@
         <v>45792.41666666666</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45792.66666666666</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E17" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -8195,13 +8195,13 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="E18" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -8245,13 +8245,13 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45793</v>
+        <v>45793.25</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -8295,13 +8295,13 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.3125</v>
       </c>
       <c r="E20" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -8345,13 +8345,13 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -8645,10 +8645,10 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="E27" t="n">
         <v>60</v>
@@ -8695,10 +8695,10 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.75</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="E29" t="n">
         <v>60</v>
@@ -8795,10 +8795,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.95833333334</v>
       </c>
       <c r="E30" t="n">
         <v>60</v>
@@ -8895,10 +8895,10 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.125</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="E32" t="n">
         <v>60</v>
@@ -8971,12 +8971,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>공정변경(안료→투명), 배합액변경</t>
+          <t>공정변경(안료→염료), 배합액변경</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -8995,10 +8995,10 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.29166666666</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="E34" t="n">
         <v>60</v>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>공정변경(투명→염료), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -9045,10 +9045,10 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.4375</v>
       </c>
       <c r="E35" t="n">
         <v>60</v>
@@ -9095,10 +9095,10 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.5</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="E36" t="n">
         <v>60</v>
@@ -9136,22 +9136,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2270</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅27호기_WIN</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45792.0625</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -9159,24 +9159,24 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -9195,13 +9195,13 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45792.125</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -9209,14 +9209,14 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -9245,10 +9245,10 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.25</v>
       </c>
       <c r="E39" t="n">
         <v>60</v>
@@ -9271,12 +9271,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -9295,13 +9295,13 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.29166666666</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.3125</v>
       </c>
       <c r="E40" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -9309,24 +9309,24 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -9345,10 +9345,10 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.35416666666</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -9366,17 +9366,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -9395,42 +9395,42 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.375</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>공정변경(투명→SR)</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -9445,24 +9445,24 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="E43" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>60</v>
       </c>
       <c r="H43" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -9471,16 +9471,16 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -9495,42 +9495,42 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E44" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H44" t="n">
         <v>60</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="45">
@@ -9545,10 +9545,10 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -9566,17 +9566,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -9595,42 +9595,42 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45792.66666666666</v>
+        <v>45792.9375</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="E46" t="n">
         <v>60</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>60</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9645,10 +9645,10 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45792.75</v>
+        <v>45793</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -9666,17 +9666,17 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -9695,13 +9695,13 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45793.125</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -9709,24 +9709,24 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -9745,13 +9745,13 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -9759,24 +9759,24 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -9795,42 +9795,42 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="E50" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>30</v>
       </c>
       <c r="H50" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -9845,28 +9845,28 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.3125</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -9876,11 +9876,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -9895,25 +9895,25 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.39583333334</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="E52" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
         <v>60</v>
       </c>
-      <c r="H52" t="n">
-        <v>150</v>
-      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>20500</t>
@@ -9921,16 +9921,16 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -9945,42 +9945,42 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45793.52083333334</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="E53" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H53" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(투명→SR)</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>14.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -9995,42 +9995,92 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45793.77083333334</v>
+        <v>45793.66666666666</v>
       </c>
       <c r="E54" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G54" t="n">
         <v>30</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45793.72916666666</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45793.75</v>
+      </c>
+      <c r="E55" t="n">
         <v>30</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>순수셋업</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>30</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>변경없음(대기)</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>50</v>
+      <c r="L55" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.38</v>
+        <v>25.77</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,39 +627,57 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45792</v>
+        <v>45793</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>AGING</t>
-        </is>
+        <v>45793.02083333334</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DOWNTIME 기계 사용 불가 시간</t>
+          <t>32571_1300_4_M3_23312_T01639</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>['SW1250212001']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>32571</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="J2" t="n">
+        <v>180</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>T01639</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>['2025-03-24']</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
       <c r="O2" s="3" t="n">
-        <v>1</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -674,17 +692,17 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45793</v>
+        <v>45793.0625</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.08333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_23312_T01639</t>
+          <t>32571_1300_4_M3_23316_T01640</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -701,11 +719,11 @@
         <v>1300</v>
       </c>
       <c r="J3" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>T01639</t>
+          <t>T01640</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -739,17 +757,17 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45793.125</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_23316_T01640</t>
+          <t>32571_1300_4_M3_20500_T01514</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -766,11 +784,11 @@
         <v>1300</v>
       </c>
       <c r="J4" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>T01640</t>
+          <t>T01514</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -804,27 +822,27 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45793.125</v>
+        <v>45793.1875</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_20500_T01514</t>
+          <t>32041_1300_4_M10_20500_T0915</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['SW1250212001']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>32571</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -835,17 +853,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>T01514</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['2025-03-24']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -869,48 +887,48 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>32041_1300_4_M10_20500_T0915</t>
+          <t>31704_1300_4_M10_23311_T01521|T0915</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['SW1250911401']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1300</v>
       </c>
       <c r="J6" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T01521|T0915</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -934,48 +952,48 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.25</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31704_1300_4_M10_23311_T01521|T0915</t>
+          <t>32413_1300_4_M10_23311_T0915</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['SW1250911101']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>31704</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1300</v>
       </c>
       <c r="J7" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>T01521|T0915</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['2025-10-28']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA(WHITE)</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -999,48 +1017,48 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.25</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_23311_T0915</t>
+          <t>32453_1300_4_M10_23311_T0915|T02098</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['SW1251002001']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1300</v>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T0915|T02098</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1064,48 +1082,48 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.3125</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_23311_T0915|T02098</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['SW1251002401, SW1250911402']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1300</v>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>T0915|T02098</t>
+          <t>T0915|T01362</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1129,38 +1147,38 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.375</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_23311_T0915|T01362</t>
+          <t>32556_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1300</v>
       </c>
       <c r="J10" t="n">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>T0915|T01362</t>
+          <t>T01020</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1170,7 +1188,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1179,7 +1197,7 @@
         </is>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="11">
@@ -1194,34 +1212,34 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45793.375</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45793.4375</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>32556_1300_4_M10_20710_T01020</t>
+          <t>31772_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['SW1250908901, SW1251001801']</t>
+          <t>['SW1251002101']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1300</v>
       </c>
       <c r="J11" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1230,12 +1248,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1244,7 +1262,7 @@
         </is>
       </c>
       <c r="O11" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -1259,27 +1277,27 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45793.41666666666</v>
+        <v>45793.45833333334</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>31772_1300_4_M10_20710_T01020</t>
+          <t>32556_1300_4_M10_23100_T01226</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['SW1251002101']</t>
+          <t>['SW1250908901, SW1251001801']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>31772</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1290,17 +1308,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>T01020</t>
+          <t>T01226</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>WINDSHIELD 보호필름(점착개선)</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1324,48 +1342,48 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45793.45833333334</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.5</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>32556_1300_4_M10_23100_T01226</t>
+          <t>31772_1300_4_M10_23100_T01226|W2060</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['SW1250908901, SW1251001801']</t>
+          <t>['SW1251002101']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>31772</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1300</v>
       </c>
       <c r="J13" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>T01226</t>
+          <t>T01226|W2060</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>WINDSHIELD 보호필름(점착개선)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1389,48 +1407,48 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.5625</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>31772_1300_4_M10_23100_T01226|W2060</t>
+          <t>32470_1300_4_M11_23311_T0915</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['SW1251002101']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>31772</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1300</v>
       </c>
       <c r="J14" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>T01226|W2060</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>WINDSHIELD 보호필름(점착개선)</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1454,10 +1472,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45793.6875</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -1519,48 +1537,48 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45795.64583333334</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45793.625</v>
+        <v>45795.66666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_23311_T0915</t>
+          <t>32571_1300_4_M3_12400_T01713</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>1300</v>
       </c>
       <c r="J16" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T01713</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1584,27 +1602,27 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45795.64583333334</v>
+        <v>45795.70833333334</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45795.66666666666</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_12400_T01713</t>
+          <t>32041_1300_4_M10_12400_T01576</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['SW1250212001']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>32571</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1615,17 +1633,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>T01713</t>
+          <t>T01576</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['2025-03-24']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1649,48 +1667,48 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45795.70833333334</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45795.72916666666</v>
+        <v>45795.75</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>32041_1300_4_M10_12400_T01576</t>
+          <t>31704_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['SW1250911401']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1300</v>
       </c>
       <c r="J18" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T01576</t>
+          <t>T01288|T01715</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1714,34 +1732,34 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45795.72916666666</v>
+        <v>45795.75</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45795.75</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>31704_1300_4_M10_12400_T01288|T01715</t>
+          <t>32413_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['SW1250911101']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>31704</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1300</v>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1750,12 +1768,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2025-10-28']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA(WHITE)</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1779,48 +1797,48 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45795.75</v>
+        <v>45795.79166666666</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45795.77083333334</v>
+        <v>45795.8125</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_12400_T01288|T01715</t>
+          <t>32453_1300_4_M10_12400_T02244</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['SW1251002001']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1300</v>
       </c>
       <c r="J20" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>T01288|T01715</t>
+          <t>T02244</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1844,48 +1862,48 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45795.79166666666</v>
+        <v>45795.83333333334</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45795.8125</v>
+        <v>45795.85416666666</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_12400_T02244</t>
+          <t>31722_1300_4_M10_12400_T01716|T01362</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['SW1251002401, SW1250911402']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1300</v>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>T02244</t>
+          <t>T01716|T01362</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1909,48 +1927,48 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45795.83333333334</v>
+        <v>45796.0625</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45795.85416666666</v>
+        <v>45796.08333333334</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_12400_T01716|T01362</t>
+          <t>32470_1300_4_M11_12400_T01521</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>1300</v>
       </c>
       <c r="J22" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>T01716|T01362</t>
+          <t>T01521</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1965,57 +1983,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>코팅1호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45796.125</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45796.14583333334</v>
+        <v>45792.3125</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_12400_T01521</t>
+          <t>30234_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1300</v>
       </c>
       <c r="J23" t="n">
-        <v>230</v>
+        <v>630</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>T01521</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2024,7 +2042,7 @@
         </is>
       </c>
       <c r="O23" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="24">
@@ -2039,34 +2057,34 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.3125</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20906_None</t>
+          <t>30260_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1300</v>
       </c>
       <c r="J24" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2075,12 +2093,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2089,7 +2107,7 @@
         </is>
       </c>
       <c r="O24" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="25">
@@ -2104,34 +2122,34 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.5625</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20906_None</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1300</v>
       </c>
       <c r="J25" t="n">
-        <v>630</v>
+        <v>940</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2140,12 +2158,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2169,34 +2187,34 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.5625</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20906_None</t>
+          <t>32016_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1300</v>
       </c>
       <c r="J26" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2205,12 +2223,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2234,10 +2252,10 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.625</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -2302,31 +2320,31 @@
         <v>45792.64583333334</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20906_None</t>
+          <t>31739_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1300</v>
       </c>
       <c r="J28" t="n">
-        <v>3320</v>
+        <v>800</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2335,12 +2353,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2349,7 +2367,7 @@
         </is>
       </c>
       <c r="O28" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="29">
@@ -2364,34 +2382,34 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20906_None</t>
+          <t>32018_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1300</v>
       </c>
       <c r="J29" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2405,7 +2423,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2429,34 +2447,34 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.875</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20906_None</t>
+          <t>32019_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1300</v>
       </c>
       <c r="J30" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2470,7 +2488,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2494,34 +2512,34 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20906_None</t>
+          <t>32363_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1300</v>
       </c>
       <c r="J31" t="n">
-        <v>310</v>
+        <v>1810</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2535,7 +2553,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2544,7 +2562,7 @@
         </is>
       </c>
       <c r="O31" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -2559,34 +2577,34 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20906_None</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1300</v>
       </c>
       <c r="J32" t="n">
-        <v>250</v>
+        <v>3320</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2600,7 +2618,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2609,7 +2627,7 @@
         </is>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -2624,34 +2642,34 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.375</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20906_None</t>
+          <t>32267_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1300</v>
       </c>
       <c r="J33" t="n">
-        <v>1810</v>
+        <v>310</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2665,7 +2683,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2674,7 +2692,7 @@
         </is>
       </c>
       <c r="O33" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="34">
@@ -2689,34 +2707,34 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.4375</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20906_None</t>
+          <t>32265_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1300</v>
       </c>
       <c r="J34" t="n">
-        <v>940</v>
+        <v>3640</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2730,7 +2748,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2739,63 +2757,63 @@
         </is>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45792</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20906_None</t>
+          <t>31739_1300_4_M10_20902_T02600|W2032</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1300</v>
       </c>
       <c r="J35" t="n">
-        <v>3640</v>
+        <v>860</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02600|W2032</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2804,7 +2822,7 @@
         </is>
       </c>
       <c r="O35" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="36">
@@ -2819,48 +2837,48 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45792</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.125</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20902_T02600|W2032</t>
+          <t>30234_1300_4_M10_20902_T02560</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1300</v>
       </c>
       <c r="J36" t="n">
-        <v>860</v>
+        <v>660</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>T02600|W2032</t>
+          <t>T02560</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2884,38 +2902,38 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.1875</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20902_T02560</t>
+          <t>30260_1300_4_M10_20902_T02089</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1300</v>
       </c>
       <c r="J37" t="n">
-        <v>660</v>
+        <v>160</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>T02560</t>
+          <t>T02089</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2925,7 +2943,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2934,7 +2952,7 @@
         </is>
       </c>
       <c r="O37" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="38">
@@ -2949,48 +2967,48 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20902_T02089</t>
+          <t>31600_1300_4_M11_20902_T02295</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1300</v>
       </c>
       <c r="J38" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>T02089</t>
+          <t>T02295</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2999,7 +3017,7 @@
         </is>
       </c>
       <c r="O38" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="39">
@@ -3014,38 +3032,38 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.3125</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.375</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20902_T02295</t>
+          <t>31602_1300_4_M11_20902_T02390|T02293</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1300</v>
       </c>
       <c r="J39" t="n">
-        <v>580</v>
+        <v>990</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>T02295</t>
+          <t>T02390|T02293</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3055,7 +3073,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3064,7 +3082,7 @@
         </is>
       </c>
       <c r="O39" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="40">
@@ -3079,38 +3097,38 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.4375</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20902_T02319</t>
+          <t>32016_1300_4_M11_20902_W2039|T02496</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1300</v>
       </c>
       <c r="J40" t="n">
-        <v>3430</v>
+        <v>330</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>T02319</t>
+          <t>W2039|T02496</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3120,7 +3138,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3129,7 +3147,7 @@
         </is>
       </c>
       <c r="O40" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="41">
@@ -3144,38 +3162,38 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20902_W2082|T02498</t>
+          <t>32017_1300_4_M11_20902_T02319</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1300</v>
       </c>
       <c r="J41" t="n">
-        <v>3880</v>
+        <v>3430</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>W2082|T02498</t>
+          <t>T02319</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3185,7 +3203,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3209,38 +3227,38 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20902_t02604|W2051</t>
+          <t>32018_1300_4_M11_20902_T02507|T02320</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1300</v>
       </c>
       <c r="J42" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>t02604|W2051</t>
+          <t>T02507|T02320</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3250,7 +3268,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3274,38 +3292,38 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.75</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20902_T02390|T02293</t>
+          <t>32019_1300_4_M11_20902_T02508|T02321</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1300</v>
       </c>
       <c r="J43" t="n">
-        <v>990</v>
+        <v>330</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>T02390|T02293</t>
+          <t>T02508|T02321</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3315,7 +3333,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3324,7 +3342,7 @@
         </is>
       </c>
       <c r="O43" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="44">
@@ -3339,38 +3357,38 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.8125</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20902_T02508|T02321</t>
+          <t>32267_1300_4_M11_20902_t02604|W2051</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1300</v>
       </c>
       <c r="J44" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>T02508|T02321</t>
+          <t>t02604|W2051</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3380,7 +3398,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3404,7 +3422,7 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.875</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>45792.97916666666</v>
@@ -3414,28 +3432,28 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20902_W2039|T02496</t>
+          <t>32363_1300_4_M11_20902_T02619|T02326</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1300</v>
       </c>
       <c r="J45" t="n">
-        <v>330</v>
+        <v>1940</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>W2039|T02496</t>
+          <t>T02619|T02326</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3445,7 +3463,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3454,7 +3472,7 @@
         </is>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="46">
@@ -3472,35 +3490,35 @@
         <v>45793.02083333334</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45793.125</v>
+        <v>45793.1875</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20902_T02619|T02326</t>
+          <t>32265_1300_4_M11_20902_W2082|T02498</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1300</v>
       </c>
       <c r="J46" t="n">
-        <v>1940</v>
+        <v>3880</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>T02619|T02326</t>
+          <t>W2082|T02498</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3510,7 +3528,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3519,7 +3537,7 @@
         </is>
       </c>
       <c r="O46" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -3534,38 +3552,38 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.25</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20902_T02507|T02320</t>
+          <t>32267_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1300</v>
       </c>
       <c r="J47" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>T02507|T02320</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3575,7 +3593,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3599,48 +3617,48 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45793.4375</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20300_T02606</t>
+          <t>32265_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1300</v>
       </c>
       <c r="J48" t="n">
-        <v>2490</v>
+        <v>3710</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3649,7 +3667,7 @@
         </is>
       </c>
       <c r="O48" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="49">
@@ -3664,10 +3682,10 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -3729,38 +3747,38 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20300_T02624</t>
+          <t>25441_1300_4_M11_20300_T02606</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1300</v>
       </c>
       <c r="J50" t="n">
-        <v>2480</v>
+        <v>2490</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>T02624</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3770,7 +3788,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3794,38 +3812,38 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.6875</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.75</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20300_T02670</t>
+          <t>26300_1300_4_M11_20300_T02624</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1300</v>
       </c>
       <c r="J51" t="n">
-        <v>2460</v>
+        <v>2480</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>T02670</t>
+          <t>T02624</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3835,7 +3853,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3850,57 +3868,57 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45793.79166666666</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45793.85416666666</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20702_T02150|W1818</t>
+          <t>27870_1300_4_M11_20300_T02670</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1300</v>
       </c>
       <c r="J52" t="n">
-        <v>840</v>
+        <v>2460</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>T02670</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3909,7 +3927,7 @@
         </is>
       </c>
       <c r="O52" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="53">
@@ -3924,17 +3942,17 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.0625</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20500_WRF065</t>
+          <t>31739_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3951,11 +3969,11 @@
         <v>1300</v>
       </c>
       <c r="J53" t="n">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3974,7 +3992,7 @@
         </is>
       </c>
       <c r="O53" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="54">
@@ -3989,10 +4007,10 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.125</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.14583333334</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -4314,38 +4332,38 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.375</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20500_WRF065</t>
+          <t>31602_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1300</v>
       </c>
       <c r="J59" t="n">
-        <v>570</v>
+        <v>970</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4355,7 +4373,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4364,7 +4382,7 @@
         </is>
       </c>
       <c r="O59" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="60">
@@ -4379,38 +4397,38 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.4375</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20706_None</t>
+          <t>32016_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1300</v>
       </c>
       <c r="J60" t="n">
-        <v>3400</v>
+        <v>330</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4420,7 +4438,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4429,7 +4447,7 @@
         </is>
       </c>
       <c r="O60" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -4444,34 +4462,34 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="E61" t="n">
         <v>3</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20500_WRF065</t>
+          <t>31602_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1300</v>
       </c>
       <c r="J61" t="n">
-        <v>3360</v>
+        <v>960</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -4485,7 +4503,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4494,7 +4512,7 @@
         </is>
       </c>
       <c r="O61" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="62">
@@ -4509,38 +4527,38 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20702_T02150|W1818</t>
+          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>1300</v>
       </c>
       <c r="J62" t="n">
-        <v>3800</v>
+        <v>320</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>W2053|WRF065</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4550,7 +4568,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4559,7 +4577,7 @@
         </is>
       </c>
       <c r="O62" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -4574,38 +4592,38 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.5625</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20702_T02150|W1818</t>
+          <t>31600_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1300</v>
       </c>
       <c r="J63" t="n">
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4615,7 +4633,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4639,48 +4657,48 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20705_W2027|W1912</t>
+          <t>31739_1300_4_M10_20500_WRF065</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1300</v>
       </c>
       <c r="J64" t="n">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4704,38 +4722,38 @@
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20706_T02149|W1817</t>
+          <t>32017_1300_4_M11_20706_None</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1300</v>
       </c>
       <c r="J65" t="n">
-        <v>320</v>
+        <v>3400</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4745,7 +4763,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4754,7 +4772,7 @@
         </is>
       </c>
       <c r="O65" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="66">
@@ -4769,38 +4787,38 @@
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.70833333334</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45793</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20706_T02149|W1817</t>
+          <t>32018_1300_4_M11_20706_T02149</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1300</v>
       </c>
       <c r="J66" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4810,7 +4828,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4834,17 +4852,17 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20500_WRF065</t>
+          <t>32019_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4865,7 +4883,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4899,38 +4917,38 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45792.8125</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
+          <t>32018_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1300</v>
       </c>
       <c r="J68" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>W2053|WRF065</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4940,7 +4958,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4964,27 +4982,27 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20500_WRF065</t>
+          <t>32019_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5005,7 +5023,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5029,38 +5047,38 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45793.125</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20706_W1817</t>
+          <t>32267_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1300</v>
       </c>
       <c r="J70" t="n">
-        <v>1900</v>
+        <v>320</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>W1817</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5070,7 +5088,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5079,7 +5097,7 @@
         </is>
       </c>
       <c r="O70" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="71">
@@ -5094,38 +5112,38 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20706_T02149</t>
+          <t>32363_1300_4_M11_20706_W1817</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1300</v>
       </c>
       <c r="J71" t="n">
-        <v>260</v>
+        <v>1900</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>W1817</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5135,7 +5153,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5144,7 +5162,7 @@
         </is>
       </c>
       <c r="O71" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="72">
@@ -5159,34 +5177,34 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20500_WRF065</t>
+          <t>32363_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1300</v>
       </c>
       <c r="J72" t="n">
-        <v>260</v>
+        <v>1850</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -5200,7 +5218,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5209,7 +5227,7 @@
         </is>
       </c>
       <c r="O72" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="73">
@@ -5224,34 +5242,34 @@
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20500_WRF065</t>
+          <t>32017_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1300</v>
       </c>
       <c r="J73" t="n">
-        <v>1850</v>
+        <v>3360</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5265,7 +5283,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5274,7 +5292,7 @@
         </is>
       </c>
       <c r="O73" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="74">
@@ -5289,38 +5307,38 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.25</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20500_WRF065</t>
+          <t>32265_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1300</v>
       </c>
       <c r="J74" t="n">
-        <v>960</v>
+        <v>3800</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5330,7 +5348,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5339,7 +5357,7 @@
         </is>
       </c>
       <c r="O74" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="75">
@@ -5354,48 +5372,48 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20500_WRF065</t>
+          <t>25296_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1300</v>
       </c>
       <c r="J75" t="n">
-        <v>3710</v>
+        <v>2420</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5404,7 +5422,7 @@
         </is>
       </c>
       <c r="O75" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="76">
@@ -5419,38 +5437,38 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45793.75</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45793.64583333334</v>
+        <v>45793.8125</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20700_None</t>
+          <t>26300_1300_4_M11_20700_T02149</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1300</v>
       </c>
       <c r="J76" t="n">
-        <v>2420</v>
+        <v>2440</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5460,7 +5478,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5484,38 +5502,38 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45793.85416666666</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45793.91666666666</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20700_T02149</t>
+          <t>27870_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250908617']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1300</v>
       </c>
       <c r="J77" t="n">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5525,7 +5543,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5540,57 +5558,53 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C2270</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>코팅27호기_WIN</t>
-        </is>
-      </c>
+          <t>AGING</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" s="2" t="n">
-        <v>45793.75</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45795.64583333334</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>27870_1300_4_M11_20700_None</t>
+          <t>32571_1300_4_M3_20500_T01514_AGING</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['SW1250908617']</t>
+          <t>['SW1250212001']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>32571</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1300</v>
       </c>
       <c r="J78" t="n">
-        <v>2430</v>
+        <v>160</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T01514</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['2025-11-04']</t>
+          <t>['2025-03-24']</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5599,7 +5613,7 @@
         </is>
       </c>
       <c r="O78" s="3" t="n">
-        <v>0.0625</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="79">
@@ -5610,27 +5624,27 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" s="2" t="n">
-        <v>45793.14583333334</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45795.64583333334</v>
+        <v>45795.70833333334</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_20500_T01514_AGING</t>
+          <t>32041_1300_4_M10_20500_T0915_AGING</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['SW1250212001']</t>
+          <t>['SW1250911401']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>32571</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -5641,17 +5655,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>T01514</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['2025-03-24']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP Metallic Silver Satin(PEARL)</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5671,38 +5685,38 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45795.70833333334</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>32041_1300_4_M10_20500_T0915_AGING</t>
+          <t>32453_1300_4_M10_23311_T0915|T02098_AGING</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['SW1250911401']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1300</v>
       </c>
       <c r="J80" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T0915|T02098</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5712,7 +5726,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5732,48 +5746,48 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.25</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45795.72916666666</v>
+        <v>45795.75</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_23311_T0915|T02098_AGING</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362_AGING</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['SW1251002401, SW1250911402']</t>
+          <t>['SW1251001901']</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>31722</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1300</v>
       </c>
       <c r="J81" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>T0915|T02098</t>
+          <t>T0915|T01362</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-27']</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-SGA N</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -5793,48 +5807,48 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45795.75</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_23311_T0915|T01362_AGING</t>
+          <t>31704_1300_4_M10_23311_T01521|T0915_AGING</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['SW1251001901']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>31722</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1300</v>
       </c>
       <c r="J82" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>T0915|T01362</t>
+          <t>T01521|T0915</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['2025-10-27']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>PPF-NS-SGA N</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5854,48 +5868,48 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45795.77083333334</v>
+        <v>45795.83333333334</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>31704_1300_4_M10_23311_T01521|T0915_AGING</t>
+          <t>32413_1300_4_M10_23311_T0915_AGING</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['SW1250911101']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>31704</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1300</v>
       </c>
       <c r="J83" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>T01521|T0915</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['2025-10-28']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA(WHITE)</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -5915,34 +5929,34 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.5625</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45795.83333333334</v>
+        <v>45796.0625</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_23311_T0915_AGING</t>
+          <t>32470_1300_4_M11_23311_T0915_AGING</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['SW1251002001']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1300</v>
       </c>
       <c r="J84" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -5951,12 +5965,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-11-04']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -5965,67 +5979,6 @@
         </is>
       </c>
       <c r="O84" s="3" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>AGING</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" s="2" t="n">
-        <v>45793.625</v>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>45796.125</v>
-      </c>
-      <c r="E85" t="n">
-        <v>2</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>32470_1300_4_M11_23311_T0915_AGING</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['SW1251003601']</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>32470</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1300</v>
-      </c>
-      <c r="J85" t="n">
-        <v>230</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>T0915</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>['2025-11-04']</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="O85" s="3" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -6125,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="3">
@@ -6143,22 +6096,22 @@
         <v>2130</v>
       </c>
       <c r="D3" t="n">
-        <v>35.68</v>
+        <v>36.22</v>
       </c>
       <c r="E3" t="n">
-        <v>3300</v>
+        <v>3210</v>
       </c>
       <c r="F3" t="n">
-        <v>55.28</v>
+        <v>54.59</v>
       </c>
       <c r="G3" t="n">
         <v>540</v>
       </c>
       <c r="H3" t="n">
-        <v>9.050000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="I3" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="4">
@@ -6176,13 +6129,13 @@
         <v>960</v>
       </c>
       <c r="D4" t="n">
-        <v>16.08</v>
+        <v>16.33</v>
       </c>
       <c r="E4" t="n">
-        <v>1320</v>
+        <v>960</v>
       </c>
       <c r="F4" t="n">
-        <v>22.11</v>
+        <v>16.33</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6191,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="5">
@@ -6206,25 +6159,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1410</v>
+        <v>1590</v>
       </c>
       <c r="D5" t="n">
-        <v>23.62</v>
+        <v>27.04</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G5" t="n">
-        <v>900</v>
+        <v>960</v>
       </c>
       <c r="H5" t="n">
-        <v>15.08</v>
+        <v>16.33</v>
       </c>
       <c r="I5" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="6">
@@ -6239,25 +6192,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1560</v>
+        <v>1380</v>
       </c>
       <c r="D6" t="n">
-        <v>26.13</v>
+        <v>23.47</v>
       </c>
       <c r="E6" t="n">
-        <v>330</v>
+        <v>840</v>
       </c>
       <c r="F6" t="n">
-        <v>5.53</v>
+        <v>14.29</v>
       </c>
       <c r="G6" t="n">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="H6" t="n">
-        <v>11.06</v>
+        <v>8.16</v>
       </c>
       <c r="I6" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="7">
@@ -6290,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="8">
@@ -6323,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="9">
@@ -6356,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="10">
@@ -6389,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="11">
@@ -6422,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="12">
@@ -6455,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="13">
@@ -6488,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5970</v>
+        <v>5880</v>
       </c>
     </row>
   </sheetData>
@@ -6598,7 +6551,7 @@
         <v>45931</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6846,7 +6799,7 @@
         <v>45964</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45793.0625</v>
+        <v>45792.875</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -6877,7 +6830,7 @@
         <v>45964</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -6908,7 +6861,7 @@
         <v>45964</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.625</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -6939,7 +6892,7 @@
         <v>45964</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -6970,7 +6923,7 @@
         <v>45964</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.1875</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -7001,7 +6954,7 @@
         <v>45964</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.375</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -7032,7 +6985,7 @@
         <v>45964</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45793.70833333334</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -7063,7 +7016,7 @@
         <v>45964</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45792.5625</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -7094,7 +7047,7 @@
         <v>45964</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -7125,7 +7078,7 @@
         <v>45965</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45793.64583333334</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -7156,7 +7109,7 @@
         <v>45965</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45793.72916666666</v>
+        <v>45793.8125</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -7187,7 +7140,7 @@
         <v>45965</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45793.6875</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -7218,7 +7171,7 @@
         <v>45965</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45793.91666666666</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -7249,7 +7202,7 @@
         <v>45965</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45796.14583333334</v>
+        <v>45796.08333333334</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -7313,7 +7266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7721,12 +7674,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -7745,42 +7698,42 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45793.5625</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>23311</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>23311</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -7795,13 +7748,13 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45793.625</v>
+        <v>45793.6875</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>45795.64583333334</v>
       </c>
       <c r="E10" t="n">
-        <v>2910</v>
+        <v>2820</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -7809,14 +7762,14 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H10" t="n">
-        <v>2850</v>
+        <v>2790</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -7826,11 +7779,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="11">
@@ -7998,10 +7951,10 @@
         <v>45795.85416666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45796.125</v>
+        <v>45796.0625</v>
       </c>
       <c r="E14" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -8012,7 +7965,7 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -8030,7 +7983,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -8045,13 +7998,13 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="E15" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -8062,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -8095,13 +8048,13 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.625</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -8112,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -8145,13 +8098,13 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.6875</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E17" t="n">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -8162,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -8195,13 +8148,13 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.875</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="E18" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -8212,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -8245,13 +8198,13 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.1875</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="E19" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -8262,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -8295,13 +8248,13 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45793.27083333334</v>
+        <v>45793.375</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.4375</v>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -8312,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -8336,51 +8289,51 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H21" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -8395,10 +8348,10 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45792.125</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
@@ -8445,10 +8398,10 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.1875</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="E23" t="n">
         <v>60</v>
@@ -8495,10 +8448,10 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.3125</v>
       </c>
       <c r="E24" t="n">
         <v>60</v>
@@ -8545,10 +8498,10 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.375</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E25" t="n">
         <v>60</v>
@@ -8595,10 +8548,10 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
+        <v>45792.4375</v>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>45792.47916666666</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>45792.52083333334</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -8645,10 +8598,10 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
+        <v>45792.64583333334</v>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>45792.6875</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>45792.72916666666</v>
       </c>
       <c r="E27" t="n">
         <v>60</v>
@@ -8695,10 +8648,10 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
+        <v>45792.70833333334</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>45792.75</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>45792.79166666666</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -8745,10 +8698,10 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.8125</v>
       </c>
       <c r="E29" t="n">
         <v>60</v>
@@ -8795,10 +8748,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.95833333334</v>
+        <v>45792.875</v>
       </c>
       <c r="E30" t="n">
         <v>60</v>
@@ -8895,10 +8848,10 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.125</v>
+        <v>45793.1875</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="E32" t="n">
         <v>60</v>
@@ -8921,12 +8874,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(안료→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -8945,42 +8898,42 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.25</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>공정변경(안료→염료), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -8995,10 +8948,10 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.29166666666</v>
+        <v>45793.4375</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="E34" t="n">
         <v>60</v>
@@ -9016,17 +8969,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>20300</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>20300</t>
-        </is>
-      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→염료), 배합액변경</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -9045,10 +8998,10 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="E35" t="n">
         <v>60</v>
@@ -9095,10 +9048,10 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.5</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.6875</v>
       </c>
       <c r="E36" t="n">
         <v>60</v>
@@ -9136,22 +9089,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45793.75</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45793.79166666666</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -9159,24 +9112,24 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -9195,42 +9148,42 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
+        <v>45792.0625</v>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>45792.125</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>45792.16666666666</v>
-      </c>
       <c r="E38" t="n">
+        <v>90</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>30</v>
+      </c>
+      <c r="H38" t="n">
         <v>60</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>순수셋업</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>60</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="39">
@@ -9245,25 +9198,25 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.14583333334</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.1875</v>
       </c>
       <c r="E39" t="n">
         <v>60</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>60</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>20500</t>
@@ -9271,16 +9224,16 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -9295,13 +9248,13 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.25</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -9309,24 +9262,24 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>20702</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>20705</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -9345,10 +9298,10 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.29166666666</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.35416666666</v>
+        <v>45792.3125</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -9366,17 +9319,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
           <t>20705</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -9395,42 +9348,42 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
+        <v>45792.33333333334</v>
+      </c>
+      <c r="D42" s="2" t="n">
         <v>45792.375</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>45792.47916666666</v>
-      </c>
       <c r="E42" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>60</v>
       </c>
-      <c r="H42" t="n">
-        <v>90</v>
-      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9445,13 +9398,13 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.4375</v>
       </c>
       <c r="E43" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -9459,24 +9412,24 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -9495,42 +9448,42 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E44" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>30</v>
       </c>
       <c r="H44" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>33.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -9545,42 +9498,42 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45792.5625</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.60416666666</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>20705</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9595,10 +9548,10 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45792.9375</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.77083333334</v>
       </c>
       <c r="E46" t="n">
         <v>60</v>
@@ -9645,10 +9598,10 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45793</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.8125</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -9695,10 +9648,10 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45793.08333333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793.125</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="E48" t="n">
         <v>60</v>
@@ -9721,7 +9674,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -9745,42 +9698,42 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45793.16666666666</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>30</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>20706</t>
-        </is>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>배합액변경</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="50">
@@ -9795,10 +9748,10 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.02083333334</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.04166666666</v>
       </c>
       <c r="E50" t="n">
         <v>30</v>
@@ -9845,24 +9798,24 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.3125</v>
+        <v>45793.20833333334</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.25</v>
       </c>
       <c r="E51" t="n">
         <v>60</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H51" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -9871,16 +9824,16 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -9895,33 +9848,33 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45793.39583333334</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45793.54166666666</v>
       </c>
       <c r="E52" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H52" t="n">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -9930,7 +9883,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -9945,28 +9898,28 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45793.75</v>
       </c>
       <c r="E53" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -9976,11 +9929,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR)</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>100</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="54">
@@ -9995,24 +9948,24 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45793.64583333334</v>
+        <v>45793.8125</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45793.66666666666</v>
+        <v>45793.85416666666</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G54" t="n">
         <v>30</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -10030,57 +9983,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>코팅27호기_WIN</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45793.72916666666</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>45793.75</v>
-      </c>
-      <c r="E55" t="n">
-        <v>30</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>순수셋업</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>30</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>변경없음(대기)</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/0829 스케줄링결과.xlsx
+++ b/python_engine/data/output/0829 스케줄링결과.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -507,15 +507,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>장비가동률(전체평균)</t>
+          <t>납기 지각 제품 개수</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.77</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>개</t>
         </is>
       </c>
     </row>
@@ -1410,35 +1410,35 @@
         <v>45793.54166666666</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_23311_T0915</t>
+          <t>25441_1300_4_M11_20700_T0873</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['SW1251003601']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>32470</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>1300</v>
       </c>
       <c r="J14" t="n">
-        <v>230</v>
+        <v>2440</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T0873</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="O14" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -1472,38 +1472,38 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45793.64583333334</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.625</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20700_T0873</t>
+          <t>32470_1300_4_M11_23311_T0915</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1251003601']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1300</v>
       </c>
       <c r="J15" t="n">
-        <v>2440</v>
+        <v>230</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>T0873</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="O15" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1667,34 +1667,34 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45795.72916666666</v>
+        <v>45795.75</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45795.75</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>31704_1300_4_M10_12400_T01288|T01715</t>
+          <t>32413_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['SW1250911101']</t>
+          <t>['SW1251002001']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>31704</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1300</v>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1703,12 +1703,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['2025-10-28']</t>
+          <t>['2025-10-31']</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA(WHITE)</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1732,48 +1732,48 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45795.75</v>
+        <v>45795.77083333334</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45795.77083333334</v>
+        <v>45795.79166666666</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_12400_T01288|T01715</t>
+          <t>32453_1300_4_M10_12400_T02244</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['SW1251002001']</t>
+          <t>['SW1251002401, SW1250911402']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1300</v>
       </c>
       <c r="J19" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T01288|T01715</t>
+          <t>T02244</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['2025-10-31']</t>
+          <t>['2025-10-17']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1797,48 +1797,48 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45795.79166666666</v>
+        <v>45795.8125</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45795.8125</v>
+        <v>45795.83333333334</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_12400_T02244</t>
+          <t>31704_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['SW1251002401, SW1250911402']</t>
+          <t>['SW1250911101']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>31704</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1300</v>
       </c>
       <c r="J20" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>T02244</t>
+          <t>T01288|T01715</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['2025-10-17']</t>
+          <t>['2025-10-28']</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>PPF-NS-TGA(WHITE)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1862,10 +1862,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45795.83333333334</v>
+        <v>45795.85416666666</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45795.85416666666</v>
+        <v>45795.875</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45796.0625</v>
+        <v>45796.125</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45796.08333333334</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -1992,34 +1992,34 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.125</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20906_None</t>
+          <t>31739_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1300</v>
       </c>
       <c r="J23" t="n">
-        <v>630</v>
+        <v>800</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2028,12 +2028,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2057,34 +2057,34 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
+        <v>45792.27083333334</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>45792.3125</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>45792.33333333334</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20906_None</t>
+          <t>30234_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1300</v>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>630</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="O24" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="25">
@@ -2122,34 +2122,34 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.3125</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20906_None</t>
+          <t>30260_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1300</v>
       </c>
       <c r="J25" t="n">
-        <v>940</v>
+        <v>160</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="O25" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45792.5</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -2252,34 +2252,34 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
+        <v>45792.54166666666</v>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>45792.58333333334</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>45792.625</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20906_None</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1300</v>
       </c>
       <c r="J27" t="n">
-        <v>570</v>
+        <v>940</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2317,34 +2317,34 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.625</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20906_None</t>
+          <t>31600_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>1300</v>
       </c>
       <c r="J28" t="n">
-        <v>800</v>
+        <v>570</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2353,12 +2353,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2382,34 +2382,34 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.9375</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20906_None</t>
+          <t>32019_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>1300</v>
       </c>
       <c r="J29" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2447,34 +2447,34 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.875</v>
+        <v>45793.0625</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20906_None</t>
+          <t>32363_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>1300</v>
       </c>
       <c r="J30" t="n">
-        <v>310</v>
+        <v>1810</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="O30" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -2512,34 +2512,34 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20906_None</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1300</v>
       </c>
       <c r="J31" t="n">
-        <v>1810</v>
+        <v>3320</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="O31" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -2577,34 +2577,34 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.4375</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20906_None</t>
+          <t>32018_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1300</v>
       </c>
       <c r="J32" t="n">
-        <v>3320</v>
+        <v>250</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="O32" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -2642,34 +2642,34 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.4375</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.375</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20906_None</t>
+          <t>32265_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1300</v>
       </c>
       <c r="J33" t="n">
-        <v>310</v>
+        <v>3640</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="O33" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="34">
@@ -2707,34 +2707,34 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.625</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20906_None</t>
+          <t>32267_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1300</v>
       </c>
       <c r="J34" t="n">
-        <v>3640</v>
+        <v>310</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="O34" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="35">
@@ -3172,28 +3172,28 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20902_T02319</t>
+          <t>32265_1300_4_M11_20902_W2082|T02498</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1300</v>
       </c>
       <c r="J41" t="n">
-        <v>3430</v>
+        <v>3880</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>T02319</t>
+          <t>W2082|T02498</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3230,35 +3230,35 @@
         <v>45792.6875</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20902_T02507|T02320</t>
+          <t>32363_1300_4_M11_20902_T02619|T02326</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1300</v>
       </c>
       <c r="J42" t="n">
-        <v>270</v>
+        <v>1940</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>T02507|T02320</t>
+          <t>T02619|T02326</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="O42" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="43">
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -3357,38 +3357,38 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45793.0625</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20902_t02604|W2051</t>
+          <t>32017_1300_4_M11_20902_T02319</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1300</v>
       </c>
       <c r="J44" t="n">
-        <v>320</v>
+        <v>3430</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>t02604|W2051</t>
+          <t>T02319</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="O44" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="45">
@@ -3422,38 +3422,38 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.875</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45793.125</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20902_T02619|T02326</t>
+          <t>32018_1300_4_M11_20902_T02507|T02320</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1300</v>
       </c>
       <c r="J45" t="n">
-        <v>1940</v>
+        <v>270</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>T02619|T02326</t>
+          <t>T02507|T02320</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="O45" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>45793.1875</v>
@@ -3497,28 +3497,28 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20902_W2082|T02498</t>
+          <t>32267_1300_4_M11_20902_t02604|W2051</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1300</v>
       </c>
       <c r="J46" t="n">
-        <v>3880</v>
+        <v>320</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>W2082|T02498</t>
+          <t>t02604|W2051</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="O46" s="3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="47">
@@ -3555,31 +3555,31 @@
         <v>45793.22916666666</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20500_WRF065</t>
+          <t>32265_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1300</v>
       </c>
       <c r="J47" t="n">
-        <v>320</v>
+        <v>3710</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="O47" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="48">
@@ -3617,34 +3617,34 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45793.375</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20500_WRF065</t>
+          <t>32267_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1300</v>
       </c>
       <c r="J48" t="n">
-        <v>3710</v>
+        <v>320</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="O48" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="49">
@@ -3682,38 +3682,38 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
+        <v>45793.41666666666</v>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>45793.47916666666</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>45793.54166666666</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20300_T02668</t>
+          <t>25441_1300_4_M11_20300_T02606</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250908612']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1300</v>
       </c>
       <c r="J49" t="n">
-        <v>2440</v>
+        <v>2490</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>T02668</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3747,38 +3747,38 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
+        <v>45793.52083333334</v>
+      </c>
+      <c r="D50" s="2" t="n">
         <v>45793.58333333334</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>45793.64583333334</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>25441_1300_4_M11_20300_T02606</t>
+          <t>26300_1300_4_M11_20300_T02624</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['SW1250908612']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1300</v>
       </c>
       <c r="J50" t="n">
-        <v>2490</v>
+        <v>2480</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>T02624</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3812,38 +3812,38 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
+        <v>45793.625</v>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>45793.6875</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>45793.75</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20300_T02624</t>
+          <t>25296_1300_4_M11_20300_T02668</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1300</v>
       </c>
       <c r="J51" t="n">
-        <v>2480</v>
+        <v>2440</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>T02624</t>
+          <t>T02668</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3877,10 +3877,10 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
+        <v>45793.72916666666</v>
+      </c>
+      <c r="D52" s="2" t="n">
         <v>45793.79166666666</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>45793.85416666666</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -4007,48 +4007,48 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
+        <v>45792.08333333334</v>
+      </c>
+      <c r="D54" s="2" t="n">
         <v>45792.125</v>
       </c>
-      <c r="D54" s="2" t="n">
-        <v>45792.14583333334</v>
-      </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20500_W2010</t>
+          <t>31739_1300_4_M10_20500_WRF065</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250806608']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>31739</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1300</v>
       </c>
       <c r="J54" t="n">
-        <v>650</v>
+        <v>820</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>W2010</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['2025-10-21']</t>
+          <t>['2025-10-01']</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>RAINBOW(KOR)-ND-I90 3390</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4057,7 +4057,7 @@
         </is>
       </c>
       <c r="O54" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="55">
@@ -4072,38 +4072,38 @@
         </is>
       </c>
       <c r="C55" s="2" t="n">
+        <v>45792.16666666666</v>
+      </c>
+      <c r="D55" s="2" t="n">
         <v>45792.1875</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>45792.20833333334</v>
       </c>
       <c r="E55" t="n">
         <v>2</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20500_WRF065|W2010</t>
+          <t>30234_1300_4_M10_20500_W2010</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1300</v>
       </c>
       <c r="J55" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>WRF065|W2010</t>
+          <t>W2010</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4137,38 +4137,38 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.1875</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20702_T02150</t>
+          <t>30260_1300_4_M10_20500_WRF065|W2010</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['SW1250905625']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>30234</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1300</v>
       </c>
       <c r="J56" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>T02150</t>
+          <t>WRF065|W2010</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S7 3470</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4202,38 +4202,38 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
+        <v>45792.25</v>
+      </c>
+      <c r="D57" s="2" t="n">
         <v>45792.27083333334</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>45792.29166666666</v>
       </c>
       <c r="E57" t="n">
         <v>3</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20702_T02150|W1818</t>
+          <t>30234_1300_4_M10_20702_T02150</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['SW1250905618']</t>
+          <t>['SW1250905625']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>30234</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1300</v>
       </c>
       <c r="J57" t="n">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>T02150</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Phantom(개선2)-ND-S9 1990</t>
+          <t>Phantom(개선2)-ND-S7 3470</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4267,48 +4267,48 @@
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.29166666666</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20705_W2027|W1912</t>
+          <t>30260_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250905618']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1300</v>
       </c>
       <c r="J58" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>W2027|W1912</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['2025-11-03']</t>
+          <t>['2025-10-21']</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>Phantom(개선2)-ND-S9 1990</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4332,34 +4332,34 @@
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.3125</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20705_W2027|W1912</t>
+          <t>31600_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1300</v>
       </c>
       <c r="J59" t="n">
-        <v>970</v>
+        <v>580</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="O59" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="60">
@@ -4397,38 +4397,38 @@
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.375</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20706_T02149|W1817</t>
+          <t>31602_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['SW1250906902']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1300</v>
       </c>
       <c r="J60" t="n">
-        <v>330</v>
+        <v>970</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>T02149|W1817</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="O60" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="61">
@@ -4462,38 +4462,38 @@
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.4375</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20500_WRF065</t>
+          <t>32016_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['SW1250904701']</t>
+          <t>['SW1250906902']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>31602</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1300</v>
       </c>
       <c r="J61" t="n">
-        <v>960</v>
+        <v>330</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>WRF065</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="O61" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="62">
@@ -4527,10 +4527,10 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45792.54166666666</v>
+        <v>45792.5</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
@@ -4592,34 +4592,34 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
+        <v>45792.5</v>
+      </c>
+      <c r="D63" s="2" t="n">
         <v>45792.54166666666</v>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>45792.5625</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20500_WRF065</t>
+          <t>31602_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['SW1250906901']</t>
+          <t>['SW1250904701']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>31600</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1300</v>
       </c>
       <c r="J63" t="n">
-        <v>570</v>
+        <v>960</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="O63" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="64">
@@ -4657,34 +4657,34 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.5625</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20500_WRF065</t>
+          <t>31600_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['SW1250806608']</t>
+          <t>['SW1250906901']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>31739</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1300</v>
       </c>
       <c r="J64" t="n">
-        <v>820</v>
+        <v>570</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -4693,12 +4693,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['2025-10-01']</t>
+          <t>['2025-11-03']</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-I90 3390</t>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="O64" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="65">
@@ -4725,35 +4725,35 @@
         <v>45792.64583333334</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.72916666666</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20706_None</t>
+          <t>32265_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250904703']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1300</v>
       </c>
       <c r="J65" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="O65" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="66">
@@ -4787,38 +4787,38 @@
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20706_T02149</t>
+          <t>32363_1300_4_M11_20706_W1817</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>1300</v>
       </c>
       <c r="J66" t="n">
-        <v>260</v>
+        <v>1900</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>W1817</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="O66" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="67">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45792.79166666666</v>
+        <v>45792.875</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -4917,34 +4917,34 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20500_WRF065</t>
+          <t>32019_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['SW1250906903']</t>
+          <t>['SW1250906904']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>32018</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1300</v>
       </c>
       <c r="J68" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4982,34 +4982,34 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20500_WRF065</t>
+          <t>32363_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['SW1250906904']</t>
+          <t>['SW1250904707']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1300</v>
       </c>
       <c r="J69" t="n">
-        <v>320</v>
+        <v>1850</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="O69" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="70">
@@ -5047,38 +5047,38 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45792.89583333334</v>
+        <v>45793.0625</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45793.125</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20702_T02150|W1818</t>
+          <t>32017_1300_4_M11_20706_None</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['SW1250904705']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>32267</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1300</v>
       </c>
       <c r="J70" t="n">
-        <v>320</v>
+        <v>3400</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>T02150|W1818</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="O70" s="3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="71">
@@ -5112,38 +5112,38 @@
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45793.125</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20706_W1817</t>
+          <t>32018_1300_4_M11_20706_T02149</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1300</v>
       </c>
       <c r="J71" t="n">
-        <v>1900</v>
+        <v>260</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>W1817</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="O71" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="72">
@@ -5177,34 +5177,34 @@
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20500_WRF065</t>
+          <t>32017_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['SW1250904707']</t>
+          <t>['SW1250904708']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>32363</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1300</v>
       </c>
       <c r="J72" t="n">
-        <v>1850</v>
+        <v>3360</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="O72" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="73">
@@ -5242,34 +5242,34 @@
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.29166666666</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20500_WRF065</t>
+          <t>32018_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['SW1250904708']</t>
+          <t>['SW1250906903']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>32017</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1300</v>
       </c>
       <c r="J73" t="n">
-        <v>3360</v>
+        <v>260</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="O73" s="3" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -5307,34 +5307,34 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20702_T02150|W1818</t>
+          <t>32267_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['SW1250904703']</t>
+          <t>['SW1250904705']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1300</v>
       </c>
       <c r="J74" t="n">
-        <v>3800</v>
+        <v>320</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="O74" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="75">
@@ -5372,38 +5372,38 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20700_None</t>
+          <t>26300_1300_4_M11_20700_T02149</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['SW1250908604']</t>
+          <t>['SW1250908609']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1300</v>
       </c>
       <c r="J75" t="n">
-        <v>2420</v>
+        <v>2440</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5437,38 +5437,38 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
+        <v>45793.6875</v>
+      </c>
+      <c r="D76" s="2" t="n">
         <v>45793.75</v>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>45793.8125</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>26300_1300_4_M11_20700_T02149</t>
+          <t>25296_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['SW1250908609']</t>
+          <t>['SW1250908604']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1300</v>
       </c>
       <c r="J76" t="n">
-        <v>2440</v>
+        <v>2420</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5502,10 +5502,10 @@
         </is>
       </c>
       <c r="C77" s="2" t="n">
+        <v>45793.79166666666</v>
+      </c>
+      <c r="D77" s="2" t="n">
         <v>45793.85416666666</v>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>45793.91666666666</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -5929,10 +5929,10 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.625</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45796.0625</v>
+        <v>45796.125</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="3">
@@ -6096,22 +6096,22 @@
         <v>2130</v>
       </c>
       <c r="D3" t="n">
-        <v>36.22</v>
+        <v>35.68</v>
       </c>
       <c r="E3" t="n">
-        <v>3210</v>
+        <v>3270</v>
       </c>
       <c r="F3" t="n">
-        <v>54.59</v>
+        <v>54.77</v>
       </c>
       <c r="G3" t="n">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="H3" t="n">
-        <v>9.18</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="4">
@@ -6129,13 +6129,13 @@
         <v>960</v>
       </c>
       <c r="D4" t="n">
-        <v>16.33</v>
+        <v>16.08</v>
       </c>
       <c r="E4" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="F4" t="n">
-        <v>16.33</v>
+        <v>20.1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="5">
@@ -6162,22 +6162,22 @@
         <v>1590</v>
       </c>
       <c r="D5" t="n">
-        <v>27.04</v>
+        <v>26.63</v>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>2.04</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
         <v>960</v>
       </c>
       <c r="H5" t="n">
-        <v>16.33</v>
+        <v>16.08</v>
       </c>
       <c r="I5" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="6">
@@ -6195,22 +6195,22 @@
         <v>1380</v>
       </c>
       <c r="D6" t="n">
-        <v>23.47</v>
+        <v>23.12</v>
       </c>
       <c r="E6" t="n">
-        <v>840</v>
+        <v>630</v>
       </c>
       <c r="F6" t="n">
-        <v>14.29</v>
+        <v>10.55</v>
       </c>
       <c r="G6" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="H6" t="n">
-        <v>8.16</v>
+        <v>10.05</v>
       </c>
       <c r="I6" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="7">
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="8">
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="9">
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="10">
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="11">
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="12">
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="13">
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5880</v>
+        <v>5970</v>
       </c>
     </row>
   </sheetData>
@@ -6551,7 +6551,7 @@
         <v>45931</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>45957</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45795.85416666666</v>
+        <v>45795.875</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>45958</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45795.75</v>
+        <v>45795.83333333334</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45964</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.9375</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>45964</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45792.85416666666</v>
+        <v>45793.4375</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>45964</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45793.35416666666</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45964</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.0625</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>45964</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45793.375</v>
+        <v>45793.625</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>45964</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45792.58333333334</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>45964</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45792.58333333334</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>45965</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.75</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>45965</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45965</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>45965</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45793.91666666666</v>
+        <v>45793.85416666666</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>45965</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45796.08333333334</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v>45795.8125</v>
+        <v>45795.79166666666</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7674,12 +7674,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>23311</t>
+          <t>20700</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -7698,42 +7698,42 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45793.5625</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45793.64583333334</v>
+        <v>45793.60416666666</v>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>23311</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -7748,13 +7748,13 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.625</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>45795.64583333334</v>
       </c>
       <c r="E10" t="n">
-        <v>2820</v>
+        <v>2910</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -7762,14 +7762,14 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>2790</v>
+        <v>2850</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20700</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -7779,11 +7779,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="11">
@@ -7848,10 +7848,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45795.77083333334</v>
+        <v>45795.72916666666</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45795.79166666666</v>
+        <v>45795.75</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
@@ -7898,10 +7898,10 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
+        <v>45795.79166666666</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>45795.8125</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>45795.83333333334</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
@@ -7948,24 +7948,24 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
+        <v>45795.83333333334</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>45795.85416666666</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>45796.0625</v>
-      </c>
       <c r="E14" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -7983,57 +7983,57 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>코팅25호기_WIN</t>
+          <t>코팅1호기_WIN</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45795.875</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45792.52083333334</v>
+        <v>45796.125</v>
       </c>
       <c r="E15" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20906</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -8048,13 +8048,13 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45792.625</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -8098,13 +8098,13 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.5</v>
       </c>
       <c r="E17" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -8148,13 +8148,13 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.52083333334</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45793.10416666666</v>
+        <v>45792.54166666666</v>
       </c>
       <c r="E18" t="n">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -8198,13 +8198,13 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45792.625</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45792.91666666666</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -8248,13 +8248,13 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45793.375</v>
+        <v>45792.9375</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -8289,51 +8289,51 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2250</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>코팅26호기_WIN</t>
+          <t>코팅25호기_WIN</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45792.04166666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45792.08333333334</v>
+        <v>45793.27083333334</v>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20902</t>
+          <t>20906</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45792.125</v>
+        <v>45792.04166666666</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45792.16666666666</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.125</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45792.22916666666</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E23" t="n">
         <v>60</v>
@@ -8448,10 +8448,10 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45792.27083333334</v>
+        <v>45792.1875</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.22916666666</v>
       </c>
       <c r="E24" t="n">
         <v>60</v>
@@ -8498,10 +8498,10 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.27083333334</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.3125</v>
       </c>
       <c r="E25" t="n">
         <v>60</v>
@@ -8548,10 +8548,10 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.375</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -8598,10 +8598,10 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45792.64583333334</v>
+        <v>45792.4375</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45792.6875</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E27" t="n">
         <v>60</v>
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45792.70833333334</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45792.75</v>
+        <v>45792.6875</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -8698,10 +8698,10 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.79166666666</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45792.8125</v>
+        <v>45792.83333333334</v>
       </c>
       <c r="E29" t="n">
         <v>60</v>
@@ -8748,10 +8748,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45792.83333333334</v>
+        <v>45792.85416666666</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45792.875</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="E30" t="n">
         <v>60</v>
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45793.10416666666</v>
       </c>
       <c r="E31" t="n">
         <v>60</v>
@@ -8848,10 +8848,10 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45793.1875</v>
+        <v>45793.125</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45793.22916666666</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="E32" t="n">
         <v>60</v>
@@ -8874,12 +8874,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>공정변경(안료→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -8898,42 +8898,42 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.1875</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45793.33333333334</v>
+        <v>45793.22916666666</v>
       </c>
       <c r="E33" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H33" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(안료→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -8948,24 +8948,24 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45793.4375</v>
+        <v>45793.33333333334</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45793.47916666666</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="E34" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -8974,16 +8974,16 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>20300</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>공정변경(투명→염료), 배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8998,10 +8998,10 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45793.54166666666</v>
+        <v>45793.375</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45793.58333333334</v>
+        <v>45793.41666666666</v>
       </c>
       <c r="E35" t="n">
         <v>60</v>
@@ -9019,17 +9019,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>20300</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>20300</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→염료), 배합액변경</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -9048,10 +9048,10 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45793.64583333334</v>
+        <v>45793.47916666666</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45793.6875</v>
+        <v>45793.52083333334</v>
       </c>
       <c r="E36" t="n">
         <v>60</v>
@@ -9098,10 +9098,10 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45793.75</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45793.79166666666</v>
+        <v>45793.625</v>
       </c>
       <c r="E37" t="n">
         <v>60</v>
@@ -9139,51 +9139,51 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2260</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>코팅27호기_WIN</t>
+          <t>코팅26호기_WIN</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45792.0625</v>
+        <v>45793.6875</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45792.125</v>
+        <v>45793.72916666666</v>
       </c>
       <c r="E38" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H38" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20300</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>33.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -9198,42 +9198,42 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45792.14583333334</v>
+        <v>45792.0625</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45792.1875</v>
+        <v>45792.08333333334</v>
       </c>
       <c r="E39" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H39" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -9248,10 +9248,10 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45792.20833333334</v>
+        <v>45792.125</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45792.25</v>
+        <v>45792.16666666666</v>
       </c>
       <c r="E40" t="n">
         <v>60</v>
@@ -9274,12 +9274,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -9298,13 +9298,13 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45792.29166666666</v>
+        <v>45792.20833333334</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45792.3125</v>
+        <v>45792.25</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -9312,24 +9312,24 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
           <t>20702</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>20705</t>
-        </is>
-      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -9348,42 +9348,42 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45792.33333333334</v>
+        <v>45792.29166666666</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45792.375</v>
+        <v>45792.3125</v>
       </c>
       <c r="E42" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H42" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
           <t>20705</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>20705</t>
-        </is>
-      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -9398,24 +9398,24 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45792.41666666666</v>
+        <v>45792.33333333334</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45792.4375</v>
+        <v>45792.375</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>순수대기</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -9424,16 +9424,16 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20705</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>변경없음(대기)</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9448,10 +9448,10 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45792.45833333334</v>
+        <v>45792.41666666666</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45792.47916666666</v>
+        <v>45792.4375</v>
       </c>
       <c r="E44" t="n">
         <v>30</v>
@@ -9469,17 +9469,17 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
+          <t>20705</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -9498,42 +9498,42 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45792.5625</v>
+        <v>45792.45833333334</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45792.60416666666</v>
+        <v>45792.47916666666</v>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>순수대기</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H45" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
@@ -9548,42 +9548,42 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45792.72916666666</v>
+        <v>45792.5625</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45792.77083333334</v>
+        <v>45792.64583333334</v>
       </c>
       <c r="E46" t="n">
+        <v>120</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>혼합(셋업+대기)</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
         <v>60</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>순수대기</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>60</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20702</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -9598,42 +9598,42 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
+        <v>45792.72916666666</v>
+      </c>
+      <c r="D47" s="2" t="n">
         <v>45792.79166666666</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>45792.8125</v>
-      </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>30</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>100</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="48">
@@ -9648,13 +9648,13 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
+        <v>45792.83333333334</v>
+      </c>
+      <c r="D48" s="2" t="n">
         <v>45792.85416666666</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>45792.89583333334</v>
-      </c>
       <c r="E48" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -9662,24 +9662,24 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>20500</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -9698,42 +9698,42 @@
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45792.91666666666</v>
+        <v>45792.875</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45792.97916666666</v>
+        <v>45792.89583333334</v>
       </c>
       <c r="E49" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>30</v>
       </c>
       <c r="H49" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>20702</t>
+          <t>20706</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>20706</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>33.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -9748,42 +9748,42 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45793.02083333334</v>
+        <v>45792.97916666666</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45793.04166666666</v>
+        <v>45793.0625</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>순수셋업</t>
+          <t>혼합(셋업+대기)</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
           <t>20706</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>공정변경(SR→투명), 배합액변경</t>
+          <t>공정변경(투명→SR)</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
@@ -9798,13 +9798,13 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45793.20833333334</v>
+        <v>45793.14583333334</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45793.25</v>
+        <v>45793.16666666666</v>
       </c>
       <c r="E51" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -9812,24 +9812,24 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
+          <t>20706</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
           <t>20500</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>20702</t>
-        </is>
-      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>공정변경(투명→SR), 배합액변경</t>
+          <t>공정변경(SR→투명), 배합액변경</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -9848,42 +9848,42 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
+        <v>45793.29166666666</v>
+      </c>
+      <c r="D52" s="2" t="n">
         <v>45793.33333333334</v>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>45793.54166666666</v>
-      </c>
       <c r="E52" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>혼합(셋업+대기)</t>
+          <t>순수셋업</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H52" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
           <t>20702</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>공정변경(투명→SR), 배합액변경</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -9898,13 +9898,13 @@
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45793.60416666666</v>
+        <v>45793.35416666666</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45793.75</v>
+        <v>45793.58333333334</v>
       </c>
       <c r="E53" t="n">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -9915,25 +9915,25 @@
         <v>30</v>
       </c>
       <c r="H53" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
+          <t>20702</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
           <t>20700</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>20700</t>
-        </is>
-      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>변경없음(대기)</t>
+          <t>배합액변경</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>14.3</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="54">
@@ -9948,10 +9948,10 @@
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45793.8125</v>
+        <v>45793.64583333334</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45793.85416666666</v>
+        <v>45793.6875</v>
       </c>
       <c r="E54" t="n">
         <v>60</v>
@@ -9984,6 +9984,56 @@
       </c>
       <c r="L54" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>코팅27호기_WIN</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45793.75</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45793.79166666666</v>
+      </c>
+      <c r="E55" t="n">
+        <v>60</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>순수대기</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>60</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>변경없음(대기)</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
